--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C89EFA1A-4E89-4973-BB58-A654CA14902F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{381D9B01-3E25-45C7-8E92-3AEC9A957A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Task View" sheetId="2" r:id="rId2"/>
+    <sheet name="Look Ahead Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LA_PERIOD">Main!$T$4</definedName>
+    <definedName name="LEVEL">Main!$T$5</definedName>
+    <definedName name="MPP_FILEPATH">Main!$T$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
   <si>
     <t>NA</t>
   </si>
@@ -195,129 +201,24 @@
     <t>GIT Engagement Start</t>
   </si>
   <si>
-    <t>Raise SI Workflow Record</t>
-  </si>
-  <si>
-    <t>Project Definition Workshop held</t>
-  </si>
-  <si>
-    <t>Master Work Order created</t>
-  </si>
-  <si>
-    <t>Scope Specification completed</t>
-  </si>
-  <si>
-    <t>Architecture Overview completed</t>
-  </si>
-  <si>
-    <t>Deliverable Review List updated</t>
-  </si>
-  <si>
-    <t>IT Project Management Plan completed</t>
-  </si>
-  <si>
-    <t>IT Finance Workbook &amp; Investment Appraisal Template signed off</t>
-  </si>
-  <si>
     <t>GIT Engagement End (IT Readiness Assessment 2.1 signed off)</t>
   </si>
   <si>
     <t>GIT Investigation Start</t>
   </si>
   <si>
-    <t>Master Work Order - request for quotation issued</t>
-  </si>
-  <si>
-    <t>Implementation Plan drafted</t>
-  </si>
-  <si>
-    <t>Master Test Plan created</t>
-  </si>
-  <si>
-    <t>SOX Impact Assessment submitted</t>
-  </si>
-  <si>
-    <t>Mid Level Platform Design baselined</t>
-  </si>
-  <si>
-    <t>Initial Requirements Specification signed off</t>
-  </si>
-  <si>
-    <t>Infrastructure Design Review completed</t>
-  </si>
-  <si>
     <t>Method of Service Introduction Agreed  (i.e. V&amp;E Managed / Project Managed/ Change Managed), SI Acceptance Area Representatives Engaged</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-Functional Engineering Risk Assessment </t>
-  </si>
-  <si>
-    <t>SOX ATP (KC2) submitted</t>
-  </si>
-  <si>
-    <t>SI Acceptance Area Representatives Engaged</t>
-  </si>
-  <si>
     <t>GIT Investigation End   (IT Readiness Assessment 2.2  signed off)</t>
   </si>
   <si>
-    <t>GIT Develop Stage</t>
-  </si>
-  <si>
     <t>GIT Develop Start</t>
   </si>
   <si>
-    <t>Implementation Strategy completed</t>
-  </si>
-  <si>
     <t>GIT Design Start</t>
   </si>
   <si>
-    <t>Requirements definition completed</t>
-  </si>
-  <si>
-    <t>Architecture Description completed</t>
-  </si>
-  <si>
-    <t>Mid level platform design completed</t>
-  </si>
-  <si>
-    <t>Master Test Plan completed</t>
-  </si>
-  <si>
-    <t>Detailed Platform Application Design baselined</t>
-  </si>
-  <si>
-    <t>Non-Functional Test Plan drafted</t>
-  </si>
-  <si>
-    <t>Functional Test Plan completed</t>
-  </si>
-  <si>
-    <t>GIT Design End  (IT Readiness Assessment 3.1 signed off)</t>
-  </si>
-  <si>
-    <t>GIT Build Start</t>
-  </si>
-  <si>
-    <t>ITEC 2 Waiver completed</t>
-  </si>
-  <si>
-    <t>Non-Functional Test Plan completed</t>
-  </si>
-  <si>
-    <t>Implementation Plan completed</t>
-  </si>
-  <si>
-    <t>Decommissioning Plan finalised</t>
-  </si>
-  <si>
-    <t>Support Matrix completed</t>
-  </si>
-  <si>
-    <t>Build Test Report completed</t>
-  </si>
-  <si>
     <t>GIT Build End</t>
   </si>
   <si>
@@ -360,24 +261,12 @@
     <t>GIT Regression Test End</t>
   </si>
   <si>
-    <t>Non Functional Test Report completed</t>
-  </si>
-  <si>
-    <t>End of Test Report completed</t>
-  </si>
-  <si>
     <t>All SI Deliverables delivered/complete</t>
   </si>
   <si>
-    <t>Service Delivery Gateway 1 Approval (+10 days after All SI Deliverables End)</t>
-  </si>
-  <si>
     <t>SI Approval for Implementation to proceed (+3 days after SD Gateway 1 Approval)</t>
   </si>
   <si>
-    <t>SOX Test Stage Review held</t>
-  </si>
-  <si>
     <t>GIT Test End   (IT Readiness Assessment 3.3 signed off)</t>
   </si>
   <si>
@@ -390,15 +279,9 @@
     <t>GIT Live Start</t>
   </si>
   <si>
-    <t>Post Implementation Review held</t>
-  </si>
-  <si>
     <t>GIT Live End</t>
   </si>
   <si>
-    <t>Implementation completed / Handover Report completed</t>
-  </si>
-  <si>
     <t>GIT Regulatory Compliance Date</t>
   </si>
   <si>
@@ -411,12 +294,6 @@
     <t>GIT Benefits Stage</t>
   </si>
   <si>
-    <t>Benefits Delivery Stage</t>
-  </si>
-  <si>
-    <t>Benefits Delivery completed / Benefits Delivery Report signed-off</t>
-  </si>
-  <si>
     <t>DTI</t>
   </si>
   <si>
@@ -489,81 +366,15 @@
     <t>GREEN-15</t>
   </si>
   <si>
-    <t>-499-234</t>
-  </si>
-  <si>
-    <t>-499-238</t>
-  </si>
-  <si>
-    <t>-499-239</t>
-  </si>
-  <si>
-    <t>-499-240</t>
-  </si>
-  <si>
-    <t>-499-244</t>
-  </si>
-  <si>
-    <t>-499-245</t>
-  </si>
-  <si>
-    <t>-499-247</t>
-  </si>
-  <si>
-    <t>-499-250</t>
-  </si>
-  <si>
     <t>-499-251</t>
   </si>
   <si>
-    <t>-499-253</t>
-  </si>
-  <si>
-    <t>-499-254</t>
-  </si>
-  <si>
-    <t>-499-263</t>
-  </si>
-  <si>
-    <t>-499-264</t>
-  </si>
-  <si>
-    <t>-499-265</t>
-  </si>
-  <si>
-    <t>-499-266</t>
-  </si>
-  <si>
-    <t>-499-267</t>
-  </si>
-  <si>
-    <t>-499-270</t>
-  </si>
-  <si>
-    <t>-499-271</t>
-  </si>
-  <si>
-    <t>-499-273</t>
-  </si>
-  <si>
-    <t>-499-274</t>
-  </si>
-  <si>
-    <t>-499-275</t>
-  </si>
-  <si>
-    <t>-499-290</t>
-  </si>
-  <si>
     <t>-499-292</t>
   </si>
   <si>
     <t>-499-294</t>
   </si>
   <si>
-    <t>-499-307</t>
-  </si>
-  <si>
     <t>Ref</t>
   </si>
   <si>
@@ -592,6 +403,33 @@
   </si>
   <si>
     <t>Milestone Name</t>
+  </si>
+  <si>
+    <t>BAC1B8</t>
+  </si>
+  <si>
+    <t>DA2C38</t>
+  </si>
+  <si>
+    <t>0F743C</t>
+  </si>
+  <si>
+    <t>6D6A75</t>
+  </si>
+  <si>
+    <t>FC814A</t>
+  </si>
+  <si>
+    <t>96939B</t>
+  </si>
+  <si>
+    <t>E8E8E8</t>
+  </si>
+  <si>
+    <t>817E8A</t>
+  </si>
+  <si>
+    <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.0.mpp</t>
   </si>
 </sst>
 </file>
@@ -601,7 +439,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,8 +468,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF817E8A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +486,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96939B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC814A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAC1B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA2C38"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F743C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D6A75"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF817E8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -672,6 +571,21 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,6 +612,20 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF817E8A"/>
+      <color rgb="FFE8E8E8"/>
+      <color rgb="FF96939B"/>
+      <color rgb="FFDA2C38"/>
+      <color rgb="FFBAC1B8"/>
+      <color rgb="FF6D6A75"/>
+      <color rgb="FF0F743C"/>
+      <color rgb="FFFC814A"/>
+      <color rgb="FF564256"/>
+      <color rgb="FFBFBFBF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -709,70 +637,1109 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="BtnImportMPP" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>183045</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>227834</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B508878A-D868-4622-80CA-389A515E62E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="792645" y="266700"/>
+          <a:ext cx="654389" cy="885825"/>
+          <a:chOff x="792645" y="266700"/>
+          <a:chExt cx="654389" cy="885825"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic macro="[0]!SelectMPP">
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3" descr="Microsoft Project - Wikipedia">
             <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCFAE3D-0C8F-4FF7-99C4-EE5479DB433C}"/>
               </a:ext>
             </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="792645" y="266700"/>
+            <a:ext cx="654389" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="[0]!SelectMPP" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05337A2E-05F7-4D7B-AD2E-DBB41BC20253}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="795839" y="895350"/>
+            <a:ext cx="648000" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="6D6A75"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="E8E8E8"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Import</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9FE086-3ECD-4679-9A71-3FD7C48B100A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2466975" y="142875"/>
+          <a:ext cx="3096000" cy="2286000"/>
+          <a:chOff x="2466975" y="142875"/>
+          <a:chExt cx="3096000" cy="2286000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97BE874E-1566-437C-831D-6295D0D15E0C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="142875"/>
+            <a:ext cx="3096000" cy="2286000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 2500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="6D6A75"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3D4335-265C-4E22-A296-0A911A24CE59}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="142875"/>
+            <a:ext cx="3096000" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="DA2C38"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="E8E8E8"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Look Ahead Report</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLAR4wClick" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="BtnLAR4w">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711CF68E-298B-4110-AF75-6C65B51F5C08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="1095376"/>
+          <a:ext cx="781050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="DA2C38"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="DA2C38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+            <a:prstClr val="black">
+              <a:alpha val="50000"/>
+            </a:prstClr>
+          </a:innerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="756A6D"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Weeks</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="E8E8E8"/>
+            </a:solidFill>
+            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLAR12wClick" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="BtnLAR12w">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764C1C12-42C1-4E22-9956-6BC2FBCAE756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="771526"/>
+          <a:ext cx="781050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DA2C38"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Weeks</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="E8E8E8"/>
+            </a:solidFill>
+            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>566925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLARGenClick" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="BtnLARGen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350944E8-39E8-40DA-8A9A-2392ED03B22A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3195825" y="1857375"/>
+          <a:ext cx="1638300" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DA2C38"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Generate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>216712</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLvl1Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="BtnLvl1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296723A-A2C6-44B9-98ED-4EC22D98E06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481512" y="742951"/>
+          <a:ext cx="612000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DA2C38"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>216712</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLvl2Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="BtnLvl2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DD6C83-F973-42BC-BFFF-2FD26F7C0FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481512" y="962026"/>
+          <a:ext cx="612000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="DA2C38"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="DA2C38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+            <a:prstClr val="black">
+              <a:alpha val="50000"/>
+            </a:prstClr>
+          </a:innerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="756A6D"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>216712</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLvl3Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="BtnLvl3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2545847-4DA1-41A9-8666-8A9E227321BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481512" y="1181101"/>
+          <a:ext cx="612000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DA2C38"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>216712</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>92176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLvl4Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="BtnLvl4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC192345-61AB-41EF-86A8-DA9449DF816E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481512" y="1400176"/>
+          <a:ext cx="612000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DA2C38"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1072,56 +2039,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB7A1B8-C6E8-4CC3-A91F-BC6D2D0C2290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB7A1B8-C6E8-4CC3-A91F-BC6D2D0C2290}">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="A1"/>
+  <dimension ref="T4:T6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="19" width="9.140625" style="12"/>
+    <col min="20" max="20" width="9.140625" style="16"/>
+    <col min="21" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T5" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T6" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId3" name="BtnImportMPP">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId3" name="BtnImportMPP"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D30EAA-5C72-4177-9EF6-C735363B5EB1}">
   <sheetPr codeName="ShtTaskView"/>
-  <dimension ref="C2:P129"/>
+  <dimension ref="C2:P127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +2093,7 @@
     <col min="5" max="5" width="130.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -1143,37 +2103,37 @@
   <sheetData>
     <row r="2" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
@@ -1188,7 +2148,7 @@
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1202,16 +2162,16 @@
       <c r="G5" s="4">
         <v>41641</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>127</v>
+      <c r="H5" s="8">
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1225,17 +2185,17 @@
       <c r="G6" s="4">
         <v>41641</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>127</v>
+      <c r="H6" s="8">
+        <v>0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1249,11 +2209,11 @@
       <c r="G7" s="4">
         <v>41641</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>127</v>
+      <c r="H7" s="8">
+        <v>0</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P7" s="5"/>
     </row>
@@ -1265,7 +2225,7 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1279,17 +2239,17 @@
       <c r="G9" s="4">
         <v>41641</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>127</v>
+      <c r="H9" s="8">
+        <v>0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1303,17 +2263,17 @@
       <c r="G10" s="4">
         <v>41641</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>127</v>
+      <c r="H10" s="8">
+        <v>0</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1327,17 +2287,17 @@
       <c r="G11" s="4">
         <v>41641</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>127</v>
+      <c r="H11" s="8">
+        <v>0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1351,17 +2311,17 @@
       <c r="G12" s="4">
         <v>41641</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>127</v>
+      <c r="H12" s="8">
+        <v>0</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1375,17 +2335,17 @@
       <c r="G13" s="4">
         <v>41641</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>127</v>
+      <c r="H13" s="8">
+        <v>0</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1399,17 +2359,17 @@
       <c r="G14" s="4">
         <v>41641</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>127</v>
+      <c r="H14" s="8">
+        <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1423,17 +2383,17 @@
       <c r="G15" s="4">
         <v>41641</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>127</v>
+      <c r="H15" s="8">
+        <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1447,17 +2407,17 @@
       <c r="G16" s="4">
         <v>41641</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>127</v>
+      <c r="H16" s="8">
+        <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1471,16 +2431,16 @@
       <c r="G17" s="4">
         <v>41641</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>127</v>
+      <c r="H17" s="8">
+        <v>0</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1494,11 +2454,11 @@
       <c r="G18" s="4">
         <v>41641</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>127</v>
+      <c r="H18" s="8">
+        <v>0</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -1508,7 +2468,7 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1522,16 +2482,16 @@
       <c r="G20" s="4">
         <v>41641</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>127</v>
+      <c r="H20" s="8">
+        <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1545,16 +2505,16 @@
       <c r="G21" s="4">
         <v>41641</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>127</v>
+      <c r="H21" s="8">
+        <v>0</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1568,16 +2528,16 @@
       <c r="G22" s="4">
         <v>41641</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>127</v>
+      <c r="H22" s="8">
+        <v>0</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1591,16 +2551,16 @@
       <c r="G23" s="4">
         <v>41641</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>127</v>
+      <c r="H23" s="8">
+        <v>0</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1614,16 +2574,16 @@
       <c r="G24" s="4">
         <v>41641</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>127</v>
+      <c r="H24" s="8">
+        <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1637,16 +2597,16 @@
       <c r="G25" s="4">
         <v>41641</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>127</v>
+      <c r="H25" s="8">
+        <v>0</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1660,16 +2620,16 @@
       <c r="G26" s="4">
         <v>41641</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>127</v>
+      <c r="H26" s="8">
+        <v>0</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1683,16 +2643,16 @@
       <c r="G27" s="4">
         <v>41641</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>127</v>
+      <c r="H27" s="8">
+        <v>0</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1706,11 +2666,11 @@
       <c r="G28" s="4">
         <v>41641</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>127</v>
+      <c r="H28" s="8">
+        <v>0</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
@@ -1729,11 +2689,11 @@
       <c r="G29" s="4">
         <v>41641</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>127</v>
+      <c r="H29" s="8">
+        <v>0</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
@@ -1752,11 +2712,11 @@
       <c r="G30" s="4">
         <v>41641</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>127</v>
+      <c r="H30" s="8">
+        <v>0</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
@@ -1775,11 +2735,11 @@
       <c r="G31" s="4">
         <v>41641</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>127</v>
+      <c r="H31" s="8">
+        <v>0</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
@@ -1798,11 +2758,11 @@
       <c r="G32" s="4">
         <v>41641</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>127</v>
+      <c r="H32" s="8">
+        <v>0</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
@@ -1821,11 +2781,11 @@
       <c r="G33" s="4">
         <v>41641</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>127</v>
+      <c r="H33" s="8">
+        <v>0</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
@@ -1844,11 +2804,11 @@
       <c r="G34" s="4">
         <v>41641</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>127</v>
+      <c r="H34" s="8">
+        <v>0</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
@@ -1867,11 +2827,11 @@
       <c r="G35" s="4">
         <v>41641</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>127</v>
+      <c r="H35" s="8">
+        <v>0</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
@@ -1890,11 +2850,11 @@
       <c r="G36" s="4">
         <v>41641</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>127</v>
+      <c r="H36" s="8">
+        <v>0</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.25">
@@ -1913,11 +2873,11 @@
       <c r="G37" s="4">
         <v>41641</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>127</v>
+      <c r="H37" s="8">
+        <v>0</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.25">
@@ -1936,11 +2896,11 @@
       <c r="G38" s="4">
         <v>41641</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>127</v>
+      <c r="H38" s="8">
+        <v>0</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.25">
@@ -1959,11 +2919,11 @@
       <c r="G39" s="4">
         <v>41641</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>127</v>
+      <c r="H39" s="8">
+        <v>0</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
@@ -1987,11 +2947,11 @@
       <c r="G41" s="4">
         <v>41641</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>127</v>
+      <c r="H41" s="8">
+        <v>0</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
@@ -2010,11 +2970,11 @@
       <c r="G42" s="4">
         <v>41641</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>127</v>
+      <c r="H42" s="8">
+        <v>0</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
@@ -2033,11 +2993,11 @@
       <c r="G43" s="4">
         <v>41641</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>127</v>
+      <c r="H43" s="8">
+        <v>0</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.25">
@@ -2056,11 +3016,11 @@
       <c r="G44" s="4">
         <v>41641</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>127</v>
+      <c r="H44" s="8">
+        <v>0</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
@@ -2079,11 +3039,11 @@
       <c r="G45" s="4">
         <v>41641</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>127</v>
+      <c r="H45" s="8">
+        <v>0</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
@@ -2102,11 +3062,11 @@
       <c r="G46" s="4">
         <v>41641</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>127</v>
+      <c r="H46" s="8">
+        <v>0</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.25">
@@ -2125,11 +3085,11 @@
       <c r="G47" s="4">
         <v>41641</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>127</v>
+      <c r="H47" s="8">
+        <v>0</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.25">
@@ -2148,11 +3108,11 @@
       <c r="G48" s="4">
         <v>41641</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>127</v>
+      <c r="H48" s="8">
+        <v>0</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
@@ -2176,11 +3136,11 @@
       <c r="G50" s="4">
         <v>41641</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>127</v>
+      <c r="H50" s="8">
+        <v>0</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
@@ -2199,11 +3159,11 @@
       <c r="G51" s="4">
         <v>41641</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>127</v>
+      <c r="H51" s="8">
+        <v>0</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
@@ -2232,19 +3192,19 @@
       <c r="G54" s="4">
         <v>41641</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>127</v>
+      <c r="H54" s="8">
+        <v>0</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>151</v>
+      <c r="C55">
+        <v>-90001</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
@@ -2255,19 +3215,19 @@
       <c r="G55" s="4">
         <v>41641</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>127</v>
+      <c r="H55" s="8">
+        <v>0</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C56">
-        <v>-800</v>
+        <v>-90002</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
@@ -2278,19 +3238,19 @@
       <c r="G56" s="4">
         <v>41641</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>127</v>
+      <c r="H56" s="8">
+        <v>0</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>-805</v>
+      <c r="C57" t="s">
+        <v>108</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
@@ -2301,19 +3261,19 @@
       <c r="G57" s="4">
         <v>41641</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>127</v>
+      <c r="H57" s="8">
+        <v>0</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C58">
-        <v>-810</v>
+        <v>-90003</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
@@ -2324,91 +3284,68 @@
       <c r="G58" s="4">
         <v>41641</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>127</v>
+      <c r="H58" s="8">
+        <v>0</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>-90003.5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>-90004</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>59</v>
-      </c>
       <c r="F61" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G61" s="4">
         <v>41641</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>127</v>
+      <c r="H61" s="8">
+        <v>0</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C62">
-        <v>-820</v>
+        <v>-90007</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>0</v>
@@ -2416,22 +3353,22 @@
       <c r="G62" s="4">
         <v>41641</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>127</v>
+      <c r="H62" s="8">
+        <v>0</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63">
-        <v>-90001</v>
+        <v>-90008</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>0</v>
@@ -2439,137 +3376,137 @@
       <c r="G63" s="4">
         <v>41641</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>127</v>
+      <c r="H63" s="8">
+        <v>0</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64">
-        <v>-90002</v>
+        <v>-90009</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>-90010</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>62</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>-90011</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
         <v>63</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>64</v>
-      </c>
       <c r="F66" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G66" s="4">
         <v>41641</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>127</v>
+      <c r="H66" s="8">
+        <v>0</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C67">
-        <v>-835</v>
+        <v>-90012</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>-90013</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>157</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>66</v>
-      </c>
       <c r="F68" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G68" s="4">
         <v>41641</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>127</v>
+      <c r="H68" s="8">
+        <v>0</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69">
-        <v>-845</v>
+        <v>-90014</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>0</v>
@@ -2577,188 +3514,206 @@
       <c r="G69" s="4">
         <v>41641</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>127</v>
+      <c r="H69" s="8">
+        <v>0</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C70">
-        <v>-850</v>
+        <v>-90015</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>-90016</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>158</v>
-      </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>-90017</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
         <v>69</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>70</v>
-      </c>
       <c r="F72" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G72" s="4">
         <v>41641</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>127</v>
+      <c r="H72" s="8">
+        <v>0</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C73">
-        <v>-851</v>
+        <v>-90018</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H73" s="8">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>-90019</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="F74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>-90020</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76">
-        <v>-90003</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="F76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>75</v>
+      <c r="F77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H77" s="8">
+        <v>0</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C78">
-        <v>-90003.5</v>
+        <v>-90021</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>0</v>
@@ -2766,22 +3721,22 @@
       <c r="G78" s="4">
         <v>41641</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>127</v>
+      <c r="H78" s="8">
+        <v>0</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C79">
-        <v>-852</v>
+        <v>-90021.5</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>0</v>
@@ -2789,45 +3744,22 @@
       <c r="G79" s="4">
         <v>41641</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>127</v>
+      <c r="H79" s="8">
+        <v>0</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80">
-        <v>-90004</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>78</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81">
-        <v>-853</v>
+        <v>-90022</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>0</v>
@@ -2835,22 +3767,22 @@
       <c r="G81" s="4">
         <v>41641</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>127</v>
+      <c r="H81" s="8">
+        <v>0</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C82">
-        <v>-854</v>
+        <v>-90023</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>0</v>
@@ -2858,65 +3790,65 @@
       <c r="G82" s="4">
         <v>41641</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>127</v>
+      <c r="H82" s="8">
+        <v>0</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C83">
-        <v>-855</v>
+        <v>-90024</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E83" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H83" s="8">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>-90025</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
         <v>81</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G83" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-      <c r="E84" t="s">
-        <v>63</v>
-      </c>
       <c r="F84" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G84" s="4">
         <v>41641</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>127</v>
+      <c r="H84" s="8">
+        <v>0</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>163</v>
+      <c r="C85">
+        <v>-90026</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>82</v>
@@ -2927,987 +3859,21 @@
       <c r="G85" s="4">
         <v>41641</v>
       </c>
-      <c r="H85" s="4" t="s">
-        <v>127</v>
+      <c r="H85" s="8">
+        <v>0</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>164</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
         <v>83</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G86" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G87" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88">
-        <v>3</v>
-      </c>
-      <c r="E88" t="s">
-        <v>85</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G88" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89">
-        <v>-90005</v>
-      </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G89" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C90">
-        <v>-90006</v>
-      </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="E90" t="s">
-        <v>87</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G90" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>167</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>88</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G91" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92">
-        <v>3</v>
-      </c>
-      <c r="E92" t="s">
-        <v>89</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G92" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93">
-        <v>-880</v>
-      </c>
-      <c r="D93">
-        <v>4</v>
-      </c>
-      <c r="E93" t="s">
-        <v>90</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="E94" t="s">
-        <v>91</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>170</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95" t="s">
-        <v>92</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G95" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D96">
-        <v>4</v>
-      </c>
-      <c r="E96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G96" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97">
-        <v>-90007</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>94</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98">
-        <v>-90008</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
-        <v>95</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G98" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C99">
-        <v>-90009</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99" t="s">
-        <v>96</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C100">
-        <v>-90010</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C101">
-        <v>-90011</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s">
-        <v>98</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C102">
-        <v>-90012</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
-        <v>99</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G102" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C103">
-        <v>-90013</v>
-      </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s">
-        <v>100</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G103" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C104">
-        <v>-90014</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104" t="s">
-        <v>101</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G104" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C105">
-        <v>-90015</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s">
-        <v>102</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G105" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C106">
-        <v>-90016</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106" t="s">
-        <v>103</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G106" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C107">
-        <v>-90017</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s">
-        <v>104</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G107" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C108">
-        <v>-90018</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>105</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G108" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C109">
-        <v>-90019</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109" t="s">
-        <v>106</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G109" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C110">
-        <v>-90020</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110" t="s">
-        <v>107</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G110" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>172</v>
-      </c>
-      <c r="D111">
-        <v>4</v>
-      </c>
-      <c r="E111" t="s">
-        <v>108</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C112">
-        <v>-885</v>
-      </c>
-      <c r="D112">
-        <v>4</v>
-      </c>
-      <c r="E112" t="s">
-        <v>109</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G112" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>173</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>110</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G113" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C114">
-        <v>-890</v>
-      </c>
-      <c r="D114">
-        <v>4</v>
-      </c>
-      <c r="E114" t="s">
-        <v>111</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G114" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>174</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115" t="s">
-        <v>112</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G115" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C116">
-        <v>-895</v>
-      </c>
-      <c r="D116">
-        <v>4</v>
-      </c>
-      <c r="E116" t="s">
-        <v>113</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G116" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C117">
-        <v>-90021</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117" t="s">
-        <v>114</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G117" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C118">
-        <v>-90021.5</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118" t="s">
-        <v>115</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G118" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E119" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C120">
-        <v>-90022</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120" t="s">
-        <v>117</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G120" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C121">
-        <v>-905</v>
-      </c>
-      <c r="D121">
-        <v>4</v>
-      </c>
-      <c r="E121" t="s">
-        <v>118</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G121" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C122">
-        <v>-90023</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122" t="s">
-        <v>119</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G122" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C123">
-        <v>-910</v>
-      </c>
-      <c r="D123">
-        <v>4</v>
-      </c>
-      <c r="E123" t="s">
-        <v>120</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G123" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C124">
-        <v>-90024</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124" t="s">
-        <v>121</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G124" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J124" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C125">
-        <v>-90025</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125" t="s">
-        <v>122</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G125" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C126">
-        <v>-90026</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126" t="s">
-        <v>123</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G126" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E127" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
-        <v>175</v>
-      </c>
-      <c r="D128">
-        <v>4</v>
-      </c>
-      <c r="E128" t="s">
-        <v>125</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G128" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C129">
-        <v>-915</v>
-      </c>
-      <c r="D129">
-        <v>4</v>
-      </c>
-      <c r="E129" t="s">
-        <v>126</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G129" s="4">
-        <v>41641</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3919,4 +3885,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CA803F-CBF2-459F-8B36-1CD21AE3CFD0}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="C5:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5">
+        <f>HEX2DEC(E5)</f>
+        <v>12239288</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6">
+        <v>3681498</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F6:F12" si="0">HEX2DEC(E7)</f>
+        <v>1012796</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>7170677</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>16548170</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>9868187</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>15263976</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12">
+        <v>9076353</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6849A514-C5AA-4020-8C23-36C484E2E10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{381D9B01-3E25-45C7-8E92-3AEC9A957A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Look Ahead Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LA_PERIOD">Main!$T$4</definedName>
     <definedName name="LEVEL">Main!$T$5</definedName>
     <definedName name="MPP_FILEPATH">Main!$T$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,370 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Business Milestones</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Concept Start</t>
+  </si>
+  <si>
+    <t>Project Brief Complete</t>
+  </si>
+  <si>
+    <t>Concept Complete</t>
+  </si>
+  <si>
+    <t>Define</t>
+  </si>
+  <si>
+    <t>Define Start</t>
+  </si>
+  <si>
+    <t>Initial Funding Request Approved</t>
+  </si>
+  <si>
+    <t>Initial Requirements Definition Signed Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Data Strategy Complete </t>
+  </si>
+  <si>
+    <t>Test Environment Strategy Complete</t>
+  </si>
+  <si>
+    <t>Solution Feasibility Report Signed Off</t>
+  </si>
+  <si>
+    <t>Group Compliance Checks Complete</t>
+  </si>
+  <si>
+    <t>CSOC Impact Assessment Complete</t>
+  </si>
+  <si>
+    <t>PSOC Impact Assessment Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define Complete </t>
+  </si>
+  <si>
+    <t>Develop</t>
+  </si>
+  <si>
+    <t>Develop Start</t>
+  </si>
+  <si>
+    <t>Design Start</t>
+  </si>
+  <si>
+    <t>Full Requirements Definition Signed Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid Level Platform Designs Complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Test Phase&gt; Environment and Data Ready for Testing </t>
+  </si>
+  <si>
+    <t>Design Complete</t>
+  </si>
+  <si>
+    <t>Build Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build Complete </t>
+  </si>
+  <si>
+    <t>Test Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Test Start </t>
+  </si>
+  <si>
+    <t>System Test Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT Change Slot Requested </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Integration Test Start </t>
+  </si>
+  <si>
+    <t>System Integration Test Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Acceptance Test Start  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Acceptance Test Complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Functional Test Start </t>
+  </si>
+  <si>
+    <t>Non-Functional Test Complete</t>
+  </si>
+  <si>
+    <t>Test Complete</t>
+  </si>
+  <si>
+    <t>Develop Complete</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>Deploy Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment Start </t>
+  </si>
+  <si>
+    <t>Deployment Live</t>
+  </si>
+  <si>
+    <t>People Impacts Delivered</t>
+  </si>
+  <si>
+    <t>Customer Impacts Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Implementation Review Signed Off </t>
+  </si>
+  <si>
+    <t>Handover Report Signed Off</t>
+  </si>
+  <si>
+    <t>Deploy Complete</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Benefits Realisation Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits Realisation Complete/Project Closed </t>
+  </si>
+  <si>
+    <t>Group IT Milestones</t>
+  </si>
+  <si>
+    <t>GIT Define Stage</t>
+  </si>
+  <si>
+    <t>GIT Engagement Start</t>
+  </si>
+  <si>
+    <t>GIT Engagement End (IT Readiness Assessment 2.1 signed off)</t>
+  </si>
+  <si>
+    <t>GIT Investigation Start</t>
+  </si>
+  <si>
+    <t>Method of Service Introduction Agreed  (i.e. V&amp;E Managed / Project Managed/ Change Managed), SI Acceptance Area Representatives Engaged</t>
+  </si>
+  <si>
+    <t>GIT Investigation End   (IT Readiness Assessment 2.2  signed off)</t>
+  </si>
+  <si>
+    <t>GIT Develop Start</t>
+  </si>
+  <si>
+    <t>GIT Design Start</t>
+  </si>
+  <si>
+    <t>GIT Build End</t>
+  </si>
+  <si>
+    <t>GIT Test Start</t>
+  </si>
+  <si>
+    <t>GIT System Test Start</t>
+  </si>
+  <si>
+    <t>GIT System Test End  (IT Readiness Assessment 3.2 A signed off)</t>
+  </si>
+  <si>
+    <t>GIT SI Test Start</t>
+  </si>
+  <si>
+    <t>GIT SI Test End  (IT Readiness Assessment 3.2 B signed off)</t>
+  </si>
+  <si>
+    <t>GIT UAT Start</t>
+  </si>
+  <si>
+    <t>GIT UAT End</t>
+  </si>
+  <si>
+    <t>GIT NFT Start</t>
+  </si>
+  <si>
+    <t>GIT NFT End</t>
+  </si>
+  <si>
+    <t>GIT OAT Start</t>
+  </si>
+  <si>
+    <t>GIT OAT End</t>
+  </si>
+  <si>
+    <t>GIT Regression Test Start</t>
+  </si>
+  <si>
+    <t>GIT Regression Test End</t>
+  </si>
+  <si>
+    <t>All SI Deliverables delivered/complete</t>
+  </si>
+  <si>
+    <t>SI Approval for Implementation to proceed (+3 days after SD Gateway 1 Approval)</t>
+  </si>
+  <si>
+    <t>GIT Test End   (IT Readiness Assessment 3.3 signed off)</t>
+  </si>
+  <si>
+    <t>GIT Develop End</t>
+  </si>
+  <si>
+    <t>GIT Deploy Stage</t>
+  </si>
+  <si>
+    <t>GIT Live Start</t>
+  </si>
+  <si>
+    <t>GIT Live End</t>
+  </si>
+  <si>
+    <t>GIT Regulatory Compliance Date</t>
+  </si>
+  <si>
+    <t>GIT SR Decouple Date</t>
+  </si>
+  <si>
+    <t>GIT Warranty End</t>
+  </si>
+  <si>
+    <t>GIT Benefits Stage</t>
+  </si>
+  <si>
+    <t>DTI</t>
+  </si>
+  <si>
+    <t>RAG</t>
+  </si>
+  <si>
+    <t>GREEN-0.5</t>
+  </si>
+  <si>
+    <t>GREEN-1.5</t>
+  </si>
+  <si>
+    <t>GREEN-2</t>
+  </si>
+  <si>
+    <t>GREEN-3</t>
+  </si>
+  <si>
+    <t>GREEN-4.5</t>
+  </si>
+  <si>
+    <t>GREEN-6.5</t>
+  </si>
+  <si>
+    <t>GREEN-7</t>
+  </si>
+  <si>
+    <t>GREEN-7.5</t>
+  </si>
+  <si>
+    <t>GREEN-8</t>
+  </si>
+  <si>
+    <t>GREEN-8.1</t>
+  </si>
+  <si>
+    <t>GREEN-8.5</t>
+  </si>
+  <si>
+    <t>GREEN-9</t>
+  </si>
+  <si>
+    <t>GREEN-10</t>
+  </si>
+  <si>
+    <t>GREEN-10.5</t>
+  </si>
+  <si>
+    <t>GREEN-11</t>
+  </si>
+  <si>
+    <t>GREEN-11.5</t>
+  </si>
+  <si>
+    <t>GREEN-12</t>
+  </si>
+  <si>
+    <t>GREEN-12.5</t>
+  </si>
+  <si>
+    <t>GREEN-13</t>
+  </si>
+  <si>
+    <t>GREEN-14</t>
+  </si>
+  <si>
+    <t>GREEN-14.5</t>
+  </si>
+  <si>
+    <t>GREEN-15</t>
+  </si>
+  <si>
+    <t>-499-251</t>
+  </si>
+  <si>
+    <t>-499-292</t>
+  </si>
+  <si>
+    <t>-499-294</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Baseline Finish</t>
+  </si>
+  <si>
+    <t>Forecast Finish</t>
+  </si>
+  <si>
+    <t>Last RAG</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>Milestone Name</t>
+  </si>
   <si>
     <t>BAC1B8</t>
   </si>
@@ -72,8 +436,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,12 +476,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -166,11 +555,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -178,13 +584,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{ED3DACD9-5B4B-47B4-AB17-B329AFBAD914}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -533,6 +959,247 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLAR4wClick" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="BtnLAR4w">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711CF68E-298B-4110-AF75-6C65B51F5C08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="1095376"/>
+          <a:ext cx="781050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="DA2C38"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="DA2C38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+            <a:prstClr val="black">
+              <a:alpha val="50000"/>
+            </a:prstClr>
+          </a:innerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="756A6D"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Weeks</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="E8E8E8"/>
+            </a:solidFill>
+            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLAR12wClick" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="BtnLAR12w">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764C1C12-42C1-4E22-9956-6BC2FBCAE756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="771526"/>
+          <a:ext cx="781050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DA2C38"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Weeks</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000" b="0">
+            <a:solidFill>
+              <a:srgbClr val="E8E8E8"/>
+            </a:solidFill>
+            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>147825</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -648,655 +1315,429 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>353794</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>360956</xdr:colOff>
+      <xdr:colOff>216712</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLvl1Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="BtnLvl1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296723A-A2C6-44B9-98ED-4EC22D98E06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481512" y="742951"/>
+          <a:ext cx="612000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DA2C38"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>216712</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLvl2Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="BtnLvl2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DD6C83-F973-42BC-BFFF-2FD26F7C0FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481512" y="962026"/>
+          <a:ext cx="612000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="DA2C38"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="DA2C38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+            <a:prstClr val="black">
+              <a:alpha val="50000"/>
+            </a:prstClr>
+          </a:innerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="756A6D"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>216712</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ShtMain.BtnLvl3Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="BtnLvl3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2545847-4DA1-41A9-8666-8A9E227321BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481512" y="1181101"/>
+          <a:ext cx="612000" cy="216000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DA2C38"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>216712</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>92176</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="Group 16">
+    <xdr:sp macro="[0]!ShtMain.BtnLvl4Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="BtnLvl4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96112D4-A190-4930-86C9-AA0C89AEAD23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC192345-61AB-41EF-86A8-DA9449DF816E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2792194" y="742951"/>
-          <a:ext cx="2445562" cy="873225"/>
-          <a:chOff x="2647950" y="742951"/>
-          <a:chExt cx="2445562" cy="873225"/>
+          <a:off x="4481512" y="1400176"/>
+          <a:ext cx="612000" cy="216000"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EDC72D-35BD-4799-BE46-54C8746DE9F2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2647950" y="742951"/>
-            <a:ext cx="781050" cy="647700"/>
-            <a:chOff x="2647950" y="771526"/>
-            <a:chExt cx="781050" cy="647700"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="[0]!ShtMain.BtnLAR4wClick" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="BtnLAR4w">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711CF68E-298B-4110-AF75-6C65B51F5C08}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2647950" y="1095376"/>
-              <a:ext cx="781050" cy="323850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="8A7E81"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DA2C38"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>4</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t> Weeks</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1000" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnLAR12wClick" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="BtnLAR12w">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764C1C12-42C1-4E22-9956-6BC2FBCAE756}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2647950" y="771526"/>
-              <a:ext cx="781050" cy="323850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="DA2C38"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="DA2C38"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                <a:prstClr val="black">
-                  <a:alpha val="50000"/>
-                </a:prstClr>
-              </a:innerShdw>
-            </a:effectLst>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="756A6D"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>12</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t> Weeks</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1000" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="12" name="Group 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BDCF3A-6AC1-42B6-B6CA-8399A140E054}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4481512" y="742951"/>
-            <a:ext cx="612000" cy="873225"/>
-            <a:chOff x="4481512" y="742951"/>
-            <a:chExt cx="612000" cy="873225"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="[0]!ShtMain.BtnLvl1Click" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="BtnLvl1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296723A-A2C6-44B9-98ED-4EC22D98E06A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4481512" y="742951"/>
-              <a:ext cx="612000" cy="216000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnLvl2Click" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="BtnLvl2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DD6C83-F973-42BC-BFFF-2FD26F7C0FCD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4481512" y="962026"/>
-              <a:ext cx="612000" cy="216000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnLvl3Click" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="BtnLvl3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2545847-4DA1-41A9-8666-8A9E227321BC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4481512" y="1181101"/>
-              <a:ext cx="612000" cy="216000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>3</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnLvl4Click" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="BtnLvl4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC192345-61AB-41EF-86A8-DA9449DF816E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4481512" y="1400176"/>
-              <a:ext cx="612000" cy="216000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="DA2C38"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="DA2C38"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                <a:prstClr val="black">
-                  <a:alpha val="50000"/>
-                </a:prstClr>
-              </a:innerShdw>
-            </a:effectLst>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="756A6D"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>4</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1603,29 +2044,29 @@
   <dimension ref="T4:T6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="9.140625" style="4"/>
-    <col min="20" max="20" width="9.140625" style="8"/>
-    <col min="21" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="19" width="9.140625" style="12"/>
+    <col min="20" max="20" width="9.140625" style="16"/>
+    <col min="21" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="4" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T4" s="8">
-        <v>12</v>
+      <c r="T4" s="16">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T5" s="8">
-        <v>4</v>
+      <c r="T5" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T6" s="8" t="s">
-        <v>8</v>
+      <c r="T6" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1635,6 +2076,1818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D30EAA-5C72-4177-9EF6-C735363B5EB1}">
+  <sheetPr codeName="ShtTaskView"/>
+  <dimension ref="C2:P127"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="E21:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>-15.1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>-15.2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>-15.3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>-15.4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>-15.5</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>-15.6</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>-15.7</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>-15.8</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>-15.9</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>-16.5</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>-17</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>-18</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>-18.5</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>-18.7</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>-19</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>-20.5</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>-21</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>-22</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>-24</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>-90000</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>-90001</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>-90002</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>-90003</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>-90003.5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>-90004</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>-90007</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>-90008</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>-90009</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>-90010</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>-90011</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>-90012</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H67" s="8">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>-90013</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H68" s="8">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>-90014</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H69" s="8">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>-90015</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>-90016</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H71" s="8">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>-90017</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>-90018</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H73" s="8">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>-90019</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>-90020</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H77" s="8">
+        <v>0</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>-90021</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>75</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H78" s="8">
+        <v>0</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>-90021.5</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H79" s="8">
+        <v>0</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>-90022</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H81" s="8">
+        <v>0</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>-90023</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H82" s="8">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>-90024</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H83" s="8">
+        <v>0</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>-90025</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>81</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>-90026</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>82</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H85" s="8">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:M2326">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D3=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CA803F-CBF2-459F-8B36-1CD21AE3CFD0}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C5:F17"/>
@@ -1652,9 +3905,9 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="12"/>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F5">
         <f>HEX2DEC(E5)</f>
@@ -1665,9 +3918,9 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="13"/>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>3681498</v>
@@ -1677,12 +3930,12 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="14"/>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F11" si="0">HEX2DEC(E7)</f>
+        <f t="shared" ref="F6:F12" si="0">HEX2DEC(E7)</f>
         <v>1012796</v>
       </c>
     </row>
@@ -1690,9 +3943,9 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="15"/>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -1703,9 +3956,9 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="11"/>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -1716,9 +3969,9 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="10"/>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1729,9 +3982,9 @@
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="9"/>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -1742,9 +3995,9 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="17"/>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="F12">
         <v>9076353</v>

--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC04107-2845-467C-8003-95600458CEC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150402E0-E292-48F8-A436-057F5D5418A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Look Ahead Report" sheetId="129" state="hidden" r:id="rId2"/>
-    <sheet name="got" sheetId="147" r:id="rId3"/>
-    <sheet name="Togo" sheetId="148" r:id="rId4"/>
-    <sheet name="Benue" sheetId="149" r:id="rId5"/>
-    <sheet name="Migration" sheetId="150" r:id="rId6"/>
-    <sheet name="lumidee" sheetId="151" r:id="rId7"/>
+    <sheet name="got" sheetId="181" r:id="rId3"/>
+    <sheet name="Togo" sheetId="182" r:id="rId4"/>
+    <sheet name="Benue" sheetId="183" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LA_PERIOD">Main!$T$4</definedName>
     <definedName name="LEVEL">Main!$T$5</definedName>
     <definedName name="MPP_FILEPATH">Main!$T$6</definedName>
+    <definedName name="NO_PROJS">Main!$T$3</definedName>
+    <definedName name="PROJ_IND">Main!$U$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="79">
   <si>
     <t>Business Milestones</t>
   </si>
@@ -181,69 +181,9 @@
     <t>GIT Design Start</t>
   </si>
   <si>
-    <t>GIT Build End</t>
-  </si>
-  <si>
-    <t>GIT Test Start</t>
-  </si>
-  <si>
-    <t>GIT System Test Start</t>
-  </si>
-  <si>
-    <t>GIT System Test End  (IT Readiness Assessment 3.2 A signed off)</t>
-  </si>
-  <si>
-    <t>GIT SI Test Start</t>
-  </si>
-  <si>
-    <t>GIT SI Test End  (IT Readiness Assessment 3.2 B signed off)</t>
-  </si>
-  <si>
-    <t>GIT UAT Start</t>
-  </si>
-  <si>
-    <t>GIT UAT End</t>
-  </si>
-  <si>
-    <t>GIT NFT Start</t>
-  </si>
-  <si>
-    <t>GIT NFT End</t>
-  </si>
-  <si>
-    <t>GIT OAT Start</t>
-  </si>
-  <si>
-    <t>GIT OAT End</t>
-  </si>
-  <si>
-    <t>GIT Regression Test Start</t>
-  </si>
-  <si>
-    <t>GIT Regression Test End</t>
-  </si>
-  <si>
-    <t>All SI Deliverables delivered/complete</t>
-  </si>
-  <si>
-    <t>SI Approval for Implementation to proceed (+3 days after SD Gateway 1 Approval)</t>
-  </si>
-  <si>
-    <t>GIT Test End   (IT Readiness Assessment 3.3 signed off)</t>
-  </si>
-  <si>
-    <t>GIT Develop End</t>
-  </si>
-  <si>
     <t>GIT Deploy Stage</t>
   </si>
   <si>
-    <t>GIT Live Start</t>
-  </si>
-  <si>
-    <t>GIT Live End</t>
-  </si>
-  <si>
     <t>GIT Benefits Stage</t>
   </si>
   <si>
@@ -283,12 +223,6 @@
     <t>-499-251</t>
   </si>
   <si>
-    <t>-499-292</t>
-  </si>
-  <si>
-    <t>-499-294</t>
-  </si>
-  <si>
     <t>Ref</t>
   </si>
   <si>
@@ -340,10 +274,13 @@
     <t>No Tasks</t>
   </si>
   <si>
-    <t>Migration</t>
-  </si>
-  <si>
-    <t>lumidee</t>
+    <t>No Projs</t>
+  </si>
+  <si>
+    <t>Look ahead</t>
+  </si>
+  <si>
+    <t>Path</t>
   </si>
 </sst>
 </file>
@@ -449,43 +386,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{ED3DACD9-5B4B-47B4-AB17-B329AFBAD914}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -908,254 +809,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!ShtMain.BtnLAR4wClick" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="BtnLAR4w">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711CF68E-298B-4110-AF75-6C65B51F5C08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2647950" y="1095376"/>
-          <a:ext cx="781050" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="8A7E81"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="8A7E81"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="DA2C38"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                  <a:prstClr val="black">
-                    <a:alpha val="50000"/>
-                  </a:prstClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="E8E8E8"/>
-              </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="E8E8E8"/>
-              </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Weeks</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="E8E8E8"/>
-            </a:solidFill>
-            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!ShtMain.BtnLAR12wClick" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="BtnLAR12w">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764C1C12-42C1-4E22-9956-6BC2FBCAE756}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2647950" y="771526"/>
-          <a:ext cx="781050" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="DA2C38"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="DA2C38"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-            <a:prstClr val="black">
-              <a:alpha val="50000"/>
-            </a:prstClr>
-          </a:innerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="756A6D"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="E8E8E8"/>
-              </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="E8E8E8"/>
-              </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Weeks</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1000" b="0">
-            <a:solidFill>
-              <a:srgbClr val="E8E8E8"/>
-            </a:solidFill>
-            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>147825</xdr:colOff>
+      <xdr:colOff>1028887</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>566925</xdr:colOff>
+      <xdr:colOff>295462</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1172,7 +832,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3195825" y="1857375"/>
+          <a:off x="3467287" y="1857375"/>
           <a:ext cx="1638300" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1263,429 +923,1071 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353794</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>216712</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>6451</xdr:rowOff>
+      <xdr:colOff>360956</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>92176</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="[0]!ShtMain.BtnLvl1Click" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="BtnLvl1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="Group 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296723A-A2C6-44B9-98ED-4EC22D98E06A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46F923E-A190-4845-8898-D24C699E6D45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4481512" y="742951"/>
-          <a:ext cx="612000" cy="216000"/>
+          <a:off x="2792194" y="742951"/>
+          <a:ext cx="2988487" cy="873225"/>
+          <a:chOff x="2647950" y="742951"/>
+          <a:chExt cx="2988487" cy="873225"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="8A7E81"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="8A7E81"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="DA2C38"/>
-              </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="27" name="Group 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72742C3-A38D-4288-894B-EE12AEC920C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2647950" y="742951"/>
+            <a:ext cx="1323975" cy="647700"/>
+            <a:chOff x="2647950" y="771526"/>
+            <a:chExt cx="1323975" cy="647700"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="[0]!ShtMain.BtnLAR4wClick" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="BtnLAR4w">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711CF68E-298B-4110-AF75-6C65B51F5C08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2647950" y="1095376"/>
+              <a:ext cx="1323975" cy="323850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="DA2C38"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="DA2C38"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
               <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                  <a:prstClr val="black">
-                    <a:alpha val="50000"/>
-                  </a:prstClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="756A6D"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> Weeks</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1000" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="E8E8E8"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="[0]!ShtMain.BtnLAR12wClick" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="BtnLAR12w">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764C1C12-42C1-4E22-9956-6BC2FBCAE756}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2647950" y="771526"/>
+              <a:ext cx="1323975" cy="323850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="8A7E81"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="8A7E81"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="DA2C38"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                      <a:prstClr val="black">
+                        <a:alpha val="50000"/>
+                      </a:prstClr>
+                    </a:innerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>12</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t> Weeks</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1000" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="E8E8E8"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="28" name="Group 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6421550B-A380-4E30-A0CB-345C27089AC2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5024437" y="742951"/>
+            <a:ext cx="612000" cy="873225"/>
+            <a:chOff x="5024437" y="742951"/>
+            <a:chExt cx="612000" cy="873225"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="[0]!ShtMain.BtnLvl1Click" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="BtnLvl1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296723A-A2C6-44B9-98ED-4EC22D98E06A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5024437" y="742951"/>
+              <a:ext cx="612000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="8A7E81"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="8A7E81"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="DA2C38"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                      <a:prstClr val="black">
+                        <a:alpha val="50000"/>
+                      </a:prstClr>
+                    </a:innerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="[0]!ShtMain.BtnLvl2Click" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="BtnLvl2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DD6C83-F973-42BC-BFFF-2FD26F7C0FCD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5024437" y="962026"/>
+              <a:ext cx="612000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="DA2C38"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="DA2C38"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="756A6D"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="[0]!ShtMain.BtnLvl3Click" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="BtnLvl3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2545847-4DA1-41A9-8666-8A9E227321BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5024437" y="1181101"/>
+              <a:ext cx="612000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="8A7E81"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="8A7E81"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="DA2C38"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                      <a:prstClr val="black">
+                        <a:alpha val="50000"/>
+                      </a:prstClr>
+                    </a:innerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="[0]!ShtMain.BtnLvl4Click" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="BtnLvl4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC192345-61AB-41EF-86A8-DA9449DF816E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5024437" y="1400176"/>
+              <a:ext cx="612000" cy="216000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="8A7E81"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="8A7E81"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="DA2C38"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                      <a:prstClr val="black">
+                        <a:alpha val="50000"/>
+                      </a:prstClr>
+                    </a:innerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DC4614-1EDB-41D2-8B68-C2ADF3D8CEDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6419851" y="142875"/>
+          <a:ext cx="1504950" cy="2286000"/>
+          <a:chOff x="2466975" y="142875"/>
+          <a:chExt cx="3096000" cy="2286000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Rectangle: Rounded Corners 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87121B0-8308-43F0-A59F-5B5E4D17DF17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="142875"/>
+            <a:ext cx="3096000" cy="2286000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 2500"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="6D6A75"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rectangle: Rounded Corners 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBCAF10-6412-4606-B684-3C9451E32D04}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="142875"/>
+            <a:ext cx="3096000" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="DA2C38"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="E8E8E8"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Export</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="E8E8E8"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> to PPT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="E8E8E8"/>
               </a:solidFill>
               <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16764</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>216712</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>35026</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440439</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="[0]!ShtMain.BtnLvl2Click" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="BtnLvl2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DD6C83-F973-42BC-BFFF-2FD26F7C0FCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693420D1-F772-42D5-A2C3-E96ABC15C05A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4481512" y="962026"/>
-          <a:ext cx="612000" cy="216000"/>
+          <a:off x="6655689" y="742950"/>
+          <a:ext cx="1033275" cy="1428749"/>
+          <a:chOff x="6655689" y="742950"/>
+          <a:chExt cx="1033275" cy="1428749"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="DA2C38"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="DA2C38"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-            <a:prstClr val="black">
-              <a:alpha val="50000"/>
-            </a:prstClr>
-          </a:innerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="756A6D"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
+      </xdr:grpSpPr>
+      <xdr:sp macro="[0]!ShtMain.BtnPPTExpClick" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="BtnPPTExp">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B718729A-B0CA-4A79-95F8-85327768039B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6655689" y="742950"/>
+            <a:ext cx="1033275" cy="1428749"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="8A7E81"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="8A7E81"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="DA2C38"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                    <a:prstClr val="black">
+                      <a:alpha val="50000"/>
+                    </a:prstClr>
+                  </a:innerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-GB" sz="1000" b="0">
               <a:solidFill>
                 <a:srgbClr val="E8E8E8"/>
               </a:solidFill>
               <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>216712</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!ShtMain.BtnLvl3Click" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="BtnLvl3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2545847-4DA1-41A9-8666-8A9E227321BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4481512" y="1181101"/>
-          <a:ext cx="612000" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="8A7E81"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="8A7E81"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="DA2C38"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                  <a:prstClr val="black">
-                    <a:alpha val="50000"/>
-                  </a:prstClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="E8E8E8"/>
-              </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>216712</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>92176</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="[0]!ShtMain.BtnLvl4Click" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="BtnLvl4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC192345-61AB-41EF-86A8-DA9449DF816E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4481512" y="1400176"/>
-          <a:ext cx="612000" cy="216000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill flip="none" rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="8A7E81"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="8A7E81"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-          <a:tileRect/>
-        </a:gradFill>
-        <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="DA2C38"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                  <a:prstClr val="black">
-                    <a:alpha val="50000"/>
-                  </a:prstClr>
-                </a:innerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1000" b="0">
-              <a:solidFill>
-                <a:srgbClr val="E8E8E8"/>
-              </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="Group 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B58000D-7E8C-4EE1-9303-BA1C7FE7E540}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6822882" y="1114424"/>
+            <a:ext cx="698889" cy="685801"/>
+            <a:chOff x="6904952" y="1266824"/>
+            <a:chExt cx="699475" cy="685801"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="[0]!ShtMain.BtnPPTExpClick" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="Rectangle 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393EBADE-24F4-4348-8E91-C736AF7DEF56}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7178386" y="1350818"/>
+              <a:ext cx="419966" cy="497898"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic macro="[0]!ShtMain.BtnPPTExpClick">
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Picture 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF534D9-F7C9-483E-A14A-88E4F5270B61}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+              <a:clrChange>
+                <a:clrFrom>
+                  <a:srgbClr val="000000"/>
+                </a:clrFrom>
+                <a:clrTo>
+                  <a:srgbClr val="000000">
+                    <a:alpha val="0"/>
+                  </a:srgbClr>
+                </a:clrTo>
+              </a:clrChange>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6904952" y="1266824"/>
+              <a:ext cx="699475" cy="685801"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1989,37 +2291,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB7A1B8-C6E8-4CC3-A91F-BC6D2D0C2290}">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="E4:T6"/>
+  <dimension ref="E3:U6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="9"/>
     <col min="5" max="5" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="19" width="9.140625" style="9"/>
-    <col min="20" max="20" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="9"/>
+    <col min="6" max="18" width="9.140625" style="9"/>
+    <col min="19" max="21" width="9.5703125" style="10" hidden="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="10">
+        <v>3</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E4" s="9" t="s">
-        <v>66</v>
+        <v>46</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="T4" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="5:20" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="T5" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="T6" s="10" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +2424,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:M2326">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND($D3="", $E3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2106,8 +2434,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DD502A-100B-4C83-8462-52618C3EDF0B}">
-  <sheetPr codeName="ShtTaskView2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1025049-5377-4528-830A-385D397B7D4D}">
+  <sheetPr codeName="ShtTaskView3"/>
   <dimension ref="C2:P28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2134,37 +2462,37 @@
   <sheetData>
     <row r="2" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
@@ -2172,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
@@ -2180,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
@@ -2188,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
@@ -2196,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P6" s="5"/>
     </row>
@@ -2205,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P7" s="5"/>
     </row>
@@ -2214,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P8" s="5"/>
     </row>
@@ -2223,13 +2551,13 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2247,16 +2575,16 @@
         <v>1421.875</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2274,16 +2602,16 @@
         <v>1421.875</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2301,16 +2629,16 @@
         <v>1421.875</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2328,16 +2656,16 @@
         <v>1421.875</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2355,16 +2683,16 @@
         <v>1421.875</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2382,10 +2710,10 @@
         <v>1421.875</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="P15" s="6"/>
     </row>
@@ -2394,7 +2722,7 @@
         <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P16" s="6"/>
     </row>
@@ -2403,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
@@ -2411,7 +2739,7 @@
         <v>33</v>
       </c>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
@@ -2419,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
@@ -2427,7 +2755,7 @@
         <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
@@ -2435,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
@@ -2443,7 +2771,7 @@
         <v>37</v>
       </c>
       <c r="N22" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
@@ -2451,15 +2779,15 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="N24" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
@@ -2467,15 +2795,15 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N26" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
@@ -2483,20 +2811,20 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N28" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:M2326">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND($D3="", $E3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2506,8 +2834,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75031668-3A53-4F1E-8A3D-09DD02EC056B}">
-  <sheetPr codeName="ShtTaskView3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCF1581-DD8A-4532-B0AC-A15EE9D33AC2}">
+  <sheetPr codeName="ShtTaskView4"/>
   <dimension ref="C2:P46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2534,37 +2862,37 @@
   <sheetData>
     <row r="2" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
@@ -2572,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
@@ -2580,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
@@ -2588,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
@@ -2596,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P6" s="5"/>
     </row>
@@ -2605,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P7" s="5"/>
     </row>
@@ -2614,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P8" s="5"/>
     </row>
@@ -2623,13 +2951,13 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2647,16 +2975,16 @@
         <v>1421.875</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2674,16 +3002,16 @@
         <v>1421.875</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2701,10 +3029,10 @@
         <v>1421.875</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P12" s="6"/>
     </row>
@@ -2728,10 +3056,10 @@
         <v>1421.875</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P13" s="6"/>
     </row>
@@ -2755,10 +3083,10 @@
         <v>1421.875</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P14" s="6"/>
     </row>
@@ -2782,10 +3110,10 @@
         <v>1421.875</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P15" s="6"/>
     </row>
@@ -2809,10 +3137,10 @@
         <v>1421.875</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P16" s="6"/>
     </row>
@@ -2836,10 +3164,10 @@
         <v>1421.875</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
@@ -2862,10 +3190,10 @@
         <v>1421.875</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
@@ -2888,10 +3216,10 @@
         <v>1421.875</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N19" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
@@ -2914,10 +3242,10 @@
         <v>1421.875</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N20" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
@@ -2940,10 +3268,10 @@
         <v>1421.875</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
@@ -2966,10 +3294,10 @@
         <v>1421.875</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N22" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
@@ -2992,10 +3320,10 @@
         <v>1421.875</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N23" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
@@ -3003,7 +3331,7 @@
         <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
@@ -3026,10 +3354,10 @@
         <v>1421.875</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N25" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
@@ -3052,10 +3380,10 @@
         <v>1421.875</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N26" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
@@ -3078,10 +3406,10 @@
         <v>1421.875</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N27" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
@@ -3104,10 +3432,10 @@
         <v>1421.875</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N28" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
@@ -3130,10 +3458,10 @@
         <v>1421.875</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N29" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
@@ -3156,10 +3484,10 @@
         <v>1421.875</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N30" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
@@ -3182,10 +3510,10 @@
         <v>1417.5</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N31" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
@@ -3208,10 +3536,10 @@
         <v>1417.5</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N32" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
@@ -3219,7 +3547,7 @@
         <v>33</v>
       </c>
       <c r="N33" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
@@ -3242,10 +3570,10 @@
         <v>1417.5</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N34" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
@@ -3268,10 +3596,10 @@
         <v>1417.5</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.25">
@@ -3279,7 +3607,7 @@
         <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.25">
@@ -3287,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.25">
@@ -3295,7 +3623,7 @@
         <v>37</v>
       </c>
       <c r="N38" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.25">
@@ -3318,10 +3646,10 @@
         <v>1417.5</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N39" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
@@ -3344,10 +3672,10 @@
         <v>1417.5</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N40" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.25">
@@ -3370,18 +3698,18 @@
         <v>1417.5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N41" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="N42" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.25">
@@ -3389,15 +3717,15 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N44" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.25">
@@ -3405,20 +3733,20 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N46" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:M2326">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($D3="", $E3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3428,8 +3756,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F1DED6-7031-431B-A91D-8255B09F3654}">
-  <sheetPr codeName="ShtTaskView4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26528467-A5BF-4C6A-98D0-7A0E18996B68}">
+  <sheetPr codeName="ShtTaskView5"/>
   <dimension ref="C2:P25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3456,37 +3784,37 @@
   <sheetData>
     <row r="2" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
@@ -3494,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
@@ -3502,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
@@ -3510,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
@@ -3518,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P6" s="5"/>
     </row>
@@ -3527,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P7" s="5"/>
     </row>
@@ -3536,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P8" s="5"/>
     </row>
@@ -3545,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P9" s="6"/>
     </row>
@@ -3554,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P10" s="6"/>
     </row>
@@ -3563,7 +3891,7 @@
         <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P11" s="6"/>
     </row>
@@ -3572,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P12" s="6"/>
     </row>
@@ -3581,7 +3909,7 @@
         <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P13" s="6"/>
     </row>
@@ -3590,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P14" s="6"/>
     </row>
@@ -3599,7 +3927,7 @@
         <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="P15" s="6"/>
     </row>
@@ -3608,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P16" s="6"/>
     </row>
@@ -3617,12 +3945,12 @@
         <v>37</v>
       </c>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3640,10 +3968,10 @@
         <v>1417.5</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N18" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
@@ -3666,18 +3994,18 @@
         <v>1417.5</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="N20" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
@@ -3700,10 +4028,10 @@
         <v>1417.5</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N21" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
@@ -3726,18 +4054,18 @@
         <v>1417.5</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N22" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
@@ -3745,1015 +4073,15 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2326">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4F915C-72B0-4110-A710-02AAA3A23FC7}">
-  <sheetPr codeName="ShtTaskView5"/>
-  <dimension ref="C2:P35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="s">
-        <v>95</v>
-      </c>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>-90007</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G20" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>-90008</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G21" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>-90009</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G22" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>-90010</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G23" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>-90011</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G24" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>-90012</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G25" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>-90013</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G26" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>-90014</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G27" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>-90015</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G28" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>-90016</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G29" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>-90017</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G30" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>-90018</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G31" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>-90019</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G32" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="N33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="N35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2326">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F50629F-1633-4901-A845-653FC5ABBA9C}">
-  <sheetPr codeName="ShtTaskView6"/>
-  <dimension ref="C2:P28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="s">
-        <v>95</v>
-      </c>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>-90020</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G20" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G21" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G22" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>-90021</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G23" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>-90021.5</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G24" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="N25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>-90022</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G26" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>-90023</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="4">
-        <v>43987</v>
-      </c>
-      <c r="G27" s="4">
-        <v>44022</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1443.75</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F037373-11C3-4F4F-BE41-5DF1867F6F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A7C8BF-B790-490E-BC3B-F611042518AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="54">
   <si>
     <t>DTI</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.1.mpp</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Business Milestones</t>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>Stream E Dependency Report (Status: 01/01/2014)</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -639,27 +639,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,15 +675,6 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,6 +707,36 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -874,10 +874,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDA2C38"/>
       <color rgb="FFE8E8E8"/>
       <color rgb="FF817E8A"/>
       <color rgb="FF96939B"/>
-      <color rgb="FFDA2C38"/>
       <color rgb="FFBAC1B8"/>
       <color rgb="FF6D6A75"/>
       <color rgb="FF0F743C"/>
@@ -906,22 +906,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>183045</xdr:colOff>
+      <xdr:colOff>116651</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>167663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>227834</xdr:colOff>
+      <xdr:colOff>161440</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>100988</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 2">
+        <xdr:cNvPr id="27" name="Group 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485D412B-C307-4E6D-BFD6-85472D0E6746}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,9 +929,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="792645" y="739163"/>
+          <a:off x="726251" y="739163"/>
           <a:ext cx="654389" cy="885825"/>
-          <a:chOff x="792645" y="266700"/>
+          <a:chOff x="792645" y="739163"/>
           <a:chExt cx="654389" cy="885825"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -963,7 +963,7 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="792645" y="266700"/>
+            <a:off x="792645" y="739163"/>
             <a:ext cx="654389" cy="571500"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1001,7 +1001,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="795839" y="895350"/>
+            <a:off x="795839" y="1367813"/>
             <a:ext cx="648000" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1482,7 +1482,7 @@
         <xdr:cNvPr id="9" name="Group 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813F2B78-64F7-4221-BFD8-3CEC0E2154CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="18" name="Group 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846E5511-D43B-4F7E-8298-B9CE542F172B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2470,7 @@
           <xdr:cNvPr id="10" name="Group 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AFAACB-044E-4CD8-911A-7E6A36F3CB7F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2665,7 +2665,7 @@
         <xdr:cNvPr id="32" name="Group 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C9AC13-0113-4885-A791-EC16C177D83C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2684,7 @@
           <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB25D76-1EA5-4602-8B3D-AA70F0D9F167}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2748,7 +2748,7 @@
           <xdr:cNvPr id="34" name="Group 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FDC249-0A35-4035-A093-22A66D25FD07}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2767,7 +2767,7 @@
             <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF4055B-AA54-4929-90E3-743E7931B9AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2826,7 +2826,7 @@
             <xdr:cNvPr id="36" name="BtnDepRepGen">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83CA302-C5EC-4AFC-95CA-023F4961E1B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2922,6 +2922,158 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>62845</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215245</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5738</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Group 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB09AB6-D8D8-4EE9-951D-30CCC9F13FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="672445" y="2657475"/>
+          <a:ext cx="762000" cy="967763"/>
+          <a:chOff x="659857" y="2657475"/>
+          <a:chExt cx="762000" cy="967763"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic macro="[0]!ThisWorkbook.ClearData">
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="38" name="Graphic 37" descr="Eraser">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74875FC2-F5DD-481C-87F2-32908EF0DA9F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="659857" y="2657475"/>
+            <a:ext cx="762000" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="[0]!ThisWorkbook.ClearData" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28AD200-52F7-4145-9542-CAA76F567ED1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="716857" y="3368063"/>
+            <a:ext cx="648000" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="6D6A75"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="E8E8E8"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Clear</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -25940,7 +26092,7 @@
   <dimension ref="S3:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25967,7 +26119,7 @@
         <v>12</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="19:20">
@@ -26032,192 +26184,192 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="44" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="46" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="47" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" style="47" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="48" customWidth="1"/>
-    <col min="18" max="19" width="13.7109375" style="47" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="47" customWidth="1"/>
-    <col min="21" max="23" width="9.140625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="37" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" style="40" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="41" customWidth="1"/>
+    <col min="18" max="19" width="13.7109375" style="40" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="40" customWidth="1"/>
+    <col min="21" max="23" width="9.140625" style="37" customWidth="1"/>
     <col min="24" max="24" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1">
-      <c r="A1" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="32"/>
+      <c r="A1" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="55"/>
       <c r="X1">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="29.25" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35" t="s">
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+    </row>
+    <row r="3" spans="1:24" ht="25.5">
+      <c r="A3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="36"/>
-    </row>
-    <row r="3" spans="1:24" ht="25.5">
-      <c r="A3" s="52" t="s">
+      <c r="B3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="D3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="E3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="F3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="G3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="J3" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="62" t="s">
+      <c r="O3" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="58" t="s">
+      <c r="Q3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="R3" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="S3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="60" t="s">
+      <c r="T3" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="U3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="60" t="s">
+      <c r="V3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="60" t="s">
+      <c r="W3" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="60" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:X3" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
@@ -26289,26 +26441,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0661869B-2619-413E-921F-52D6B30D4584}">
   <sheetPr codeName="ShtExceptRep"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="52" style="14" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" style="14" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="14"/>
-    <col min="8" max="8" width="11.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="14"/>
-    <col min="12" max="12" width="9.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -26346,7 +26502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1">
+    <row r="2" spans="1:14" ht="21" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="7"/>
       <c r="C2" s="9"/>
@@ -26360,7 +26516,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="20.25">
+    <row r="3" spans="1:14" ht="20.25">
       <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
@@ -26375,8 +26531,11 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="N3" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -26390,7 +26549,7 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" ht="20.25">
+    <row r="5" spans="1:14" ht="20.25">
       <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
@@ -26405,8 +26564,11 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -26420,7 +26582,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" ht="20.25">
+    <row r="7" spans="1:14" ht="20.25">
       <c r="A7" s="22" t="s">
         <v>16</v>
       </c>
@@ -26435,8 +26597,11 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -26450,7 +26615,7 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" ht="20.25">
+    <row r="9" spans="1:14" ht="20.25">
       <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
@@ -26465,8 +26630,11 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -26497,8 +26665,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="130.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
@@ -27052,7 +27220,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A652D-6DD1-48EF-B210-1032D24E28CA}">
   <sheetPr codeName="ShtTaskView"/>
-  <dimension ref="C2:P117"/>
+  <dimension ref="C2:P139"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -27073,7 +27241,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -27084,15 +27252,15 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="3:16">
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="3:16">
@@ -27100,15 +27268,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="3:16">
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="3:16">
@@ -27116,16 +27284,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="3:16">
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="28"/>
     </row>
@@ -27134,16 +27302,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="28"/>
     </row>
     <row r="9" spans="3:16">
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="29"/>
     </row>
@@ -27152,16 +27320,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="3:16">
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="29"/>
     </row>
@@ -27170,16 +27338,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="3:16">
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="29"/>
     </row>
@@ -27188,16 +27356,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="3:16">
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" s="29"/>
     </row>
@@ -27206,16 +27374,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="4:14">
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="4:14">
@@ -27223,15 +27391,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="4:14">
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="4:14">
@@ -27239,15 +27407,15 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="4:14">
       <c r="E21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="4:14">
@@ -27255,15 +27423,15 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="4:14">
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="4:14">
@@ -27271,15 +27439,15 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="4:14">
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="4:14">
@@ -27287,15 +27455,15 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="4:14">
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="4:14">
@@ -27303,15 +27471,15 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="4:14">
       <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
         <v>31</v>
-      </c>
-      <c r="N29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:14">
@@ -27319,15 +27487,15 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="4:14">
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="4:14">
@@ -27335,15 +27503,15 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="4:14">
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="4:14">
@@ -27351,15 +27519,15 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="4:14">
       <c r="E35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="4:14">
@@ -27367,15 +27535,15 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="4:14">
       <c r="E37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="4:14">
@@ -27383,15 +27551,15 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="4:14">
       <c r="E39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="4:14">
@@ -27399,15 +27567,15 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="4:14">
       <c r="E41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="4:14">
@@ -27415,15 +27583,15 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="4:14">
       <c r="E43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="4:14">
@@ -27431,15 +27599,15 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="E45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="4:14">
@@ -27447,15 +27615,15 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="4:14">
       <c r="E47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="4:14">
@@ -27463,15 +27631,15 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="4:14">
       <c r="E49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="4:14">
@@ -27479,15 +27647,15 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="4:14">
       <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" t="s">
         <v>31</v>
-      </c>
-      <c r="N51" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="52" spans="4:14">
@@ -27495,15 +27663,15 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="4:14">
       <c r="E53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="4:14">
@@ -27511,15 +27679,15 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="4:14">
       <c r="E55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="4:14">
@@ -27527,15 +27695,15 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="4:14">
       <c r="E57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="4:14">
@@ -27543,15 +27711,15 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="4:14">
       <c r="E59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="4:14">
@@ -27559,15 +27727,15 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="4:14">
       <c r="E61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="4:14">
@@ -27575,15 +27743,15 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="4:14">
       <c r="E63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="4:14">
@@ -27591,15 +27759,15 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="4:14">
       <c r="E65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="4:14">
@@ -27607,15 +27775,15 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="4:14">
       <c r="E67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="4:14">
@@ -27623,15 +27791,15 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="4:14">
       <c r="E69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="4:14">
@@ -27639,15 +27807,15 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="4:14">
       <c r="E71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="4:14">
@@ -27655,15 +27823,15 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="4:14">
       <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="N73" t="s">
         <v>31</v>
-      </c>
-      <c r="N73" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="74" spans="4:14">
@@ -27671,15 +27839,15 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="4:14">
       <c r="E75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="4:14">
@@ -27687,15 +27855,15 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="4:14">
       <c r="E77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="4:14">
@@ -27703,15 +27871,15 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="4:14">
       <c r="E79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="4:14">
@@ -27719,15 +27887,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="4:14">
       <c r="E81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="4:14">
@@ -27735,15 +27903,15 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="4:14">
       <c r="E83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="4:14">
@@ -27751,15 +27919,15 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="4:14">
       <c r="E85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="4:14">
@@ -27767,15 +27935,15 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="4:14">
       <c r="E87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="4:14">
@@ -27783,15 +27951,15 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="4:14">
       <c r="E89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="4:14">
@@ -27799,15 +27967,15 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="4:14">
       <c r="E91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="4:14">
@@ -27815,15 +27983,15 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="4:14">
       <c r="E93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="4:14">
@@ -27831,15 +27999,15 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="4:14">
       <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="N95" t="s">
         <v>31</v>
-      </c>
-      <c r="N95" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="96" spans="4:14">
@@ -27847,15 +28015,15 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="4:14">
       <c r="E97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="4:14">
@@ -27863,15 +28031,15 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="4:14">
       <c r="E99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="4:14">
@@ -27879,15 +28047,15 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="4:14">
       <c r="E101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="4:14">
@@ -27895,15 +28063,15 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="4:14">
       <c r="E103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="4:14">
@@ -27911,15 +28079,15 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="4:14">
       <c r="E105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="4:14">
@@ -27927,15 +28095,15 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="4:14">
       <c r="E107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="4:14">
@@ -27943,15 +28111,15 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="4:14">
       <c r="E109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="4:14">
@@ -27959,15 +28127,15 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="4:14">
       <c r="E111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="4:14">
@@ -27975,15 +28143,15 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="4:14">
       <c r="E113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="4:14">
@@ -27991,15 +28159,15 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="4:14">
       <c r="E115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="4:14">
@@ -28007,15 +28175,191 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="4:14">
       <c r="E117" t="s">
+        <v>30</v>
+      </c>
+      <c r="N117" t="s">
         <v>31</v>
       </c>
-      <c r="N117" t="s">
+    </row>
+    <row r="118" spans="4:14">
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="4:14">
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="N119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="4:14">
+      <c r="E121" t="s">
+        <v>21</v>
+      </c>
+      <c r="N121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14">
+      <c r="E123" t="s">
+        <v>22</v>
+      </c>
+      <c r="N123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14">
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="4:14">
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+      <c r="N125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14">
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="4:14">
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+      <c r="N127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="4:14">
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="4:14">
+      <c r="E129" t="s">
+        <v>25</v>
+      </c>
+      <c r="N129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="4:14">
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="4:14">
+      <c r="E131" t="s">
+        <v>26</v>
+      </c>
+      <c r="N131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="4:14">
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="4:14">
+      <c r="E133" t="s">
+        <v>27</v>
+      </c>
+      <c r="N133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="4:14">
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="4:14">
+      <c r="E135" t="s">
+        <v>28</v>
+      </c>
+      <c r="N135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="4:14">
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="4:14">
+      <c r="E137" t="s">
+        <v>29</v>
+      </c>
+      <c r="N137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="4:14">
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="4:14">
+      <c r="E139" t="s">
+        <v>30</v>
+      </c>
+      <c r="N139" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A7C8BF-B790-490E-BC3B-F611042518AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E91A35F-9FD0-4897-B1C2-87CE86E872C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Dependancy Report" sheetId="248" r:id="rId2"/>
     <sheet name="Consolidated  Exception Report " sheetId="245" r:id="rId3"/>
-    <sheet name="Raw Plan Data" sheetId="227" r:id="rId4"/>
+    <sheet name="Plan Data" sheetId="227" r:id="rId4"/>
     <sheet name="Look Ahead Report" sheetId="246" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="54">
   <si>
     <t>DTI</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Project</t>
-  </si>
-  <si>
-    <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.1.mpp</t>
   </si>
   <si>
     <t>Business Milestones</t>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.0.mpp</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
         <xdr:cNvPr id="27" name="Group 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485D412B-C307-4E6D-BFD6-85472D0E6746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,10 +1760,10 @@
             <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:srgbClr val="DA2C38"/>
+                  <a:srgbClr val="8A7E81"/>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:srgbClr val="DA2C38"/>
+                  <a:srgbClr val="8A7E81"/>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="1"/>
@@ -1774,22 +1774,27 @@
               <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                <a:prstClr val="black">
-                  <a:alpha val="50000"/>
-                </a:prstClr>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:srgbClr val="756A6D"/>
+                    <a:srgbClr val="DA2C38"/>
                   </a:solidFill>
                   <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                 </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:effectLst>
+                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                      <a:prstClr val="black">
+                        <a:alpha val="50000"/>
+                      </a:prstClr>
+                    </a:innerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2127,10 +2132,10 @@
             <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
+                  <a:srgbClr val="DA2C38"/>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
+                  <a:srgbClr val="DA2C38"/>
                 </a:gs>
               </a:gsLst>
               <a:lin ang="5400000" scaled="1"/>
@@ -2141,27 +2146,22 @@
               <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
+                    <a:srgbClr val="756A6D"/>
                   </a:solidFill>
                   <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2943,7 +2943,7 @@
         <xdr:cNvPr id="28" name="Group 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB09AB6-D8D8-4EE9-951D-30CCC9F13FEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,7 +2962,7 @@
           <xdr:cNvPr id="38" name="Graphic 37" descr="Eraser">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74875FC2-F5DD-481C-87F2-32908EF0DA9F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
           <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28AD200-52F7-4145-9542-CAA76F567ED1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26119,7 +26119,7 @@
         <v>12</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="19:20">
@@ -26127,7 +26127,7 @@
         <v>3</v>
       </c>
       <c r="T5" s="4">
-        <v>1</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="6" spans="19:20">
@@ -26135,7 +26135,7 @@
         <v>13</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -26214,7 +26214,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -26244,7 +26244,7 @@
     </row>
     <row r="2" spans="1:24" ht="29.25" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -26253,7 +26253,7 @@
       <c r="F2" s="57"/>
       <c r="G2" s="58"/>
       <c r="H2" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="59"/>
       <c r="J2" s="59"/>
@@ -26262,11 +26262,11 @@
       <c r="M2" s="59"/>
       <c r="N2" s="59"/>
       <c r="O2" s="60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="60"/>
       <c r="Q2" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
@@ -26277,73 +26277,73 @@
     </row>
     <row r="3" spans="1:24" ht="25.5">
       <c r="A3" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="D3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="43" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>42</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="46" t="s">
+      <c r="M3" s="46" t="s">
         <v>41</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>42</v>
       </c>
       <c r="N3" s="47" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="R3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="S3" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="T3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="U3" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="50" t="s">
+      <c r="V3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="W3" s="50" t="s">
         <v>50</v>
-      </c>
-      <c r="W3" s="50" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -26453,7 +26453,7 @@
     <col min="2" max="2" width="5.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" style="14" bestFit="1" customWidth="1"/>
@@ -26523,7 +26523,9 @@
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -26532,7 +26534,7 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="N3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -26556,7 +26558,9 @@
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -26565,7 +26569,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="N5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -26589,7 +26593,9 @@
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -26598,7 +26604,7 @@
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="N7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -26622,7 +26628,9 @@
       <c r="B9" s="18"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -26631,7 +26639,7 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="N9" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -26656,559 +26664,694 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A9EE8F-EDC6-401D-AECC-57882115D77B}">
   <sheetPr codeName="ShtPlanData"/>
-  <dimension ref="F3:N136"/>
+  <dimension ref="E3:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="130.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:7">
+    <row r="3" spans="5:7">
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="6:7">
+    <row r="4" spans="5:7">
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="6:7">
+    <row r="5" spans="5:7">
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="6:7">
+    <row r="6" spans="5:7">
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="6:7">
+    <row r="7" spans="5:7">
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="6:7">
+    <row r="8" spans="5:7">
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="5:7">
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="5:7">
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="5:7">
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="5:7">
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="5:7">
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="5:7">
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="5:7">
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="5:7">
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="5:7">
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="5:7">
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="5:7">
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="5:7">
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="5:7">
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="5:7">
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="5:7">
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="5:7">
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="5:7">
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="5:7">
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="6:7">
+    <row r="27" spans="5:7">
+      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="6:7">
+    <row r="28" spans="5:7">
+      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="6:7">
+    <row r="29" spans="5:7">
+      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="5:7">
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="5:7">
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="6:7">
+    <row r="32" spans="5:7">
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="5:7">
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="5:7">
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="5:7">
+      <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="5:7">
+      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="5:7">
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="5:7">
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="5:7">
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="5:7">
+      <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="5:7">
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="6:7">
+    <row r="42" spans="5:7">
+      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="6:7">
+    <row r="43" spans="5:7">
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="6:7">
+    <row r="44" spans="5:7">
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="6:7">
+    <row r="45" spans="5:7">
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="6:7">
+    <row r="46" spans="5:7">
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="6:7">
+    <row r="47" spans="5:7">
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="6:7">
+    <row r="48" spans="5:7">
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="6:7">
+    <row r="49" spans="5:7">
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="6:7">
+    <row r="50" spans="5:7">
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="6:7">
+    <row r="51" spans="5:7">
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="6:7">
+    <row r="52" spans="5:7">
+      <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="6:7">
+    <row r="53" spans="5:7">
+      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="6:7">
+    <row r="54" spans="5:7">
+      <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="6:7">
+    <row r="55" spans="5:7">
+      <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="6:7">
+    <row r="56" spans="5:7">
+      <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="6:7">
+    <row r="57" spans="5:7">
+      <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="6:7">
+    <row r="58" spans="5:7">
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="6:7">
+    <row r="59" spans="5:7">
+      <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="6:7">
+    <row r="60" spans="5:7">
+      <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="6:7">
+    <row r="61" spans="5:7">
+      <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="6:7">
+    <row r="62" spans="5:7">
+      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="6:7">
+    <row r="63" spans="5:7">
+      <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="6:7">
+    <row r="64" spans="5:7">
+      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="6:7">
+    <row r="65" spans="5:7">
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="6:7">
+    <row r="66" spans="5:7">
+      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="6:7">
+    <row r="67" spans="5:7">
+      <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="6:7">
+    <row r="68" spans="5:7">
+      <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="6:7">
+    <row r="69" spans="5:7">
+      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="6:7">
+    <row r="70" spans="5:7">
+      <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="6:7">
+    <row r="71" spans="5:7">
+      <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="6:7">
+    <row r="72" spans="5:7">
+      <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="6:7">
+    <row r="73" spans="5:7">
+      <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="6:7">
+    <row r="74" spans="5:7">
+      <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="6:7">
+    <row r="75" spans="5:7">
+      <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="6:7">
+    <row r="76" spans="5:7">
+      <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="6:7">
+    <row r="77" spans="5:7">
+      <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="6:7">
+    <row r="78" spans="5:7">
+      <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="6:7">
+    <row r="79" spans="5:7">
+      <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="6:7">
+    <row r="80" spans="5:7">
+      <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="6:7">
+    <row r="81" spans="5:7">
+      <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="6:7">
+    <row r="82" spans="5:7">
+      <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="6:7">
+    <row r="83" spans="5:7">
+      <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="6:7">
+    <row r="84" spans="5:7">
+      <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="6:7">
+    <row r="85" spans="5:7">
+      <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="6:7">
+    <row r="86" spans="5:7">
+      <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="6:7">
+    <row r="87" spans="5:7">
+      <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="6:7">
+    <row r="88" spans="5:7">
+      <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="6:7">
+    <row r="89" spans="5:7">
+      <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="6:7">
+    <row r="90" spans="5:7">
+      <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="6:7">
+    <row r="91" spans="5:7">
+      <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="6:7">
+    <row r="92" spans="5:7">
+      <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="6:7">
+    <row r="93" spans="5:7">
+      <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="6:7">
+    <row r="94" spans="5:7">
+      <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="6:7">
+    <row r="95" spans="5:7">
+      <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="6:7">
+    <row r="96" spans="5:7">
+      <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="6:7">
+    <row r="97" spans="5:7">
+      <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="6:7">
+    <row r="98" spans="5:7">
+      <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="6:7">
+    <row r="99" spans="5:7">
+      <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="6:7">
+    <row r="100" spans="5:7">
+      <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="6:7">
+    <row r="101" spans="5:7">
+      <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="6:7">
+    <row r="102" spans="5:7">
+      <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="6:7">
+    <row r="103" spans="5:7">
+      <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="6:7">
+    <row r="104" spans="5:7">
+      <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="6:7">
+    <row r="105" spans="5:7">
+      <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="6:7">
+    <row r="106" spans="5:7">
+      <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="6:7">
+    <row r="107" spans="5:7">
+      <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="6:7">
+    <row r="108" spans="5:7">
+      <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="6:7">
+    <row r="109" spans="5:7">
+      <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="6:7">
+    <row r="110" spans="5:7">
+      <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="6:7">
+    <row r="111" spans="5:7">
+      <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="6:7">
+    <row r="112" spans="5:7">
+      <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="6:7">
+    <row r="113" spans="5:7">
+      <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="6:7">
+    <row r="114" spans="5:7">
+      <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="6:7">
+    <row r="115" spans="5:7">
+      <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="6:7">
+    <row r="116" spans="5:7">
+      <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="6:7">
+    <row r="117" spans="5:7">
+      <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="6:7">
+    <row r="118" spans="5:7">
+      <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="6:7">
+    <row r="119" spans="5:7">
+      <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="6:7">
+    <row r="120" spans="5:7">
+      <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="6:7">
+    <row r="121" spans="5:7">
+      <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="6:7">
+    <row r="122" spans="5:7">
+      <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="6:7">
+    <row r="123" spans="5:7">
+      <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="6:7">
+    <row r="124" spans="5:7">
+      <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="6:7">
+    <row r="125" spans="5:7">
+      <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="6:7">
+    <row r="126" spans="5:7">
+      <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="6:7">
+    <row r="127" spans="5:7">
+      <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="6:7">
+    <row r="128" spans="5:7">
+      <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
     </row>
-    <row r="129" spans="6:7">
+    <row r="129" spans="5:7">
+      <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="6:7">
+    <row r="130" spans="5:7">
+      <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
     </row>
-    <row r="131" spans="6:7">
+    <row r="131" spans="5:7">
+      <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="6:7">
+    <row r="132" spans="5:7">
+      <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="6:7">
+    <row r="133" spans="5:7">
+      <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="6:7">
+    <row r="134" spans="5:7">
+      <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
     </row>
-    <row r="135" spans="6:7">
+    <row r="135" spans="5:7">
+      <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
     </row>
-    <row r="136" spans="6:7">
+    <row r="136" spans="5:7">
+      <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
     </row>
@@ -27220,10 +27363,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A652D-6DD1-48EF-B210-1032D24E28CA}">
   <sheetPr codeName="ShtTaskView"/>
-  <dimension ref="C2:P139"/>
+  <dimension ref="C2:P205"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
@@ -27241,7 +27384,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -27252,15 +27395,15 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="3:16">
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="3:16">
@@ -27268,15 +27411,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:16">
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:16">
@@ -27284,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="3:16">
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" s="28"/>
     </row>
@@ -27302,16 +27445,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="28"/>
     </row>
     <row r="9" spans="3:16">
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P9" s="29"/>
     </row>
@@ -27320,16 +27463,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="3:16">
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="29"/>
     </row>
@@ -27338,16 +27481,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="3:16">
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P13" s="29"/>
     </row>
@@ -27356,16 +27499,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="3:16">
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P15" s="29"/>
     </row>
@@ -27374,16 +27517,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="4:14">
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:14">
@@ -27391,15 +27534,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="4:14">
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="4:14">
@@ -27407,15 +27550,15 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="4:14">
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:14">
@@ -27423,15 +27566,15 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="4:14">
       <c r="E23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="4:14">
@@ -27439,15 +27582,15 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="4:14">
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="4:14">
@@ -27455,15 +27598,15 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="4:14">
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="4:14">
@@ -27471,15 +27614,15 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="4:14">
       <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
         <v>30</v>
-      </c>
-      <c r="N29" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="4:14">
@@ -27487,15 +27630,15 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="4:14">
       <c r="E31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="4:14">
@@ -27503,15 +27646,15 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="4:14">
       <c r="E33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="4:14">
@@ -27519,15 +27662,15 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="4:14">
       <c r="E35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="4:14">
@@ -27535,15 +27678,15 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="4:14">
       <c r="E37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="4:14">
@@ -27551,15 +27694,15 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="4:14">
       <c r="E39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="4:14">
@@ -27567,15 +27710,15 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="4:14">
       <c r="E41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="4:14">
@@ -27583,15 +27726,15 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="4:14">
       <c r="E43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="4:14">
@@ -27599,15 +27742,15 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="4:14">
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="4:14">
@@ -27615,15 +27758,15 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="4:14">
       <c r="E47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="4:14">
@@ -27631,15 +27774,15 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="4:14">
       <c r="E49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="4:14">
@@ -27647,15 +27790,15 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="4:14">
       <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" t="s">
         <v>30</v>
-      </c>
-      <c r="N51" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="52" spans="4:14">
@@ -27663,15 +27806,15 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="4:14">
       <c r="E53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="4:14">
@@ -27679,15 +27822,15 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="4:14">
       <c r="E55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="4:14">
@@ -27695,15 +27838,15 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="4:14">
       <c r="E57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="4:14">
@@ -27711,15 +27854,15 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="4:14">
       <c r="E59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="4:14">
@@ -27727,15 +27870,15 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="4:14">
       <c r="E61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="4:14">
@@ -27743,15 +27886,15 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="4:14">
       <c r="E63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="4:14">
@@ -27759,15 +27902,15 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="4:14">
       <c r="E65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="4:14">
@@ -27775,15 +27918,15 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="4:14">
       <c r="E67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="4:14">
@@ -27791,15 +27934,15 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="4:14">
       <c r="E69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="4:14">
@@ -27807,15 +27950,15 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="4:14">
       <c r="E71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="4:14">
@@ -27823,15 +27966,15 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="4:14">
       <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" t="s">
         <v>30</v>
-      </c>
-      <c r="N73" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="74" spans="4:14">
@@ -27839,15 +27982,15 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="4:14">
       <c r="E75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="4:14">
@@ -27855,15 +27998,15 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="4:14">
       <c r="E77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="4:14">
@@ -27871,15 +28014,15 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="4:14">
       <c r="E79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="4:14">
@@ -27887,15 +28030,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="4:14">
       <c r="E81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="4:14">
@@ -27903,15 +28046,15 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="4:14">
       <c r="E83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="4:14">
@@ -27919,15 +28062,15 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="4:14">
       <c r="E85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="4:14">
@@ -27935,15 +28078,15 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="4:14">
       <c r="E87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="4:14">
@@ -27951,15 +28094,15 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="4:14">
       <c r="E89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="4:14">
@@ -27967,15 +28110,15 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="4:14">
       <c r="E91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="4:14">
@@ -27983,15 +28126,15 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="4:14">
       <c r="E93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="4:14">
@@ -27999,15 +28142,15 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="4:14">
       <c r="E95" t="s">
+        <v>29</v>
+      </c>
+      <c r="N95" t="s">
         <v>30</v>
-      </c>
-      <c r="N95" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="96" spans="4:14">
@@ -28015,15 +28158,15 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="4:14">
       <c r="E97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="4:14">
@@ -28031,15 +28174,15 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="4:14">
       <c r="E99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="4:14">
@@ -28047,15 +28190,15 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="4:14">
       <c r="E101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="4:14">
@@ -28063,15 +28206,15 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="4:14">
       <c r="E103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="4:14">
@@ -28079,15 +28222,15 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="4:14">
       <c r="E105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="4:14">
@@ -28095,15 +28238,15 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="4:14">
       <c r="E107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="4:14">
@@ -28111,15 +28254,15 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="4:14">
       <c r="E109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="4:14">
@@ -28127,15 +28270,15 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="4:14">
       <c r="E111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="4:14">
@@ -28143,15 +28286,15 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="4:14">
       <c r="E113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="4:14">
@@ -28159,15 +28302,15 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="4:14">
       <c r="E115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="4:14">
@@ -28175,15 +28318,15 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="4:14">
       <c r="E117" t="s">
+        <v>29</v>
+      </c>
+      <c r="N117" t="s">
         <v>30</v>
-      </c>
-      <c r="N117" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="118" spans="4:14">
@@ -28191,15 +28334,15 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="4:14">
       <c r="E119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="4:14">
@@ -28207,15 +28350,15 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="4:14">
       <c r="E121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="4:14">
@@ -28223,15 +28366,15 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="4:14">
       <c r="E123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="4:14">
@@ -28239,15 +28382,15 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="4:14">
       <c r="E125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="4:14">
@@ -28255,15 +28398,15 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="4:14">
       <c r="E127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="4:14">
@@ -28271,15 +28414,15 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="4:14">
       <c r="E129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="4:14">
@@ -28287,15 +28430,15 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="4:14">
       <c r="E131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="4:14">
@@ -28303,15 +28446,15 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="4:14">
       <c r="E133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="4:14">
@@ -28319,15 +28462,15 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="4:14">
       <c r="E135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="4:14">
@@ -28335,15 +28478,15 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="4:14">
       <c r="E137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="4:14">
@@ -28351,15 +28494,543 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="4:14">
       <c r="E139" t="s">
+        <v>29</v>
+      </c>
+      <c r="N139" t="s">
         <v>30</v>
       </c>
-      <c r="N139" t="s">
+    </row>
+    <row r="140" spans="4:14">
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="4:14">
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="N141" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="4:14">
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="4:14">
+      <c r="E143" t="s">
+        <v>20</v>
+      </c>
+      <c r="N143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="4:14">
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="4:14">
+      <c r="E145" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="4:14">
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="4:14">
+      <c r="E147" t="s">
+        <v>22</v>
+      </c>
+      <c r="N147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="4:14">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="4:14">
+      <c r="E149" t="s">
+        <v>23</v>
+      </c>
+      <c r="N149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="4:14">
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="4:14">
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+      <c r="N151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="4:14">
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="4:14">
+      <c r="E153" t="s">
+        <v>25</v>
+      </c>
+      <c r="N153" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="4:14">
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="4:14">
+      <c r="E155" t="s">
+        <v>26</v>
+      </c>
+      <c r="N155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="4:14">
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="4:14">
+      <c r="E157" t="s">
+        <v>27</v>
+      </c>
+      <c r="N157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="4:14">
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="4:14">
+      <c r="E159" t="s">
+        <v>28</v>
+      </c>
+      <c r="N159" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="4:14">
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="4:14">
+      <c r="E161" t="s">
+        <v>29</v>
+      </c>
+      <c r="N161" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="4:14">
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="4:14">
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="N163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="4:14">
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="4:14">
+      <c r="E165" t="s">
+        <v>20</v>
+      </c>
+      <c r="N165" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="4:14">
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="4:14">
+      <c r="E167" t="s">
+        <v>21</v>
+      </c>
+      <c r="N167" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="4:14">
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="4:14">
+      <c r="E169" t="s">
+        <v>22</v>
+      </c>
+      <c r="N169" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="4:14">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="4:14">
+      <c r="E171" t="s">
+        <v>23</v>
+      </c>
+      <c r="N171" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="4:14">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="4:14">
+      <c r="E173" t="s">
+        <v>24</v>
+      </c>
+      <c r="N173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="4:14">
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="4:14">
+      <c r="E175" t="s">
+        <v>25</v>
+      </c>
+      <c r="N175" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="4:14">
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="4:14">
+      <c r="E177" t="s">
+        <v>26</v>
+      </c>
+      <c r="N177" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="4:14">
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="4:14">
+      <c r="E179" t="s">
+        <v>27</v>
+      </c>
+      <c r="N179" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="4:14">
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="4:14">
+      <c r="E181" t="s">
+        <v>28</v>
+      </c>
+      <c r="N181" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="4:14">
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="4:14">
+      <c r="E183" t="s">
+        <v>29</v>
+      </c>
+      <c r="N183" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="4:14">
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="4:14">
+      <c r="E185" t="s">
+        <v>19</v>
+      </c>
+      <c r="N185" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="4:14">
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="4:14">
+      <c r="E187" t="s">
+        <v>20</v>
+      </c>
+      <c r="N187" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="4:14">
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="4:14">
+      <c r="E189" t="s">
+        <v>21</v>
+      </c>
+      <c r="N189" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="4:14">
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="4:14">
+      <c r="E191" t="s">
+        <v>22</v>
+      </c>
+      <c r="N191" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="4:14">
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="4:14">
+      <c r="E193" t="s">
+        <v>23</v>
+      </c>
+      <c r="N193" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="4:14">
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="4:14">
+      <c r="E195" t="s">
+        <v>24</v>
+      </c>
+      <c r="N195" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="4:14">
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="4:14">
+      <c r="E197" t="s">
+        <v>25</v>
+      </c>
+      <c r="N197" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="4:14">
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="4:14">
+      <c r="E199" t="s">
+        <v>26</v>
+      </c>
+      <c r="N199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="4:14">
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="4:14">
+      <c r="E201" t="s">
+        <v>27</v>
+      </c>
+      <c r="N201" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="4:14">
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="4:14">
+      <c r="E203" t="s">
+        <v>28</v>
+      </c>
+      <c r="N203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="4:14">
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="4:14">
+      <c r="E205" t="s">
+        <v>29</v>
+      </c>
+      <c r="N205" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E91A35F-9FD0-4897-B1C2-87CE86E872C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{071CE4CA-134E-4ABF-A17F-77153260AD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="54">
   <si>
     <t>DTI</t>
   </si>
@@ -905,23 +905,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>116651</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>167663</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>293489</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161440</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>384652</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>100988</xdr:rowOff>
+      <xdr:rowOff>145744</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="Group 26">
+        <xdr:cNvPr id="59" name="Group 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379D7F37-F27E-4213-8CDD-A8F9CB16C2C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,10 +929,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="726251" y="739163"/>
-          <a:ext cx="654389" cy="885825"/>
-          <a:chOff x="792645" y="739163"/>
-          <a:chExt cx="654389" cy="885825"/>
+          <a:off x="1512689" y="764869"/>
+          <a:ext cx="700763" cy="904875"/>
+          <a:chOff x="726250" y="739163"/>
+          <a:chExt cx="700763" cy="904875"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic macro="[0]!ShtMain.BtnImportClick">
@@ -963,8 +963,8 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="792645" y="739163"/>
-            <a:ext cx="654389" cy="571500"/>
+            <a:off x="726250" y="739163"/>
+            <a:ext cx="700763" cy="612000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1001,7 +1001,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="795839" y="1367813"/>
+            <a:off x="752631" y="1386863"/>
             <a:ext cx="648000" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1065,23 +1065,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>49575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>16669</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="Group 23">
+        <xdr:cNvPr id="1032" name="Group 1031">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178D2749-A8DC-4720-8DF4-F7E66ACD7230}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,18 +1089,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9144001" y="219075"/>
-          <a:ext cx="1504950" cy="1926000"/>
-          <a:chOff x="8582026" y="161925"/>
-          <a:chExt cx="1504950" cy="1926000"/>
+          <a:off x="2676525" y="474844"/>
+          <a:ext cx="4892400" cy="1446825"/>
+          <a:chOff x="1866900" y="751069"/>
+          <a:chExt cx="4892400" cy="1446825"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Rectangle: Rounded Corners 18">
+          <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1108,8 +1108,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8582026" y="161925"/>
-            <a:ext cx="1504950" cy="1926000"/>
+            <a:off x="1866900" y="751069"/>
+            <a:ext cx="4892400" cy="1446825"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -1159,12 +1159,962 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Rectangle: Rounded Corners 19">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="1031" name="Group 1030">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A9B811-937F-4523-9472-AA157B706B73}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1866900" y="751069"/>
+            <a:ext cx="4892400" cy="1300619"/>
+            <a:chOff x="1866900" y="751069"/>
+            <a:chExt cx="4892400" cy="1300619"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1866900" y="751069"/>
+              <a:ext cx="4892400" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DA2C38"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Report Settings</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="1030" name="Group 1029">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691ABE72-36A3-44B0-B3A5-49CE86D5C536}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="2503540" y="1163025"/>
+              <a:ext cx="3638171" cy="888663"/>
+              <a:chOff x="2379714" y="1163025"/>
+              <a:chExt cx="3876296" cy="888663"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="1027" name="Group 1026">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D730A2-18AE-4E74-9D29-78955242BB77}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="4788860" y="1163025"/>
+                <a:ext cx="1229025" cy="888663"/>
+                <a:chOff x="5226823" y="1163025"/>
+                <a:chExt cx="1229025" cy="888663"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="3" name="Group 2">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E8503A-BAF8-44E8-8003-B2389828036D}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="5226823" y="1382101"/>
+                  <a:ext cx="1229025" cy="669587"/>
+                  <a:chOff x="3640415" y="772501"/>
+                  <a:chExt cx="1229025" cy="669587"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="[0]!ShtMain.BtnLvl1Click" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="13" name="BtnLvl1">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3640415" y="772501"/>
+                    <a:ext cx="612000" cy="216000"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:gradFill flip="none" rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:srgbClr val="8A7E81"/>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:srgbClr val="8A7E81"/>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                    <a:tileRect/>
+                  </a:gradFill>
+                  <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+                    <a:noFill/>
+                    <a:prstDash val="solid"/>
+                    <a:miter lim="800000"/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:srgbClr val="DA2C38"/>
+                        </a:solidFill>
+                        <a:prstDash val="solid"/>
+                        <a:miter lim="800000"/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:effectLst>
+                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                            <a:prstClr val="black">
+                              <a:alpha val="50000"/>
+                            </a:prstClr>
+                          </a:innerShdw>
+                        </a:effectLst>
+                      </a14:hiddenEffects>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1000" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="E8E8E8"/>
+                        </a:solidFill>
+                        <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                      </a:rPr>
+                      <a:t>1</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="[0]!ShtMain.BtnLvl2Click" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="14" name="BtnLvl2">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3640415" y="1001101"/>
+                    <a:ext cx="612000" cy="216000"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:gradFill flip="none" rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:srgbClr val="8A7E81"/>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:srgbClr val="8A7E81"/>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                    <a:tileRect/>
+                  </a:gradFill>
+                  <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+                    <a:noFill/>
+                    <a:prstDash val="solid"/>
+                    <a:miter lim="800000"/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:srgbClr val="DA2C38"/>
+                        </a:solidFill>
+                        <a:prstDash val="solid"/>
+                        <a:miter lim="800000"/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:effectLst>
+                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                            <a:prstClr val="black">
+                              <a:alpha val="50000"/>
+                            </a:prstClr>
+                          </a:innerShdw>
+                        </a:effectLst>
+                      </a14:hiddenEffects>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1000" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="E8E8E8"/>
+                        </a:solidFill>
+                        <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="[0]!ShtMain.BtnLvl3Click" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="15" name="BtnLvl3">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4257440" y="772501"/>
+                    <a:ext cx="612000" cy="216000"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:gradFill flip="none" rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:srgbClr val="8A7E81"/>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:srgbClr val="8A7E81"/>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                    <a:tileRect/>
+                  </a:gradFill>
+                  <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+                    <a:noFill/>
+                    <a:prstDash val="solid"/>
+                    <a:miter lim="800000"/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:srgbClr val="DA2C38"/>
+                        </a:solidFill>
+                        <a:prstDash val="solid"/>
+                        <a:miter lim="800000"/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:effectLst>
+                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                            <a:prstClr val="black">
+                              <a:alpha val="50000"/>
+                            </a:prstClr>
+                          </a:innerShdw>
+                        </a:effectLst>
+                      </a14:hiddenEffects>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1000" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="E8E8E8"/>
+                        </a:solidFill>
+                        <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                      </a:rPr>
+                      <a:t>3</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="[0]!ShtMain.BtnLvl4Click" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="16" name="BtnLvl4">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4257440" y="1001101"/>
+                    <a:ext cx="612000" cy="216000"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:gradFill flip="none" rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:srgbClr val="8A7E81"/>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:srgbClr val="8A7E81"/>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                    <a:tileRect/>
+                  </a:gradFill>
+                  <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+                    <a:noFill/>
+                    <a:prstDash val="solid"/>
+                    <a:miter lim="800000"/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:srgbClr val="DA2C38"/>
+                        </a:solidFill>
+                        <a:prstDash val="solid"/>
+                        <a:miter lim="800000"/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:effectLst>
+                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                            <a:prstClr val="black">
+                              <a:alpha val="50000"/>
+                            </a:prstClr>
+                          </a:innerShdw>
+                        </a:effectLst>
+                      </a14:hiddenEffects>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1000" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="E8E8E8"/>
+                        </a:solidFill>
+                        <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                      </a:rPr>
+                      <a:t>4</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="[0]!ShtMain.BtnLvlAllClick" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="BtnLvlAll">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="3640415" y="1226088"/>
+                    <a:ext cx="1224000" cy="216000"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:gradFill flip="none" rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:srgbClr val="DA2C38"/>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:srgbClr val="DA2C38"/>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                    <a:tileRect/>
+                  </a:gradFill>
+                  <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+                    <a:noFill/>
+                    <a:prstDash val="solid"/>
+                    <a:miter lim="800000"/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                      <a:prstClr val="black">
+                        <a:alpha val="50000"/>
+                      </a:prstClr>
+                    </a:innerShdw>
+                  </a:effectLst>
+                  <a:extLst>
+                    <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                      <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                        <a:solidFill>
+                          <a:srgbClr val="756A6D"/>
+                        </a:solidFill>
+                        <a:prstDash val="solid"/>
+                        <a:miter lim="800000"/>
+                      </a14:hiddenLine>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="en-GB" sz="1000" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="E8E8E8"/>
+                        </a:solidFill>
+                        <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                      </a:rPr>
+                      <a:t>All</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="23" name="TextBox 22">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5507960" y="1163025"/>
+                  <a:ext cx="666750" cy="209550"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100">
+                      <a:solidFill>
+                        <a:srgbClr val="E8E8E8"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>Level</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100"/>
+                    <a:t> </a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="1028" name="Group 1027">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A73762-BE00-44C5-8F62-AB2530848D4A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="2379714" y="1335185"/>
+                <a:ext cx="1454424" cy="544343"/>
+                <a:chOff x="2084252" y="1334476"/>
+                <a:chExt cx="1454424" cy="544343"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="30" name="TextBox 29">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2084252" y="1334476"/>
+                  <a:ext cx="1454424" cy="276224"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100">
+                      <a:solidFill>
+                        <a:srgbClr val="E8E8E8"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>Look Ahead</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="E8E8E8"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t> (wks)</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-GB" sz="1100"/>
+                    <a:t> </a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+              <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="1025" name="TxtLAValue" hidden="1">
+                      <a:extLst>
+                        <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                          <a14:compatExt spid="_x0000_s1025"/>
+                        </a:ext>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr bwMode="auto">
+                    <a:xfrm>
+                      <a:off x="2506664" y="1612119"/>
+                      <a:ext cx="609600" cy="266700"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:extLst>
+                      <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                        <a14:hiddenLine w="9525">
+                          <a:noFill/>
+                          <a:miter lim="800000"/>
+                          <a:headEnd/>
+                          <a:tailEnd/>
+                        </a14:hiddenLine>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:spPr>
+                </xdr:sp>
+              </mc:Choice>
+              <mc:Fallback/>
+            </mc:AlternateContent>
+          </xdr:grpSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357970</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74770</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154226</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="Group 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB274197-BECF-4238-8D0C-B79BA161E0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8216095" y="756387"/>
+          <a:ext cx="936000" cy="921839"/>
+          <a:chOff x="6158695" y="665049"/>
+          <a:chExt cx="936000" cy="921839"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="Group 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks noChangeAspect="1"/>
+          </xdr:cNvGrpSpPr>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6311565" y="665049"/>
+            <a:ext cx="630261" cy="612000"/>
+            <a:chOff x="6904952" y="1266824"/>
+            <a:chExt cx="699475" cy="685801"/>
+          </a:xfrm>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:grpSpPr>
+        <xdr:sp macro="[0]!ShtMain.BtnPPTExpClick" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="Rectangle 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7178386" y="1350818"/>
+              <a:ext cx="419966" cy="497898"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic macro="[0]!ShtMain.BtnPPTExpClick">
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Picture 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+              <a:clrChange>
+                <a:clrFrom>
+                  <a:srgbClr val="000000"/>
+                </a:clrFrom>
+                <a:clrTo>
+                  <a:srgbClr val="000000">
+                    <a:alpha val="0"/>
+                  </a:srgbClr>
+                </a:clrTo>
+              </a:clrChange>
+              <a:duotone>
+                <a:prstClr val="black"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:tint val="45000"/>
+                  <a:satMod val="400000"/>
+                </a:schemeClr>
+              </a:duotone>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6904952" y="1266824"/>
+              <a:ext cx="699475" cy="685801"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="[0]!ThisWorkbook.ClearData" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1172,18 +2122,25 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8582026" y="161925"/>
-            <a:ext cx="1504950" cy="352425"/>
+            <a:off x="6158695" y="1329713"/>
+            <a:ext cx="936000" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="DA2C38"/>
+            <a:srgbClr val="6D6A75"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -1205,24 +2162,15 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-GB" sz="1100">
+              <a:rPr lang="en-GB" sz="1200">
                 <a:solidFill>
                   <a:srgbClr val="E8E8E8"/>
                 </a:solidFill>
                 <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Export</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> to PPT</a:t>
+              <a:t>PPT Export</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1100">
               <a:solidFill>
@@ -1233,12 +2181,47 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>321950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="1024" name="Group 1023">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB460F3A-4715-4C62-815E-D5F040790516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2676525" y="2105025"/>
+          <a:ext cx="4893950" cy="1440000"/>
+          <a:chOff x="2108825" y="2381250"/>
+          <a:chExt cx="4893950" cy="1440000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="Group 6">
+          <xdr:cNvPr id="55" name="Group 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33C47F0-EAFC-48CD-8816-E37AECDA53F4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1246,18 +2229,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="8817864" y="762001"/>
-            <a:ext cx="1033275" cy="1066800"/>
-            <a:chOff x="6655689" y="742951"/>
-            <a:chExt cx="1033275" cy="1066800"/>
+            <a:off x="2108825" y="2381250"/>
+            <a:ext cx="1504950" cy="1440000"/>
+            <a:chOff x="2032625" y="2381250"/>
+            <a:chExt cx="1504950" cy="1440000"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp macro="[0]!ShtMain.BtnPPTExpClick" textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="BtnPPTExp">
+            <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1265,8 +2248,131 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6655689" y="742951"/>
-              <a:ext cx="1033275" cy="1066800"/>
+              <a:off x="2032625" y="2381250"/>
+              <a:ext cx="1504950" cy="1440000"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 2500"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="6D6A75"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2032625" y="2381250"/>
+              <a:ext cx="1504950" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DA2C38"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Exception Report</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="[0]!ShtMain.BtnExcRepGenClick" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="BtnExcRepGen">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2268500" y="3074650"/>
+              <a:ext cx="1033200" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1338,393 +2444,27 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:endParaRPr lang="en-GB" sz="1000" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Generate</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="25" name="Group 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="6822882" y="933451"/>
-              <a:ext cx="698889" cy="685801"/>
-              <a:chOff x="6904952" y="1266824"/>
-              <a:chExt cx="699475" cy="685801"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="[0]!ShtMain.BtnPPTExpClick" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="Rectangle 11">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="7178386" y="1350818"/>
-                <a:ext cx="419966" cy="497898"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-GB" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:pic macro="[0]!ShtMain.BtnPPTExpClick">
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="11" name="Picture 10">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr>
-                <a:picLocks noChangeAspect="1"/>
-              </xdr:cNvPicPr>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-                <a:clrChange>
-                  <a:clrFrom>
-                    <a:srgbClr val="000000"/>
-                  </a:clrFrom>
-                  <a:clrTo>
-                    <a:srgbClr val="000000">
-                      <a:alpha val="0"/>
-                    </a:srgbClr>
-                  </a:clrTo>
-                </a:clrChange>
-              </a:blip>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="6904952" y="1266824"/>
-                <a:ext cx="699475" cy="685801"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-        </xdr:grpSp>
       </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>29550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>243825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Group 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1876425" y="220050"/>
-          <a:ext cx="3177525" cy="1924050"/>
-          <a:chOff x="2914650" y="142875"/>
-          <a:chExt cx="3177525" cy="1924050"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="56" name="Group 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2924175" y="142875"/>
-            <a:ext cx="3168000" cy="1924050"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 2500"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="6D6A75"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2914650" y="142875"/>
-            <a:ext cx="3168000" cy="352425"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="DA2C38"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Look Ahead Report</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="[0]!ShtMain.BtnLARGenClick" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="BtnLARGen">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3140031" y="1498263"/>
-            <a:ext cx="1638300" cy="323850"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:gradFill flip="none" rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:srgbClr val="8A7E81"/>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:srgbClr val="8A7E81"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="1"/>
-            <a:tileRect/>
-          </a:gradFill>
-          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-            <a:miter lim="800000"/>
-          </a:ln>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:srgbClr val="DA2C38"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a14:hiddenLine>
-            </a:ext>
-            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:effectLst>
-                  <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                    <a:prstClr val="black">
-                      <a:alpha val="50000"/>
-                    </a:prstClr>
-                  </a:innerShdw>
-                </a:effectLst>
-              </a14:hiddenEffects>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" indent="0" algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1000" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Generate</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="Group 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C760D2-7F54-4AC8-99E8-44A2F961B8EA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1732,18 +2472,18 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="5345390" y="733426"/>
-            <a:ext cx="612000" cy="1088687"/>
-            <a:chOff x="5168681" y="742951"/>
-            <a:chExt cx="612000" cy="1088687"/>
+            <a:off x="3803325" y="2381250"/>
+            <a:ext cx="1504950" cy="1440000"/>
+            <a:chOff x="6574150" y="2381250"/>
+            <a:chExt cx="1504950" cy="1440000"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp macro="[0]!ShtMain.BtnLvl1Click" textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="BtnLvl1">
+            <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1751,8 +2491,131 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5168681" y="742951"/>
-              <a:ext cx="612000" cy="216000"/>
+              <a:off x="6574150" y="2381250"/>
+              <a:ext cx="1504950" cy="1440000"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 2500"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="6D6A75"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6574150" y="2381250"/>
+              <a:ext cx="1504950" cy="352425"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="DA2C38"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="E8E8E8"/>
+                  </a:solidFill>
+                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:t>Dependancy Report</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="[0]!ShtMain.BtnDepRepGenClick" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="BtnDepRepGen">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6810025" y="3074650"/>
+              <a:ext cx="1033200" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1815,28 +2678,55 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="ctr"/>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1000" b="0">
                   <a:solidFill>
                     <a:srgbClr val="E8E8E8"/>
                   </a:solidFill>
                   <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>1</a:t>
+                <a:t>Generate</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnLvl2Click" textlink="">
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="57" name="Group 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0741997-08AA-4646-9389-33BCAA78ACCC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5497825" y="2381250"/>
+            <a:ext cx="1504950" cy="1440000"/>
+            <a:chOff x="10307950" y="2381250"/>
+            <a:chExt cx="1504950" cy="1440000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="BtnLvl2">
+            <xdr:cNvPr id="41" name="Rectangle: Rounded Corners 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BF73BE-91C9-407D-8AC8-18B92DEA5BBB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1844,52 +2734,27 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5168681" y="962026"/>
-              <a:ext cx="612000" cy="216000"/>
+              <a:off x="10307950" y="2381250"/>
+              <a:ext cx="1504950" cy="1440000"/>
             </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 2500"/>
+              </a:avLst>
             </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="6D6A75"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
@@ -1908,28 +2773,24 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnLvl3Click" textlink="">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="BtnLvl3">
+            <xdr:cNvPr id="43" name="Rectangle: Rounded Corners 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A39542-D204-47DE-942C-F3BEAD7DFE09}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1937,567 +2798,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5168681" y="1181101"/>
-              <a:ext cx="612000" cy="216000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>3</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnLvl4Click" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="BtnLvl4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5168681" y="1400176"/>
-              <a:ext cx="612000" cy="216000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>4</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnLvlAllClick" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="BtnLvlAll">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5168681" y="1615638"/>
-              <a:ext cx="612000" cy="216000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="DA2C38"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="DA2C38"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                <a:prstClr val="black">
-                  <a:alpha val="50000"/>
-                </a:prstClr>
-              </a:innerShdw>
-            </a:effectLst>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="756A6D"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>All</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="TextBox 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5318015" y="495300"/>
-            <a:ext cx="666750" cy="209550"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Level</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="TextBox 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3231969" y="447676"/>
-            <a:ext cx="1454424" cy="276224"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Look Ahead</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> (wks)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1100"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="1025" name="TxtLAValue" hidden="1">
-                <a:extLst>
-                  <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                    <a14:compatExt spid="_x0000_s1025"/>
-                  </a:ext>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr bwMode="auto">
-              <a:xfrm>
-                <a:off x="3657600" y="733425"/>
-                <a:ext cx="609600" cy="266700"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:extLst>
-                <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                  <a14:hiddenLine w="9525">
-                    <a:noFill/>
-                    <a:miter lim="800000"/>
-                    <a:headEnd/>
-                    <a:tailEnd/>
-                  </a14:hiddenLine>
-                </a:ext>
-              </a:extLst>
-            </xdr:spPr>
-          </xdr:sp>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>603875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>280025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>49575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Group 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5414000" y="219075"/>
-          <a:ext cx="1504950" cy="1926000"/>
-          <a:chOff x="6572251" y="161925"/>
-          <a:chExt cx="1504950" cy="1926000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6572251" y="161925"/>
-            <a:ext cx="1504950" cy="1926000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 2500"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="6D6A75"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6572251" y="161925"/>
-            <a:ext cx="1504950" cy="1660188"/>
-            <a:chOff x="6572251" y="161925"/>
-            <a:chExt cx="1504950" cy="1660188"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6572251" y="161925"/>
+              <a:off x="10307950" y="2381250"/>
               <a:ext cx="1504950" cy="352425"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -2530,25 +2831,30 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100">
                   <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
+                    <a:schemeClr val="lt1"/>
                   </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Exception Report</a:t>
+                <a:t>Look Ahead Report</a:t>
               </a:r>
+              <a:endParaRPr lang="en-GB">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnExcRepGenClick" textlink="">
+        <xdr:sp macro="[0]!ShtMain.BtnDepRepGenClick" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="BtnExcRepGen">
+            <xdr:cNvPr id="44" name="BtnDepRepGen">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242CFAFE-E45C-49A7-86C7-973D985154C6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2556,7 +2862,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6808126" y="1498263"/>
+              <a:off x="10543825" y="3074650"/>
               <a:ext cx="1033200" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2649,23 +2955,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>30475</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>262870</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>316225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>49575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>415270</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65644</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="Group 31">
+        <xdr:cNvPr id="61" name="Group 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16A64C9-2324-4FB7-9399-787AA2E1C370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,288 +2979,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7279000" y="219075"/>
-          <a:ext cx="1504950" cy="1926000"/>
-          <a:chOff x="6572251" y="161925"/>
-          <a:chExt cx="1504950" cy="1926000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6572251" y="161925"/>
-            <a:ext cx="1504950" cy="1926000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 2500"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="6D6A75"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="Group 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6572251" y="161925"/>
-            <a:ext cx="1504950" cy="1660188"/>
-            <a:chOff x="6572251" y="161925"/>
-            <a:chExt cx="1504950" cy="1660188"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6572251" y="161925"/>
-              <a:ext cx="1504950" cy="352425"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="DA2C38"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>Dependancy Report</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnDepRepGenClick" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="BtnDepRepGen">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6808126" y="1498263"/>
-              <a:ext cx="1033200" cy="323850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Generate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>62845</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>215245</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>5738</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="Group 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="672445" y="2657475"/>
-          <a:ext cx="762000" cy="967763"/>
-          <a:chOff x="659857" y="2657475"/>
-          <a:chExt cx="762000" cy="967763"/>
+          <a:off x="1482070" y="2345906"/>
+          <a:ext cx="762000" cy="958238"/>
+          <a:chOff x="672445" y="2686050"/>
+          <a:chExt cx="762000" cy="958238"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic macro="[0]!ThisWorkbook.ClearData">
@@ -2987,7 +3015,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="659857" y="2657475"/>
+            <a:off x="672445" y="2686050"/>
             <a:ext cx="762000" cy="762000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3004,10 +3032,10 @@
       </xdr:pic>
       <xdr:sp macro="[0]!ThisWorkbook.ClearData" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
+          <xdr:cNvPr id="62" name="Rectangle: Rounded Corners 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43333F61-A816-4877-900C-C565244CAA81}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3015,7 +3043,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="716857" y="3368063"/>
+            <a:off x="729445" y="3387113"/>
             <a:ext cx="648000" cy="257175"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -26092,7 +26120,7 @@
   <dimension ref="S3:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26139,7 +26167,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26152,16 +26179,16 @@
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>790575</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -26453,7 +26480,7 @@
     <col min="2" max="2" width="5.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" style="14" bestFit="1" customWidth="1"/>
@@ -26592,9 +26619,11 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
       <c r="E7" s="17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -26674,8 +26703,8 @@
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="130.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -27363,7 +27392,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A652D-6DD1-48EF-B210-1032D24E28CA}">
   <sheetPr codeName="ShtTaskView"/>
-  <dimension ref="C2:P205"/>
+  <dimension ref="C2:P227"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -29033,6 +29062,182 @@
         <v>30</v>
       </c>
     </row>
+    <row r="206" spans="4:14">
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="4:14">
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+      <c r="N207" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="4:14">
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="4:14">
+      <c r="E209" t="s">
+        <v>20</v>
+      </c>
+      <c r="N209" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="4:14">
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="4:14">
+      <c r="E211" t="s">
+        <v>21</v>
+      </c>
+      <c r="N211" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="4:14">
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="4:14">
+      <c r="E213" t="s">
+        <v>22</v>
+      </c>
+      <c r="N213" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="4:14">
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="4:14">
+      <c r="E215" t="s">
+        <v>23</v>
+      </c>
+      <c r="N215" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="4:14">
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="4:14">
+      <c r="E217" t="s">
+        <v>24</v>
+      </c>
+      <c r="N217" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="4:14">
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="4:14">
+      <c r="E219" t="s">
+        <v>25</v>
+      </c>
+      <c r="N219" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="4:14">
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="4:14">
+      <c r="E221" t="s">
+        <v>26</v>
+      </c>
+      <c r="N221" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="4:14">
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="4:14">
+      <c r="E223" t="s">
+        <v>27</v>
+      </c>
+      <c r="N223" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="4:14">
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="4:14">
+      <c r="E225" t="s">
+        <v>28</v>
+      </c>
+      <c r="N225" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="4:14">
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="4:14">
+      <c r="E227" t="s">
+        <v>29</v>
+      </c>
+      <c r="N227" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C3:M2326">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{071CE4CA-134E-4ABF-A17F-77153260AD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A2718B-A59D-4712-89AE-18563521E19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
@@ -16,19 +16,21 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Dependancy Report" sheetId="248" r:id="rId2"/>
     <sheet name="Consolidated  Exception Report " sheetId="245" r:id="rId3"/>
-    <sheet name="Plan Data" sheetId="227" r:id="rId4"/>
-    <sheet name="Look Ahead Report" sheetId="246" state="hidden" r:id="rId5"/>
+    <sheet name="Togo" sheetId="227" r:id="rId4"/>
+    <sheet name="Look Ahead Report (4)" sheetId="281" state="hidden" r:id="rId5"/>
+    <sheet name="Look Ahead Report (3)" sheetId="280" state="hidden" r:id="rId6"/>
+    <sheet name="Look Ahead Report (2)" sheetId="279" state="hidden" r:id="rId7"/>
+    <sheet name="Look Ahead Report" sheetId="246" state="hidden" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ff3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
     <definedName name="_ff3" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
     <definedName name="_ff6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
     <definedName name="_ff6" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dependancy Report'!$B$3:$X$3</definedName>
     <definedName name="change">'[1]Change Log'!$E$1:$AK$1</definedName>
     <definedName name="codelu">'[1]Stream E Plan'!$A:$AA</definedName>
     <definedName name="CODEVAL">'[1]Stream E Plan'!$E:$W</definedName>
@@ -36,7 +38,7 @@
     <definedName name="LEVEL">Main!$T$5</definedName>
     <definedName name="MPP_FILEPATH">Main!$T$6</definedName>
     <definedName name="NO_PROJS">Main!$T$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Dependancy Report'!$B$1:$T$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Dependancy Report'!#REF!</definedName>
     <definedName name="PRNLIST">[1]Lookups!$A$2:$A$16</definedName>
     <definedName name="PROJ_IND">Main!$U$2</definedName>
     <definedName name="REPORTING_WEEK">'[2]Control Panel'!$F$20</definedName>
@@ -70,42 +72,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>CT092435</author>
-  </authors>
-  <commentList>
-    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{AF1FD876-7DF2-49F4-8626-A26E25F3D1A0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CT092435:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Used to create unique ID for each dependency</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
   <si>
     <t>DTI</t>
   </si>
@@ -167,106 +135,103 @@
     <t>Business Milestones</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>Define</t>
-  </si>
-  <si>
-    <t>Develop</t>
-  </si>
-  <si>
-    <t>Deploy</t>
-  </si>
-  <si>
-    <t>Benefits</t>
-  </si>
-  <si>
-    <t>Group IT Milestones</t>
-  </si>
-  <si>
-    <t>GIT Define Stage</t>
-  </si>
-  <si>
-    <t>GIT Develop Stage</t>
-  </si>
-  <si>
-    <t>GIT Deploy Stage</t>
-  </si>
-  <si>
-    <t>GIT Benefits Stage</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>No Tasks</t>
-  </si>
-  <si>
     <t>Donor</t>
   </si>
   <si>
-    <t>Beneficiary</t>
+    <t>Local RAG</t>
   </si>
   <si>
-    <t>Dependency Status Summary</t>
+    <t>Temp</t>
   </si>
   <si>
-    <t>PMO Use</t>
+    <t>Data</t>
   </si>
   <si>
-    <t>UID</t>
+    <t>got</t>
   </si>
   <si>
-    <t>LEVEL</t>
+    <t>Togo</t>
   </si>
   <si>
-    <t>DONOR PROJECT</t>
+    <t>GREEN</t>
   </si>
   <si>
-    <t>MILESTONE DESCRIPTION</t>
+    <t>Test Environment Strategy Complete</t>
   </si>
   <si>
-    <t>BASELINE</t>
+    <t>Solution Feasibility Report Signed Off</t>
   </si>
   <si>
-    <t>FORECAST</t>
+    <t>Group Compliance Checks Complete</t>
   </si>
   <si>
-    <t>BENEFICIARY PROJECT</t>
+    <t>CSOC Impact Assessment Complete</t>
   </si>
   <si>
-    <t>COMMENTARY</t>
+    <t>PSOC Impact Assessment Complete</t>
   </si>
   <si>
-    <t>Lead/Lag</t>
+    <t xml:space="preserve">Define Complete </t>
   </si>
   <si>
-    <t>Baseline Float</t>
+    <t>RED</t>
   </si>
   <si>
-    <t>Forecast Float</t>
+    <t>Design Start</t>
   </si>
   <si>
-    <t>Link_ID</t>
+    <t>Full Requirements Definition Signed Off</t>
   </si>
   <si>
-    <t>Crit</t>
+    <t xml:space="preserve">Mid Level Platform Designs Complete </t>
   </si>
   <si>
-    <t>Donor float</t>
+    <t xml:space="preserve">&lt;Test Phase&gt; Environment and Data Ready for Testing </t>
   </si>
   <si>
-    <t>Ben Float</t>
+    <t>Design Complete</t>
   </si>
   <si>
-    <t>Stream E Dependency Report (Status: 01/01/2014)</t>
+    <t>Build Start</t>
   </si>
   <si>
-    <t>12</t>
+    <t xml:space="preserve">Build Complete </t>
   </si>
   <si>
-    <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.0.mpp</t>
+    <t>Test Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Acceptance Test Complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Functional Test Start </t>
+  </si>
+  <si>
+    <t>Non-Functional Test Complete</t>
+  </si>
+  <si>
+    <t>Test Complete</t>
+  </si>
+  <si>
+    <t>Develop Complete</t>
+  </si>
+  <si>
+    <t>Deploy Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment Start </t>
+  </si>
+  <si>
+    <t>Deployment Live</t>
+  </si>
+  <si>
+    <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.1.mpp</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>AMBER</t>
   </si>
 </sst>
 </file>
@@ -277,7 +242,7 @@
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,36 +305,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,151 +349,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -566,7 +364,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -615,16 +413,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -634,28 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -675,76 +441,38 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{ED3DACD9-5B4B-47B4-AB17-B329AFBAD914}"/>
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{7A51C740-AF2D-4846-9841-1DF2C6D07787}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
       <font>
         <b/>
@@ -765,15 +493,57 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -905,14 +675,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>293489</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>398264</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>384652</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>489427</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>145744</xdr:rowOff>
     </xdr:to>
@@ -921,7 +691,7 @@
         <xdr:cNvPr id="59" name="Group 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379D7F37-F27E-4213-8CDD-A8F9CB16C2C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,7 +699,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1512689" y="764869"/>
+          <a:off x="1007864" y="764869"/>
           <a:ext cx="700763" cy="904875"/>
           <a:chOff x="726250" y="739163"/>
           <a:chExt cx="700763" cy="904875"/>
@@ -1081,7 +851,7 @@
         <xdr:cNvPr id="1032" name="Group 1031">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178D2749-A8DC-4720-8DF4-F7E66ACD7230}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +934,7 @@
           <xdr:cNvPr id="1031" name="Group 1030">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A9B811-937F-4523-9472-AA157B706B73}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1242,7 +1012,7 @@
             <xdr:cNvPr id="1030" name="Group 1029">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691ABE72-36A3-44B0-B3A5-49CE86D5C536}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1251,9 +1021,9 @@
           <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="2503540" y="1163025"/>
-              <a:ext cx="3638171" cy="888663"/>
+              <a:ext cx="3414674" cy="888663"/>
               <a:chOff x="2379714" y="1163025"/>
-              <a:chExt cx="3876296" cy="888663"/>
+              <a:chExt cx="3638171" cy="888663"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -1261,7 +1031,7 @@
               <xdr:cNvPr id="1027" name="Group 1026">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D730A2-18AE-4E74-9D29-78955242BB77}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1269,10 +1039,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="4788860" y="1163025"/>
-                <a:ext cx="1229025" cy="888663"/>
-                <a:chOff x="5226823" y="1163025"/>
-                <a:chExt cx="1229025" cy="888663"/>
+                <a:off x="4778711" y="1163025"/>
+                <a:ext cx="1239174" cy="888663"/>
+                <a:chOff x="5216674" y="1163025"/>
+                <a:chExt cx="1239174" cy="888663"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:grpSp>
@@ -1280,7 +1050,7 @@
                 <xdr:cNvPr id="3" name="Group 2">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E8503A-BAF8-44E8-8003-B2389828036D}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -1288,10 +1058,10 @@
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
                 <a:xfrm>
-                  <a:off x="5226823" y="1382101"/>
-                  <a:ext cx="1229025" cy="669587"/>
-                  <a:chOff x="3640415" y="772501"/>
-                  <a:chExt cx="1229025" cy="669587"/>
+                  <a:off x="5216674" y="1382101"/>
+                  <a:ext cx="1239174" cy="669587"/>
+                  <a:chOff x="3630266" y="772501"/>
+                  <a:chExt cx="1239174" cy="669587"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:sp macro="[0]!ShtMain.BtnLvl1Click" textlink="">
@@ -1307,7 +1077,7 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="3640415" y="772501"/>
+                    <a:off x="3630267" y="772501"/>
                     <a:ext cx="612000" cy="216000"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
@@ -1400,7 +1170,7 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="3640415" y="1001101"/>
+                    <a:off x="3630267" y="1001101"/>
                     <a:ext cx="612000" cy="216000"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
@@ -1679,8 +1449,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="3640415" y="1226088"/>
-                    <a:ext cx="1224000" cy="216000"/>
+                    <a:off x="3630266" y="1226088"/>
+                    <a:ext cx="1231236" cy="216000"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -1819,7 +1589,7 @@
               <xdr:cNvPr id="1028" name="Group 1027">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A73762-BE00-44C5-8F62-AB2530848D4A}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1950,242 +1720,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>357970</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>184887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>74770</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>154226</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="63" name="Group 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB274197-BECF-4238-8D0C-B79BA161E0C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8216095" y="756387"/>
-          <a:ext cx="936000" cy="921839"/>
-          <a:chOff x="6158695" y="665049"/>
-          <a:chExt cx="936000" cy="921839"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="25" name="Group 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr>
-            <a:grpSpLocks noChangeAspect="1"/>
-          </xdr:cNvGrpSpPr>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6311565" y="665049"/>
-            <a:ext cx="630261" cy="612000"/>
-            <a:chOff x="6904952" y="1266824"/>
-            <a:chExt cx="699475" cy="685801"/>
-          </a:xfrm>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:grpSpPr>
-        <xdr:sp macro="[0]!ShtMain.BtnPPTExpClick" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7178386" y="1350818"/>
-              <a:ext cx="419966" cy="497898"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic macro="[0]!ShtMain.BtnPPTExpClick">
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="Picture 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-              <a:clrChange>
-                <a:clrFrom>
-                  <a:srgbClr val="000000"/>
-                </a:clrFrom>
-                <a:clrTo>
-                  <a:srgbClr val="000000">
-                    <a:alpha val="0"/>
-                  </a:srgbClr>
-                </a:clrTo>
-              </a:clrChange>
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:schemeClr>
-              </a:duotone>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6904952" y="1266824"/>
-              <a:ext cx="699475" cy="685801"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:sp macro="[0]!ThisWorkbook.ClearData" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6158695" y="1329713"/>
-            <a:ext cx="936000" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="6D6A75"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="E8E8E8"/>
-                </a:solidFill>
-                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>PPT Export</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="E8E8E8"/>
-              </a:solidFill>
-              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -2202,7 +1736,7 @@
         <xdr:cNvPr id="1024" name="Group 1023">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB460F3A-4715-4C62-815E-D5F040790516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +1755,7 @@
           <xdr:cNvPr id="55" name="Group 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33C47F0-EAFC-48CD-8816-E37AECDA53F4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2464,7 +1998,7 @@
           <xdr:cNvPr id="56" name="Group 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C760D2-7F54-4AC8-99E8-44A2F961B8EA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2707,7 +2241,7 @@
           <xdr:cNvPr id="57" name="Group 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0741997-08AA-4646-9389-33BCAA78ACCC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2726,7 +2260,7 @@
             <xdr:cNvPr id="41" name="Rectangle: Rounded Corners 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BF73BE-91C9-407D-8AC8-18B92DEA5BBB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2790,7 +2324,7 @@
             <xdr:cNvPr id="43" name="Rectangle: Rounded Corners 42">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A39542-D204-47DE-942C-F3BEAD7DFE09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2849,12 +2383,12 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnDepRepGenClick" textlink="">
+        <xdr:sp macro="[0]!ShtMain.BtnLARGenClick" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="BtnDepRepGen">
+            <xdr:cNvPr id="44" name="BtnLARGen">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242CFAFE-E45C-49A7-86C7-973D985154C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2955,14 +2489,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>262870</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>367645</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>59906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>415270</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520045</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>65644</xdr:rowOff>
     </xdr:to>
@@ -2971,7 +2505,7 @@
         <xdr:cNvPr id="61" name="Group 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16A64C9-2324-4FB7-9399-787AA2E1C370}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2513,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1482070" y="2345906"/>
+          <a:off x="977245" y="2345906"/>
           <a:ext cx="762000" cy="958238"/>
           <a:chOff x="672445" y="2686050"/>
           <a:chExt cx="762000" cy="958238"/>
@@ -2999,13 +2533,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3035,7 +2569,7 @@
           <xdr:cNvPr id="62" name="Rectangle: Rounded Corners 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43333F61-A816-4877-900C-C565244CAA81}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3102,6 +2636,166 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>186520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>512920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154226</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8654245" y="771525"/>
+          <a:ext cx="936000" cy="906701"/>
+          <a:chOff x="8654245" y="771525"/>
+          <a:chExt cx="936000" cy="906701"/>
+        </a:xfrm>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:grpSpPr>
+      <xdr:sp macro="[0]!ThisWorkbook.ClearData" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8654245" y="1421051"/>
+            <a:ext cx="936000" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="6D6A75"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="E8E8E8"/>
+                </a:solidFill>
+                <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>PPT Export</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="42" name="Picture 41" descr="Microsoft PowerPoint | Logopedia | Fandom">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8816245" y="771525"/>
+            <a:ext cx="612000" cy="612000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -26120,7 +25814,7 @@
   <dimension ref="S3:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26129,44 +25823,54 @@
     <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="17" width="9.140625" style="3"/>
     <col min="18" max="18" width="16.85546875" style="3" customWidth="1"/>
-    <col min="19" max="21" width="16.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="16.85546875" style="4" customWidth="1"/>
     <col min="22" max="22" width="16.85546875" style="3" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="19:20">
+    <row r="3" spans="19:21">
       <c r="S3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="19:20">
+    <row r="4" spans="19:21">
       <c r="S4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="19:20">
+    <row r="5" spans="19:21">
       <c r="S5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="T5" s="4">
         <v>9999</v>
       </c>
+      <c r="U5" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="19:20">
+    <row r="6" spans="19:21">
       <c r="S6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26203,287 +25907,846 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906E5AB5-12C8-4277-BA83-79BE21A05D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906E5AB5-12C8-4277-BA83-79BE21A05D8B}">
   <sheetPr codeName="ShtDepLog">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A2:W24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="26.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="37" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="37" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" style="40" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="41" customWidth="1"/>
-    <col min="18" max="19" width="13.7109375" style="40" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" style="40" customWidth="1"/>
-    <col min="21" max="23" width="9.140625" style="37" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="24"/>
+    <col min="2" max="2" width="4.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="26"/>
+    <col min="14" max="14" width="9.5703125" style="27"/>
+    <col min="15" max="16" width="9.5703125" style="28"/>
+    <col min="17" max="17" width="9.5703125" style="29"/>
+    <col min="18" max="20" width="9.5703125" style="28"/>
+    <col min="21" max="23" width="9.5703125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24.75" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>51</v>
+    <row r="2" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B2" s="24" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="55"/>
-      <c r="X1">
-        <v>3</v>
+      <c r="C2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="29.25" customHeight="1">
-      <c r="A2" s="56" t="s">
+    <row r="3" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B3" s="24">
+        <v>79</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="25">
+        <v>5</v>
+      </c>
+      <c r="E3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37">
+        <v>44044</v>
+      </c>
+      <c r="J3" s="37">
+        <v>43966</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B4" s="24">
+        <v>6</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="25">
+        <v>5</v>
+      </c>
+      <c r="E4" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37">
+        <v>44044</v>
+      </c>
+      <c r="J4" s="37">
+        <v>46227</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B5" s="24">
+        <v>7</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="25">
+        <v>5</v>
+      </c>
+      <c r="E5" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37">
+        <v>44044</v>
+      </c>
+      <c r="J5" s="37">
+        <v>46227</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B6" s="24">
+        <v>8</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="25">
+        <v>5</v>
+      </c>
+      <c r="E6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="37">
+        <v>44044</v>
+      </c>
+      <c r="J6" s="37">
+        <v>43966</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B7" s="24">
+        <v>9</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="25">
+        <v>5</v>
+      </c>
+      <c r="E7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="37">
+        <v>44044</v>
+      </c>
+      <c r="J7" s="37">
+        <v>46227</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B8" s="24">
+        <v>11</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59" t="s">
+      <c r="D8" s="25">
+        <v>5</v>
+      </c>
+      <c r="E8" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
+        <v>44044</v>
+      </c>
+      <c r="J8" s="37">
+        <v>43966</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B9" s="24">
+        <v>13</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="25">
+        <v>11</v>
+      </c>
+      <c r="E9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J9" s="37">
+        <v>43987</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60" t="s">
-        <v>34</v>
+      <c r="L9" s="26" t="s">
+        <v>26</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61" t="s">
+      <c r="P9" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B10" s="24">
+        <v>14</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62"/>
+      <c r="D10" s="25">
+        <v>11</v>
+      </c>
+      <c r="E10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J10" s="37">
+        <v>43987</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5">
-      <c r="A3" s="42" t="s">
+    <row r="11" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B11" s="24">
+        <v>81</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="D11" s="25">
+        <v>11</v>
+      </c>
+      <c r="E11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J11" s="37">
+        <v>43987</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B12" s="24">
+        <v>82</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="D12" s="25">
+        <v>11</v>
+      </c>
+      <c r="E12" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J12" s="37">
+        <v>43987</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B13" s="24">
+        <v>15</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D13" s="25">
+        <v>11</v>
+      </c>
+      <c r="E13" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J13" s="37">
+        <v>43987</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B14" s="24">
+        <v>16</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="D14" s="25">
+        <v>11</v>
+      </c>
+      <c r="E14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J14" s="37">
+        <v>43987</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B15" s="24">
+        <v>17</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="D15" s="25">
+        <v>11</v>
+      </c>
+      <c r="E15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J15" s="37">
+        <v>43987</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B16" s="24">
+        <v>18</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="44" t="s">
-        <v>1</v>
+      <c r="D16" s="25">
+        <v>11</v>
       </c>
-      <c r="H3" s="45" t="s">
-        <v>37</v>
+      <c r="E16" s="26" t="b">
+        <v>0</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="F16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J16" s="37">
+        <v>43987</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B17" s="24">
+        <v>86</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="52" t="s">
-        <v>39</v>
+      <c r="D17" s="25">
+        <v>10</v>
       </c>
-      <c r="K3" s="45" t="s">
-        <v>36</v>
+      <c r="E17" s="26" t="b">
+        <v>0</v>
       </c>
-      <c r="L3" s="46" t="s">
-        <v>40</v>
+      <c r="F17" s="26" t="b">
+        <v>0</v>
       </c>
-      <c r="M3" s="46" t="s">
-        <v>41</v>
+      <c r="I17" s="37">
+        <v>43952</v>
       </c>
-      <c r="N3" s="47" t="s">
-        <v>1</v>
+      <c r="J17" s="37">
+        <v>44002</v>
       </c>
-      <c r="O3" s="48" t="s">
-        <v>40</v>
+      <c r="K17" s="24" t="s">
+        <v>33</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="L17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B18" s="24">
+        <v>84</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="D18" s="25">
+        <v>10</v>
+      </c>
+      <c r="E18" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J18" s="37">
+        <v>44002</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B19" s="24">
+        <v>83</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="D19" s="25">
+        <v>10</v>
+      </c>
+      <c r="E19" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J19" s="37">
+        <v>44002</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B20" s="24">
+        <v>19</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="D20" s="25">
+        <v>10</v>
+      </c>
+      <c r="E20" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J20" s="37">
+        <v>44002</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B21" s="24">
+        <v>20</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="D21" s="25">
+        <v>10</v>
+      </c>
+      <c r="E21" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J21" s="37">
+        <v>44002</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B22" s="24">
+        <v>21</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="50" t="s">
+      <c r="D22" s="25">
+        <v>10</v>
+      </c>
+      <c r="E22" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J22" s="37">
+        <v>44002</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B23" s="24">
+        <v>22</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="D23" s="25">
+        <v>10</v>
+      </c>
+      <c r="E23" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="37">
+        <v>43952</v>
+      </c>
+      <c r="J23" s="37">
+        <v>44002</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B24" s="24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="50" t="s">
-        <v>50</v>
+      <c r="D24" s="25">
+        <v>10</v>
+      </c>
+      <c r="E24" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="37">
+        <v>43959</v>
+      </c>
+      <c r="J24" s="37">
+        <v>44002</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B3:X3" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X4">
-    <sortCondition ref="X3:X4"/>
-    <sortCondition ref="F3:F4"/>
-    <sortCondition ref="K3:K4"/>
-  </sortState>
-  <mergeCells count="5">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:W2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="O3:O1048576">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Aligned"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"Donor BL earlier than Beneficiary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"Alignment Issue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N1048576 G3:G1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+  <conditionalFormatting sqref="N1:N1048576 G1:G1048576">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"COMPLETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"COMPLETE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:W3 T4:T1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:W3 T3:T1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.3" right="0.17" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="64" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0661869B-2619-413E-921F-52D6B30D4584}">
   <sheetPr codeName="ShtExceptRep"/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="14" bestFit="1" customWidth="1"/>
@@ -26491,8 +26754,8 @@
     <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -26529,8 +26792,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1">
-      <c r="A2" s="11"/>
+    <row r="2" spans="1:12" ht="21" customHeight="1">
+      <c r="A2" s="31"/>
       <c r="B2" s="7"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -26543,16 +26806,14 @@
       <c r="K2" s="11"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="20.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:12" ht="20.25">
+      <c r="A3" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -26560,11 +26821,8 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
-      <c r="N3" s="14" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -26578,16 +26836,14 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:14" ht="20.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:12" ht="20.25">
+      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -26595,12 +26851,9 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="N5" s="14" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="33"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" s="6"/>
@@ -26613,18 +26866,14 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:14" ht="20.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:12" ht="20.25">
+      <c r="A7" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -26632,11 +26881,8 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="N7" s="14" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:12">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -26650,16 +26896,14 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:14" ht="20.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:12" ht="20.25">
+      <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="18"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -26667,11 +26911,8 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
-      <c r="N9" s="14" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:12">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -26693,7 +26934,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A9EE8F-EDC6-401D-AECC-57882115D77B}">
   <sheetPr codeName="ShtPlanData"/>
-  <dimension ref="E3:N136"/>
+  <dimension ref="C1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -26701,85 +26942,124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7">
+    <row r="1" spans="3:14">
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14">
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="3:14">
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="5:7">
+    <row r="5" spans="3:14">
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="5:7">
+    <row r="6" spans="3:14">
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="5:7">
+    <row r="7" spans="3:14">
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="3:14">
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="3:14">
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="3:14">
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="3:14">
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="3:14">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="3:14">
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="3:14">
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="3:14">
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="3:14">
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -27390,12 +27670,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A652D-6DD1-48EF-B210-1032D24E28CA}">
-  <sheetPr codeName="ShtTaskView"/>
-  <dimension ref="C2:P227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747CF41-4668-4D03-A3C8-B4F1B5EA35DD}">
+  <sheetPr codeName="ShtTaskView3"/>
+  <dimension ref="C2:M2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
@@ -27404,12 +27684,12 @@
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="26"/>
-    <col min="8" max="8" width="15.85546875" style="27"/>
-    <col min="9" max="13" width="15.85546875" style="26"/>
+    <col min="6" max="7" width="15.85546875" style="22"/>
+    <col min="8" max="8" width="15.85546875" style="23"/>
+    <col min="9" max="13" width="15.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" s="25" customFormat="1">
+    <row r="2" spans="3:13" s="21" customFormat="1">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -27423,1823 +27703,147 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="25" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="3:16">
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="3:16">
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16">
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16">
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="28"/>
-    </row>
-    <row r="7" spans="3:16">
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="3:16">
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="3:16">
-      <c r="E9" t="s">
+  </sheetData>
+  <conditionalFormatting sqref="C3:M2101">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14F96C8-8CA8-4A13-B7DE-B3C8739B31AA}">
+  <sheetPr codeName="ShtTaskView2"/>
+  <dimension ref="C2:M2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="22"/>
+    <col min="8" max="8" width="15.85546875" style="23"/>
+    <col min="9" max="13" width="15.85546875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" s="21" customFormat="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="29"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="10" spans="3:16">
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="29"/>
-    </row>
-    <row r="11" spans="3:16">
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="3:16">
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="29"/>
-    </row>
-    <row r="13" spans="3:16">
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="3:16">
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="29"/>
-    </row>
-    <row r="15" spans="3:16">
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="29"/>
-    </row>
-    <row r="16" spans="3:16">
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="29"/>
-    </row>
-    <row r="17" spans="4:14">
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14">
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14">
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14">
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14">
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14">
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14">
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14">
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14">
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14">
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="4:14">
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="4:14">
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="4:14">
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="4:14">
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="4:14">
-      <c r="E31" t="s">
+  </sheetData>
+  <conditionalFormatting sqref="C3:M2101">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734983D7-9A66-45CE-9374-CB12B0F93866}">
+  <sheetPr codeName="ShtTaskView1"/>
+  <dimension ref="C2:M2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="22"/>
+    <col min="8" max="8" width="15.85546875" style="23"/>
+    <col min="9" max="13" width="15.85546875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" s="21" customFormat="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N31" t="s">
-        <v>30</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="32" spans="4:14">
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="4:14">
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="4:14">
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="4:14">
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="4:14">
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="4:14">
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="4:14">
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="4:14">
-      <c r="E39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="4:14">
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="4:14">
-      <c r="E41" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="4:14">
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="4:14">
-      <c r="E43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="4:14">
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="4:14">
-      <c r="E45" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="4:14">
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="4:14">
-      <c r="E47" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="4:14">
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="4:14">
-      <c r="E49" t="s">
-        <v>28</v>
-      </c>
-      <c r="N49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="4:14">
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="4:14">
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="N51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="4:14">
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="4:14">
-      <c r="E53" t="s">
+  </sheetData>
+  <conditionalFormatting sqref="C3:M2101">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A652D-6DD1-48EF-B210-1032D24E28CA}">
+  <sheetPr codeName="ShtTaskView"/>
+  <dimension ref="C2:M2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="22"/>
+    <col min="8" max="8" width="15.85546875" style="23"/>
+    <col min="9" max="13" width="15.85546875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" s="21" customFormat="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="4:14">
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="4:14">
-      <c r="E55" t="s">
-        <v>20</v>
-      </c>
-      <c r="N55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="4:14">
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="4:14">
-      <c r="E57" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="4:14">
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="4:14">
-      <c r="E59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="4:14">
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="4:14">
-      <c r="E61" t="s">
-        <v>23</v>
-      </c>
-      <c r="N61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="4:14">
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="4:14">
-      <c r="E63" t="s">
-        <v>24</v>
-      </c>
-      <c r="N63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="4:14">
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="4:14">
-      <c r="E65" t="s">
-        <v>25</v>
-      </c>
-      <c r="N65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="4:14">
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="4:14">
-      <c r="E67" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="4:14">
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="4:14">
-      <c r="E69" t="s">
-        <v>27</v>
-      </c>
-      <c r="N69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="4:14">
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="4:14">
-      <c r="E71" t="s">
-        <v>28</v>
-      </c>
-      <c r="N71" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="4:14">
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="4:14">
-      <c r="E73" t="s">
-        <v>29</v>
-      </c>
-      <c r="N73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="4:14">
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="4:14">
-      <c r="E75" t="s">
-        <v>19</v>
-      </c>
-      <c r="N75" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="4:14">
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="4:14">
-      <c r="E77" t="s">
-        <v>20</v>
-      </c>
-      <c r="N77" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="4:14">
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="4:14">
-      <c r="E79" t="s">
-        <v>21</v>
-      </c>
-      <c r="N79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="4:14">
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="4:14">
-      <c r="E81" t="s">
-        <v>22</v>
-      </c>
-      <c r="N81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="4:14">
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="4:14">
-      <c r="E83" t="s">
-        <v>23</v>
-      </c>
-      <c r="N83" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="4:14">
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="4:14">
-      <c r="E85" t="s">
-        <v>24</v>
-      </c>
-      <c r="N85" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="4:14">
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="4:14">
-      <c r="E87" t="s">
-        <v>25</v>
-      </c>
-      <c r="N87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="4:14">
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="4:14">
-      <c r="E89" t="s">
-        <v>26</v>
-      </c>
-      <c r="N89" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="4:14">
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="4:14">
-      <c r="E91" t="s">
-        <v>27</v>
-      </c>
-      <c r="N91" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="4:14">
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="4:14">
-      <c r="E93" t="s">
-        <v>28</v>
-      </c>
-      <c r="N93" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="4:14">
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="4:14">
-      <c r="E95" t="s">
-        <v>29</v>
-      </c>
-      <c r="N95" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="4:14">
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="4:14">
-      <c r="E97" t="s">
-        <v>19</v>
-      </c>
-      <c r="N97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="4:14">
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="4:14">
-      <c r="E99" t="s">
-        <v>20</v>
-      </c>
-      <c r="N99" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="4:14">
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="4:14">
-      <c r="E101" t="s">
-        <v>21</v>
-      </c>
-      <c r="N101" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="4:14">
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="4:14">
-      <c r="E103" t="s">
-        <v>22</v>
-      </c>
-      <c r="N103" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="4:14">
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="4:14">
-      <c r="E105" t="s">
-        <v>23</v>
-      </c>
-      <c r="N105" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="4:14">
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="4:14">
-      <c r="E107" t="s">
-        <v>24</v>
-      </c>
-      <c r="N107" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="4:14">
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="4:14">
-      <c r="E109" t="s">
-        <v>25</v>
-      </c>
-      <c r="N109" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="4:14">
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="4:14">
-      <c r="E111" t="s">
-        <v>26</v>
-      </c>
-      <c r="N111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="4:14">
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="4:14">
-      <c r="E113" t="s">
-        <v>27</v>
-      </c>
-      <c r="N113" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="4:14">
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="4:14">
-      <c r="E115" t="s">
-        <v>28</v>
-      </c>
-      <c r="N115" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="4:14">
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="4:14">
-      <c r="E117" t="s">
-        <v>29</v>
-      </c>
-      <c r="N117" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="118" spans="4:14">
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="4:14">
-      <c r="E119" t="s">
-        <v>19</v>
-      </c>
-      <c r="N119" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="4:14">
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="4:14">
-      <c r="E121" t="s">
-        <v>20</v>
-      </c>
-      <c r="N121" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="4:14">
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="4:14">
-      <c r="E123" t="s">
-        <v>21</v>
-      </c>
-      <c r="N123" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="124" spans="4:14">
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="4:14">
-      <c r="E125" t="s">
-        <v>22</v>
-      </c>
-      <c r="N125" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="126" spans="4:14">
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="4:14">
-      <c r="E127" t="s">
-        <v>23</v>
-      </c>
-      <c r="N127" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" spans="4:14">
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="4:14">
-      <c r="E129" t="s">
-        <v>24</v>
-      </c>
-      <c r="N129" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="4:14">
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="4:14">
-      <c r="E131" t="s">
-        <v>25</v>
-      </c>
-      <c r="N131" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="4:14">
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="4:14">
-      <c r="E133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N133" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134" spans="4:14">
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="135" spans="4:14">
-      <c r="E135" t="s">
-        <v>27</v>
-      </c>
-      <c r="N135" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="136" spans="4:14">
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" spans="4:14">
-      <c r="E137" t="s">
-        <v>28</v>
-      </c>
-      <c r="N137" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="4:14">
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="139" spans="4:14">
-      <c r="E139" t="s">
-        <v>29</v>
-      </c>
-      <c r="N139" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="4:14">
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="4:14">
-      <c r="E141" t="s">
-        <v>19</v>
-      </c>
-      <c r="N141" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="4:14">
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="4:14">
-      <c r="E143" t="s">
-        <v>20</v>
-      </c>
-      <c r="N143" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="144" spans="4:14">
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="145" spans="4:14">
-      <c r="E145" t="s">
-        <v>21</v>
-      </c>
-      <c r="N145" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="146" spans="4:14">
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="4:14">
-      <c r="E147" t="s">
-        <v>22</v>
-      </c>
-      <c r="N147" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="148" spans="4:14">
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="149" spans="4:14">
-      <c r="E149" t="s">
-        <v>23</v>
-      </c>
-      <c r="N149" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="150" spans="4:14">
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="4:14">
-      <c r="E151" t="s">
-        <v>24</v>
-      </c>
-      <c r="N151" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="4:14">
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="153" spans="4:14">
-      <c r="E153" t="s">
-        <v>25</v>
-      </c>
-      <c r="N153" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="154" spans="4:14">
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="155" spans="4:14">
-      <c r="E155" t="s">
-        <v>26</v>
-      </c>
-      <c r="N155" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="156" spans="4:14">
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" spans="4:14">
-      <c r="E157" t="s">
-        <v>27</v>
-      </c>
-      <c r="N157" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="158" spans="4:14">
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="159" spans="4:14">
-      <c r="E159" t="s">
-        <v>28</v>
-      </c>
-      <c r="N159" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="160" spans="4:14">
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="161" spans="4:14">
-      <c r="E161" t="s">
-        <v>29</v>
-      </c>
-      <c r="N161" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="162" spans="4:14">
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="163" spans="4:14">
-      <c r="E163" t="s">
-        <v>19</v>
-      </c>
-      <c r="N163" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="164" spans="4:14">
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="165" spans="4:14">
-      <c r="E165" t="s">
-        <v>20</v>
-      </c>
-      <c r="N165" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="166" spans="4:14">
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="167" spans="4:14">
-      <c r="E167" t="s">
-        <v>21</v>
-      </c>
-      <c r="N167" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="168" spans="4:14">
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" spans="4:14">
-      <c r="E169" t="s">
-        <v>22</v>
-      </c>
-      <c r="N169" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="170" spans="4:14">
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="171" spans="4:14">
-      <c r="E171" t="s">
-        <v>23</v>
-      </c>
-      <c r="N171" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="172" spans="4:14">
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="173" spans="4:14">
-      <c r="E173" t="s">
-        <v>24</v>
-      </c>
-      <c r="N173" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="174" spans="4:14">
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="175" spans="4:14">
-      <c r="E175" t="s">
-        <v>25</v>
-      </c>
-      <c r="N175" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" spans="4:14">
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="177" spans="4:14">
-      <c r="E177" t="s">
-        <v>26</v>
-      </c>
-      <c r="N177" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="4:14">
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="179" spans="4:14">
-      <c r="E179" t="s">
-        <v>27</v>
-      </c>
-      <c r="N179" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180" spans="4:14">
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="181" spans="4:14">
-      <c r="E181" t="s">
-        <v>28</v>
-      </c>
-      <c r="N181" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="4:14">
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="183" spans="4:14">
-      <c r="E183" t="s">
-        <v>29</v>
-      </c>
-      <c r="N183" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="184" spans="4:14">
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="185" spans="4:14">
-      <c r="E185" t="s">
-        <v>19</v>
-      </c>
-      <c r="N185" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="186" spans="4:14">
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="187" spans="4:14">
-      <c r="E187" t="s">
-        <v>20</v>
-      </c>
-      <c r="N187" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="4:14">
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="189" spans="4:14">
-      <c r="E189" t="s">
-        <v>21</v>
-      </c>
-      <c r="N189" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" spans="4:14">
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="191" spans="4:14">
-      <c r="E191" t="s">
-        <v>22</v>
-      </c>
-      <c r="N191" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="192" spans="4:14">
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="193" spans="4:14">
-      <c r="E193" t="s">
-        <v>23</v>
-      </c>
-      <c r="N193" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="194" spans="4:14">
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="195" spans="4:14">
-      <c r="E195" t="s">
-        <v>24</v>
-      </c>
-      <c r="N195" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="196" spans="4:14">
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="197" spans="4:14">
-      <c r="E197" t="s">
-        <v>25</v>
-      </c>
-      <c r="N197" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="198" spans="4:14">
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="199" spans="4:14">
-      <c r="E199" t="s">
-        <v>26</v>
-      </c>
-      <c r="N199" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="200" spans="4:14">
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="201" spans="4:14">
-      <c r="E201" t="s">
-        <v>27</v>
-      </c>
-      <c r="N201" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="202" spans="4:14">
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="203" spans="4:14">
-      <c r="E203" t="s">
-        <v>28</v>
-      </c>
-      <c r="N203" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="204" spans="4:14">
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="E204" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="205" spans="4:14">
-      <c r="E205" t="s">
-        <v>29</v>
-      </c>
-      <c r="N205" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="206" spans="4:14">
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="207" spans="4:14">
-      <c r="E207" t="s">
-        <v>19</v>
-      </c>
-      <c r="N207" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="208" spans="4:14">
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="209" spans="4:14">
-      <c r="E209" t="s">
-        <v>20</v>
-      </c>
-      <c r="N209" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="210" spans="4:14">
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="E210" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="211" spans="4:14">
-      <c r="E211" t="s">
-        <v>21</v>
-      </c>
-      <c r="N211" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="212" spans="4:14">
-      <c r="D212">
-        <v>0</v>
-      </c>
-      <c r="E212" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="213" spans="4:14">
-      <c r="E213" t="s">
-        <v>22</v>
-      </c>
-      <c r="N213" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="214" spans="4:14">
-      <c r="D214">
-        <v>0</v>
-      </c>
-      <c r="E214" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="215" spans="4:14">
-      <c r="E215" t="s">
-        <v>23</v>
-      </c>
-      <c r="N215" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="216" spans="4:14">
-      <c r="D216">
-        <v>0</v>
-      </c>
-      <c r="E216" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="217" spans="4:14">
-      <c r="E217" t="s">
-        <v>24</v>
-      </c>
-      <c r="N217" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="218" spans="4:14">
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="219" spans="4:14">
-      <c r="E219" t="s">
-        <v>25</v>
-      </c>
-      <c r="N219" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="220" spans="4:14">
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="221" spans="4:14">
-      <c r="E221" t="s">
-        <v>26</v>
-      </c>
-      <c r="N221" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="222" spans="4:14">
-      <c r="D222">
-        <v>0</v>
-      </c>
-      <c r="E222" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="223" spans="4:14">
-      <c r="E223" t="s">
-        <v>27</v>
-      </c>
-      <c r="N223" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="224" spans="4:14">
-      <c r="D224">
-        <v>0</v>
-      </c>
-      <c r="E224" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="225" spans="4:14">
-      <c r="E225" t="s">
-        <v>28</v>
-      </c>
-      <c r="N225" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="226" spans="4:14">
-      <c r="D226">
-        <v>0</v>
-      </c>
-      <c r="E226" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="227" spans="4:14">
-      <c r="E227" t="s">
-        <v>29</v>
-      </c>
-      <c r="N227" t="s">
-        <v>30</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:M2326">
+  <conditionalFormatting sqref="C3:M2101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($D3="", $E3&lt;&gt;"")</formula>
     </cfRule>

--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A2718B-A59D-4712-89AE-18563521E19A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D707648F-771A-44BE-B6DF-6B9EF57CBA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
@@ -16,15 +16,12 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Dependancy Report" sheetId="248" r:id="rId2"/>
     <sheet name="Consolidated  Exception Report " sheetId="245" r:id="rId3"/>
-    <sheet name="Togo" sheetId="227" r:id="rId4"/>
-    <sheet name="Look Ahead Report (4)" sheetId="281" state="hidden" r:id="rId5"/>
-    <sheet name="Look Ahead Report (3)" sheetId="280" state="hidden" r:id="rId6"/>
-    <sheet name="Look Ahead Report (2)" sheetId="279" state="hidden" r:id="rId7"/>
-    <sheet name="Look Ahead Report" sheetId="246" state="hidden" r:id="rId8"/>
+    <sheet name="Plan Data" sheetId="227" r:id="rId4"/>
+    <sheet name="Look Ahead Report" sheetId="246" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ff3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
@@ -55,7 +52,7 @@
     <definedName name="xxxxxx" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
     <definedName name="xxxxxx" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>DTI</t>
   </si>
@@ -135,103 +132,16 @@
     <t>Business Milestones</t>
   </si>
   <si>
-    <t>Donor</t>
-  </si>
-  <si>
-    <t>Local RAG</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>Test Environment Strategy Complete</t>
-  </si>
-  <si>
-    <t>Solution Feasibility Report Signed Off</t>
-  </si>
-  <si>
-    <t>Group Compliance Checks Complete</t>
-  </si>
-  <si>
-    <t>CSOC Impact Assessment Complete</t>
-  </si>
-  <si>
-    <t>PSOC Impact Assessment Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define Complete </t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>Design Start</t>
-  </si>
-  <si>
-    <t>Full Requirements Definition Signed Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid Level Platform Designs Complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Test Phase&gt; Environment and Data Ready for Testing </t>
-  </si>
-  <si>
-    <t>Design Complete</t>
-  </si>
-  <si>
-    <t>Build Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build Complete </t>
-  </si>
-  <si>
-    <t>Test Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Acceptance Test Complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Functional Test Start </t>
-  </si>
-  <si>
-    <t>Non-Functional Test Complete</t>
-  </si>
-  <si>
-    <t>Test Complete</t>
-  </si>
-  <si>
-    <t>Develop Complete</t>
-  </si>
-  <si>
-    <t>Deploy Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment Start </t>
-  </si>
-  <si>
-    <t>Deployment Live</t>
-  </si>
-  <si>
     <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.1.mpp</t>
   </si>
   <si>
-    <t>20</t>
+    <t>1</t>
   </si>
   <si>
-    <t>AMBER</t>
+    <t>Exception Report</t>
+  </si>
+  <si>
+    <t>Look Ahead Report</t>
   </si>
 </sst>
 </file>
@@ -242,7 +152,7 @@
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,19 +185,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -305,8 +205,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,29 +253,146 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor rgb="FFF0935A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDA65"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -364,7 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -376,47 +413,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,32 +430,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -466,6 +452,66 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,56 +539,80 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color theme="9" tint="0.39994506668294322"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color theme="7" tint="0.39994506668294322"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color theme="5" tint="0.39994506668294322"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -644,6 +714,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFDA65"/>
+      <color rgb="FFFFDD71"/>
+      <color rgb="FFF0935A"/>
       <color rgb="FFDA2C38"/>
       <color rgb="FFE8E8E8"/>
       <color rgb="FF817E8A"/>
@@ -651,9 +724,6 @@
       <color rgb="FFBAC1B8"/>
       <color rgb="FF6D6A75"/>
       <color rgb="FF0F743C"/>
-      <color rgb="FFFC814A"/>
-      <color rgb="FF564256"/>
-      <color rgb="FFBFBFBF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1086,10 +1156,10 @@
                   <a:gradFill flip="none" rotWithShape="1">
                     <a:gsLst>
                       <a:gs pos="0">
-                        <a:srgbClr val="8A7E81"/>
+                        <a:srgbClr val="DA2C38"/>
                       </a:gs>
                       <a:gs pos="100000">
-                        <a:srgbClr val="8A7E81"/>
+                        <a:srgbClr val="DA2C38"/>
                       </a:gs>
                     </a:gsLst>
                     <a:lin ang="5400000" scaled="1"/>
@@ -1100,27 +1170,22 @@
                     <a:prstDash val="solid"/>
                     <a:miter lim="800000"/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                      <a:prstClr val="black">
+                        <a:alpha val="50000"/>
+                      </a:prstClr>
+                    </a:innerShdw>
+                  </a:effectLst>
                   <a:extLst>
                     <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                       <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
                         <a:solidFill>
-                          <a:srgbClr val="DA2C38"/>
+                          <a:srgbClr val="756A6D"/>
                         </a:solidFill>
                         <a:prstDash val="solid"/>
                         <a:miter lim="800000"/>
                       </a14:hiddenLine>
-                    </a:ext>
-                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                        <a:effectLst>
-                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                            <a:prstClr val="black">
-                              <a:alpha val="50000"/>
-                            </a:prstClr>
-                          </a:innerShdw>
-                        </a:effectLst>
-                      </a14:hiddenEffects>
                     </a:ext>
                   </a:extLst>
                 </xdr:spPr>
@@ -1458,10 +1523,10 @@
                   <a:gradFill flip="none" rotWithShape="1">
                     <a:gsLst>
                       <a:gs pos="0">
-                        <a:srgbClr val="DA2C38"/>
+                        <a:srgbClr val="8A7E81"/>
                       </a:gs>
                       <a:gs pos="100000">
-                        <a:srgbClr val="DA2C38"/>
+                        <a:srgbClr val="8A7E81"/>
                       </a:gs>
                     </a:gsLst>
                     <a:lin ang="5400000" scaled="1"/>
@@ -1472,22 +1537,27 @@
                     <a:prstDash val="solid"/>
                     <a:miter lim="800000"/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                   <a:extLst>
                     <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                       <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
                         <a:solidFill>
-                          <a:srgbClr val="756A6D"/>
+                          <a:srgbClr val="DA2C38"/>
                         </a:solidFill>
                         <a:prstDash val="solid"/>
                         <a:miter lim="800000"/>
                       </a14:hiddenLine>
+                    </a:ext>
+                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:effectLst>
+                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                            <a:prstClr val="black">
+                              <a:alpha val="50000"/>
+                            </a:prstClr>
+                          </a:innerShdw>
+                        </a:effectLst>
+                      </a14:hiddenEffects>
                     </a:ext>
                   </a:extLst>
                 </xdr:spPr>
@@ -1726,17 +1796,96 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>321950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>116025</xdr:rowOff>
     </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="2105025"/>
+          <a:ext cx="1504950" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6D6A75"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>474000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>354675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110575</xdr:rowOff>
+    </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1024" name="Group 1023">
+        <xdr:cNvPr id="24" name="Group 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DF9EEA-9995-48CE-8125-C5536EEB5E33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,747 +1893,533 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2676525" y="2105025"/>
-          <a:ext cx="4893950" cy="1440000"/>
-          <a:chOff x="2108825" y="2381250"/>
-          <a:chExt cx="4893950" cy="1440000"/>
+          <a:off x="2912400" y="2665075"/>
+          <a:ext cx="1033200" cy="684000"/>
+          <a:chOff x="2912400" y="2569825"/>
+          <a:chExt cx="1033200" cy="684000"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="55" name="Group 54">
+      <xdr:sp macro="[0]!ShtMain.BtnExcRepGenClick" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="BtnExcRepGen">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="2108825" y="2381250"/>
-            <a:ext cx="1504950" cy="1440000"/>
-            <a:chOff x="2032625" y="2381250"/>
-            <a:chExt cx="1504950" cy="1440000"/>
+            <a:off x="2912400" y="2569825"/>
+            <a:ext cx="1033200" cy="684000"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2032625" y="2381250"/>
-              <a:ext cx="1504950" cy="1440000"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 2500"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="6D6A75"/>
-            </a:solidFill>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="8A7E81"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="8A7E81"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="DA2C38"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                    <a:prstClr val="black">
+                      <a:alpha val="50000"/>
+                    </a:prstClr>
+                  </a:innerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="Graphic 16" descr="Warning">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F281A97-B239-4CFD-B24F-DFC7B5A8B5CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3159000" y="2641825"/>
+            <a:ext cx="540000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="2105025"/>
+          <a:ext cx="1504950" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DA2C38"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Exception Report</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371025" y="2105025"/>
+          <a:ext cx="1504950" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6D6A75"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100">
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2032625" y="2381250"/>
-              <a:ext cx="1504950" cy="352425"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="DA2C38"/>
-            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>456250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371025" y="2105025"/>
+          <a:ext cx="1504950" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DA2C38"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dependancy Report</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>36200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>321950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle: Rounded Corners 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065525" y="2105025"/>
+          <a:ext cx="1504950" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6D6A75"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100">
             <a:ln>
               <a:noFill/>
             </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>Exception Report</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnExcRepGenClick" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="BtnExcRepGen">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2268500" y="3074650"/>
-              <a:ext cx="1033200" cy="323850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>36200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>321950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle: Rounded Corners 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6065525" y="2105025"/>
+          <a:ext cx="1504950" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DA2C38"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Look Ahead Report</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
             <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Generate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="56" name="Group 55">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="3803325" y="2381250"/>
-            <a:ext cx="1504950" cy="1440000"/>
-            <a:chOff x="6574150" y="2381250"/>
-            <a:chExt cx="1504950" cy="1440000"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6574150" y="2381250"/>
-              <a:ext cx="1504950" cy="1440000"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 2500"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="6D6A75"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6574150" y="2381250"/>
-              <a:ext cx="1504950" cy="352425"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="DA2C38"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                </a:rPr>
-                <a:t>Dependancy Report</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnDepRepGenClick" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="BtnDepRepGen">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6810025" y="3074650"/>
-              <a:ext cx="1033200" cy="323850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Generate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="57" name="Group 56">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="5497825" y="2381250"/>
-            <a:ext cx="1504950" cy="1440000"/>
-            <a:chOff x="10307950" y="2381250"/>
-            <a:chExt cx="1504950" cy="1440000"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="Rectangle: Rounded Corners 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10307950" y="2381250"/>
-              <a:ext cx="1504950" cy="1440000"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 2500"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="6D6A75"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="Rectangle: Rounded Corners 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10307950" y="2381250"/>
-              <a:ext cx="1504950" cy="352425"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="DA2C38"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Look Ahead Report</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="[0]!ShtMain.BtnLARGenClick" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="BtnLARGen">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10543825" y="3074650"/>
-              <a:ext cx="1033200" cy="323850"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="8A7E81"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:srgbClr val="DA2C38"/>
-                  </a:solidFill>
-                  <a:prstDash val="solid"/>
-                  <a:miter lim="800000"/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="E8E8E8"/>
-                  </a:solidFill>
-                  <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Generate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2533,13 +2468,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2764,7 +2699,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2794,6 +2729,346 @@
               </a14:hiddenFill>
             </a:ext>
           </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3988A4AA-5366-461F-A653-AFEB5A25FFD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4606900" y="2665075"/>
+          <a:ext cx="1033200" cy="684000"/>
+          <a:chOff x="4606900" y="2798425"/>
+          <a:chExt cx="1033200" cy="684000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="[0]!ShtMain.BtnDepRepGenClick" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="BtnDepRepGen">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4606900" y="2798425"/>
+            <a:ext cx="1033200" cy="684000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="8A7E81"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="8A7E81"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="DA2C38"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                    <a:prstClr val="black">
+                      <a:alpha val="50000"/>
+                    </a:prstClr>
+                  </a:innerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic macro="[0]!ShtMain.BtnDepRepGenClick">
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Graphic 8" descr="Link">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EEBC32-A5BC-41C8-BE94-7231FAD9644A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4853500" y="2870425"/>
+            <a:ext cx="540000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>272075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A38CCB-5140-4ACE-ADD2-09E8887E0153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6301400" y="2665075"/>
+          <a:ext cx="1033200" cy="684000"/>
+          <a:chOff x="6301400" y="2798425"/>
+          <a:chExt cx="1033200" cy="684000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="[0]!ShtMain.BtnLARGenClick" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="BtnLARGen">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6301400" y="2798425"/>
+            <a:ext cx="1033200" cy="684000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="8A7E81"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="8A7E81"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst/>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="DA2C38"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a14:hiddenLine>
+            </a:ext>
+            <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+              <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:effectLst>
+                  <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                    <a:prstClr val="black">
+                      <a:alpha val="50000"/>
+                    </a:prstClr>
+                  </a:innerShdw>
+                </a:effectLst>
+              </a14:hiddenEffects>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="en-GB" sz="1000" b="0">
+              <a:solidFill>
+                <a:srgbClr val="E8E8E8"/>
+              </a:solidFill>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic macro="[0]!ShtMain.BtnLARGenClick">
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="Graphic 10" descr="Diamond Suit">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD89EF34-B55E-4080-821A-C80845302DD3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6548000" y="2870425"/>
+            <a:ext cx="540000" cy="540000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
@@ -25814,7 +26089,7 @@
   <dimension ref="S3:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25823,50 +26098,41 @@
     <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="17" width="9.140625" style="3"/>
     <col min="18" max="18" width="16.85546875" style="3" customWidth="1"/>
-    <col min="19" max="21" width="16.85546875" style="4" customWidth="1"/>
+    <col min="19" max="21" width="16.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="16.85546875" style="3" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="19:21">
+    <row r="3" spans="19:20">
       <c r="S3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="4">
-        <v>3</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="19:21">
+    <row r="4" spans="19:20">
       <c r="S4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="19:21">
+    <row r="5" spans="19:20">
       <c r="S5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="T5" s="4">
-        <v>9999</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="19:21">
+    <row r="6" spans="19:20">
       <c r="S6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -25911,817 +26177,207 @@
   <sheetPr codeName="ShtDepLog">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:W24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="26.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="24"/>
-    <col min="2" max="2" width="4.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.42578125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="9" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="26" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="26"/>
-    <col min="14" max="14" width="9.5703125" style="27"/>
-    <col min="15" max="16" width="9.5703125" style="28"/>
-    <col min="17" max="17" width="9.5703125" style="29"/>
-    <col min="18" max="20" width="9.5703125" style="28"/>
-    <col min="21" max="23" width="9.5703125" style="25"/>
+    <col min="1" max="1" width="9.5703125" style="11"/>
+    <col min="2" max="2" width="4" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="14"/>
+    <col min="15" max="16" width="9.5703125" style="15"/>
+    <col min="17" max="17" width="9.5703125" style="16"/>
+    <col min="18" max="20" width="9.5703125" style="15"/>
+    <col min="21" max="23" width="9.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>18</v>
-      </c>
+    <row r="1" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A1" s="41"/>
     </row>
-    <row r="3" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B3" s="24">
-        <v>79</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="25">
-        <v>5</v>
-      </c>
-      <c r="E3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="37">
-        <v>44044</v>
-      </c>
-      <c r="J3" s="37">
-        <v>43966</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>23</v>
-      </c>
+    <row r="2" spans="1:16" ht="26.25" customHeight="1">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
     </row>
-    <row r="4" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B4" s="24">
-        <v>6</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="25">
-        <v>5</v>
-      </c>
-      <c r="E4" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="37">
-        <v>44044</v>
-      </c>
-      <c r="J4" s="37">
-        <v>46227</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
-    <row r="5" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B5" s="24">
-        <v>7</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="25">
-        <v>5</v>
-      </c>
-      <c r="E5" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="37">
-        <v>44044</v>
-      </c>
-      <c r="J5" s="37">
-        <v>46227</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>23</v>
-      </c>
+    <row r="4" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
-    <row r="6" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B6" s="24">
-        <v>8</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="25">
-        <v>5</v>
-      </c>
-      <c r="E6" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="37">
-        <v>44044</v>
-      </c>
-      <c r="J6" s="37">
-        <v>43966</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>23</v>
-      </c>
+    <row r="5" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
-    <row r="7" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B7" s="24">
-        <v>9</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="25">
-        <v>5</v>
-      </c>
-      <c r="E7" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="37">
-        <v>44044</v>
-      </c>
-      <c r="J7" s="37">
-        <v>46227</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>23</v>
-      </c>
+    <row r="6" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
-    <row r="8" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B8" s="24">
-        <v>11</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="25">
-        <v>5</v>
-      </c>
-      <c r="E8" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="37">
-        <v>44044</v>
-      </c>
-      <c r="J8" s="37">
-        <v>43966</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>24</v>
-      </c>
+    <row r="7" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
-    <row r="9" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B9" s="24">
-        <v>13</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="25">
-        <v>11</v>
-      </c>
-      <c r="E9" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J9" s="37">
-        <v>43987</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>24</v>
-      </c>
+    <row r="8" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
-    <row r="10" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B10" s="24">
-        <v>14</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="25">
-        <v>11</v>
-      </c>
-      <c r="E10" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J10" s="37">
-        <v>43987</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>24</v>
-      </c>
+    <row r="9" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
-    <row r="11" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B11" s="24">
-        <v>81</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="25">
-        <v>11</v>
-      </c>
-      <c r="E11" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J11" s="37">
-        <v>43987</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>24</v>
-      </c>
+    <row r="10" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
-    <row r="12" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B12" s="24">
-        <v>82</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="25">
-        <v>11</v>
-      </c>
-      <c r="E12" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J12" s="37">
-        <v>43987</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>24</v>
-      </c>
+    <row r="11" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
-    <row r="13" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B13" s="24">
-        <v>15</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="25">
-        <v>11</v>
-      </c>
-      <c r="E13" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J13" s="37">
-        <v>43987</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
-    <row r="14" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B14" s="24">
-        <v>16</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="25">
-        <v>11</v>
-      </c>
-      <c r="E14" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J14" s="37">
-        <v>43987</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="13" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
-    <row r="15" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B15" s="24">
-        <v>17</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="25">
-        <v>11</v>
-      </c>
-      <c r="E15" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J15" s="37">
-        <v>43987</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="14" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
-    <row r="16" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B16" s="24">
-        <v>18</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="25">
-        <v>11</v>
-      </c>
-      <c r="E16" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J16" s="37">
-        <v>43987</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="15" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
-    <row r="17" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B17" s="24">
-        <v>86</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="25">
-        <v>10</v>
-      </c>
-      <c r="E17" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J17" s="37">
-        <v>44002</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="16" spans="1:16" ht="26.25" customHeight="1">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
-    <row r="18" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B18" s="24">
-        <v>84</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="25">
-        <v>10</v>
-      </c>
-      <c r="E18" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J18" s="37">
-        <v>44002</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="17" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
-    <row r="19" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B19" s="24">
-        <v>83</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="25">
-        <v>10</v>
-      </c>
-      <c r="E19" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J19" s="37">
-        <v>44002</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="18" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
-    <row r="20" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B20" s="24">
-        <v>19</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="25">
-        <v>10</v>
-      </c>
-      <c r="E20" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J20" s="37">
-        <v>44002</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="19" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
-    <row r="21" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B21" s="24">
-        <v>20</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="25">
-        <v>10</v>
-      </c>
-      <c r="E21" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J21" s="37">
-        <v>44002</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="20" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
-    <row r="22" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B22" s="24">
-        <v>21</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="25">
-        <v>10</v>
-      </c>
-      <c r="E22" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J22" s="37">
-        <v>44002</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="21" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
-    <row r="23" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B23" s="24">
-        <v>22</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="25">
-        <v>10</v>
-      </c>
-      <c r="E23" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="37">
-        <v>43952</v>
-      </c>
-      <c r="J23" s="37">
-        <v>44002</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="22" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
-    <row r="24" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B24" s="24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="25">
-        <v>10</v>
-      </c>
-      <c r="E24" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="37">
-        <v>43959</v>
-      </c>
-      <c r="J24" s="37">
-        <v>44002</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>25</v>
-      </c>
+    <row r="23" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"Aligned"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"Donor BL earlier than Beneficiary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"Alignment Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576 G1:G1048576">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"COMPLETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"COMPLETE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1048576">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:L1 K3:L1048576">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>K1="RED"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>K1="AMBER"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>K1="GREEN"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.3" right="0.17" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="64" orientation="landscape" r:id="rId1"/>
@@ -26733,94 +26389,83 @@
   <sheetPr codeName="ShtExceptRep"/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="24" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:12" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="8"/>
-    </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4"/>
@@ -26837,23 +26482,23 @@
       <c r="L4"/>
     </row>
     <row r="5" spans="1:12" ht="20.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="33"/>
+      <c r="A6" s="18"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" s="6"/>
@@ -26867,20 +26512,20 @@
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" ht="20.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8"/>
@@ -26897,20 +26542,20 @@
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" ht="20.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10"/>
@@ -26934,10 +26579,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A9EE8F-EDC6-401D-AECC-57882115D77B}">
   <sheetPr codeName="ShtPlanData"/>
-  <dimension ref="C1:N136"/>
+  <dimension ref="E3:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26956,110 +26601,70 @@
     <col min="14" max="14" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14">
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="3:14">
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="3:14">
+    <row r="3" spans="5:7">
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="3:14">
+    <row r="4" spans="5:7">
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" spans="5:7">
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:14">
+    <row r="6" spans="5:7">
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="3:14">
+    <row r="7" spans="5:7">
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="3:14">
+    <row r="8" spans="5:7">
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="3:14">
+    <row r="9" spans="5:7">
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="3:14">
+    <row r="10" spans="5:7">
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="3:14">
+    <row r="11" spans="5:7">
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="3:14">
+    <row r="12" spans="5:7">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="3:14">
+    <row r="13" spans="5:7">
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="3:14">
+    <row r="14" spans="5:7">
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="3:14">
+    <row r="15" spans="5:7">
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="3:14">
+    <row r="16" spans="5:7">
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -27670,12 +27275,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747CF41-4668-4D03-A3C8-B4F1B5EA35DD}">
-  <sheetPr codeName="ShtTaskView3"/>
-  <dimension ref="C2:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A652D-6DD1-48EF-B210-1032D24E28CA}">
+  <sheetPr codeName="ShtTaskView"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
@@ -27684,150 +27289,17 @@
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="22"/>
-    <col min="8" max="8" width="15.85546875" style="23"/>
-    <col min="9" max="13" width="15.85546875" style="22"/>
+    <col min="6" max="7" width="15.85546875" style="9"/>
+    <col min="8" max="8" width="15.85546875" style="10"/>
+    <col min="9" max="13" width="15.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" s="21" customFormat="1">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
+    <row r="1" spans="1:13" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>23</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
     </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14F96C8-8CA8-4A13-B7DE-B3C8739B31AA}">
-  <sheetPr codeName="ShtTaskView2"/>
-  <dimension ref="C2:M2"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="22"/>
-    <col min="8" max="8" width="15.85546875" style="23"/>
-    <col min="9" max="13" width="15.85546875" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:13" s="21" customFormat="1">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734983D7-9A66-45CE-9374-CB12B0F93866}">
-  <sheetPr codeName="ShtTaskView1"/>
-  <dimension ref="C2:M2"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="22"/>
-    <col min="8" max="8" width="15.85546875" style="23"/>
-    <col min="9" max="13" width="15.85546875" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:13" s="21" customFormat="1">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688A652D-6DD1-48EF-B210-1032D24E28CA}">
-  <sheetPr codeName="ShtTaskView"/>
-  <dimension ref="C2:M2"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="22"/>
-    <col min="8" max="8" width="15.85546875" style="23"/>
-    <col min="9" max="13" width="15.85546875" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:13" s="21" customFormat="1">
+    <row r="2" spans="1:13" s="8" customFormat="1">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">

--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D707648F-771A-44BE-B6DF-6B9EF57CBA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D9D5B4-9007-438F-8B51-6907648A1693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
@@ -18,10 +18,15 @@
     <sheet name="Consolidated  Exception Report " sheetId="245" r:id="rId3"/>
     <sheet name="Plan Data" sheetId="227" r:id="rId4"/>
     <sheet name="Look Ahead Report" sheetId="246" state="hidden" r:id="rId5"/>
+    <sheet name="got" sheetId="336" r:id="rId6"/>
+    <sheet name="Togo" sheetId="337" r:id="rId7"/>
+    <sheet name="Benue" sheetId="338" r:id="rId8"/>
+    <sheet name="Migration" sheetId="339" r:id="rId9"/>
+    <sheet name="lumidee" sheetId="340" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ff3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
@@ -52,7 +57,7 @@
     <definedName name="xxxxxx" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
     <definedName name="xxxxxx" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="109">
   <si>
     <t>DTI</t>
   </si>
@@ -129,19 +134,274 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Business Milestones</t>
-  </si>
-  <si>
     <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.1.mpp</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Exception Report</t>
   </si>
   <si>
-    <t>Look Ahead Report</t>
+    <t>Local RAG</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Benue</t>
+  </si>
+  <si>
+    <t>Develop Start</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Test Start </t>
+  </si>
+  <si>
+    <t>System Test Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT Change Slot Requested </t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Integration Test Start </t>
+  </si>
+  <si>
+    <t>System Integration Test Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Acceptance Test Start  </t>
+  </si>
+  <si>
+    <t>People Impacts Delivered</t>
+  </si>
+  <si>
+    <t>Customer Impacts Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post Implementation Review Signed Off </t>
+  </si>
+  <si>
+    <t>Handover Report Signed Off</t>
+  </si>
+  <si>
+    <t>Deploy Complete</t>
+  </si>
+  <si>
+    <t>Benefits Realisation Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits Realisation Complete/Project Closed </t>
+  </si>
+  <si>
+    <t>GIT Engagement Start</t>
+  </si>
+  <si>
+    <t>GIT Engagement End (IT Readiness Assessment 2.1 signed off)</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>GIT Investigation Start</t>
+  </si>
+  <si>
+    <t>Method of Service Introduction Agreed  (i.e. V&amp;E Managed / Project Managed/ Change Managed), SI Acceptance Area Representatives Engaged</t>
+  </si>
+  <si>
+    <t>GIT Investigation End   (IT Readiness Assessment 2.2  signed off)</t>
+  </si>
+  <si>
+    <t>GIT Develop Start</t>
+  </si>
+  <si>
+    <t>GIT Design Start</t>
+  </si>
+  <si>
+    <t>Design Start</t>
+  </si>
+  <si>
+    <t>Full Requirements Definition Signed Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid Level Platform Designs Complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Test Phase&gt; Environment and Data Ready for Testing </t>
+  </si>
+  <si>
+    <t>Design Complete</t>
+  </si>
+  <si>
+    <t>Build Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build Complete </t>
+  </si>
+  <si>
+    <t>Test Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Acceptance Test Complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Functional Test Start </t>
+  </si>
+  <si>
+    <t>Non-Functional Test Complete</t>
+  </si>
+  <si>
+    <t>Test Complete</t>
+  </si>
+  <si>
+    <t>Develop Complete</t>
+  </si>
+  <si>
+    <t>Deploy Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment Start </t>
+  </si>
+  <si>
+    <t>Deployment Live</t>
+  </si>
+  <si>
+    <t>Dependency Log</t>
+  </si>
+  <si>
+    <t>Dep In</t>
+  </si>
+  <si>
+    <t>Dep Out</t>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+  </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>Milestone Report - got</t>
+  </si>
+  <si>
+    <t>Milestone Report - Togo</t>
+  </si>
+  <si>
+    <t>Milestone Report - Benue</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Milestone Report - Migration</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>Milestone Report - lumidee</t>
+  </si>
+  <si>
+    <t>lumidee</t>
+  </si>
+  <si>
+    <t>GIT Build End</t>
+  </si>
+  <si>
+    <t>GIT Test Start</t>
+  </si>
+  <si>
+    <t>GIT System Test Start</t>
+  </si>
+  <si>
+    <t>GIT System Test End  (IT Readiness Assessment 3.2 A signed off)</t>
+  </si>
+  <si>
+    <t>GIT SI Test Start</t>
+  </si>
+  <si>
+    <t>GIT SI Test End  (IT Readiness Assessment 3.2 B signed off)</t>
+  </si>
+  <si>
+    <t>GIT UAT Start</t>
+  </si>
+  <si>
+    <t>GIT UAT End</t>
+  </si>
+  <si>
+    <t>GIT NFT Start</t>
+  </si>
+  <si>
+    <t>GIT NFT End</t>
+  </si>
+  <si>
+    <t>GIT OAT Start</t>
+  </si>
+  <si>
+    <t>GIT OAT End</t>
+  </si>
+  <si>
+    <t>GIT Regression Test Start</t>
+  </si>
+  <si>
+    <t>GIT Regression Test End</t>
+  </si>
+  <si>
+    <t>All SI Deliverables delivered/complete</t>
+  </si>
+  <si>
+    <t>SI Approval for Implementation to proceed (+3 days after SD Gateway 1 Approval)</t>
+  </si>
+  <si>
+    <t>GIT Test End   (IT Readiness Assessment 3.3 signed off)</t>
+  </si>
+  <si>
+    <t>GIT Develop End</t>
+  </si>
+  <si>
+    <t>GIT Live Start</t>
+  </si>
+  <si>
+    <t>GIT Live End</t>
+  </si>
+  <si>
+    <t>Architecture Overview completed</t>
+  </si>
+  <si>
+    <t>Deliverable Review List updated</t>
+  </si>
+  <si>
+    <t>IT Project Management Plan completed</t>
+  </si>
+  <si>
+    <t>IT Finance Workbook &amp; Investment Appraisal Template signed off</t>
+  </si>
+  <si>
+    <t>Master Work Order - request for quotation issued</t>
+  </si>
+  <si>
+    <t>Implementation Plan drafted</t>
+  </si>
+  <si>
+    <t>Master Test Plan created</t>
+  </si>
+  <si>
+    <t>SOX Impact Assessment submitted</t>
+  </si>
+  <si>
+    <t>Mid Level Platform Design baselined</t>
+  </si>
+  <si>
+    <t>Initial Requirements Specification signed off</t>
+  </si>
+  <si>
+    <t>Infrastructure Design Review completed</t>
   </si>
 </sst>
 </file>
@@ -152,7 +412,7 @@
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,25 +479,26 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="20"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -248,12 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,6 +527,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDA65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,20 +662,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,12 +689,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -452,73 +699,198 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{ED3DACD9-5B4B-47B4-AB17-B329AFBAD914}"/>
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{7A51C740-AF2D-4846-9841-1DF2C6D07787}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -614,18 +986,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1090,10 +1450,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="2503540" y="1163025"/>
-              <a:ext cx="3414674" cy="888663"/>
-              <a:chOff x="2379714" y="1163025"/>
-              <a:chExt cx="3638171" cy="888663"/>
+              <a:off x="2608304" y="1163025"/>
+              <a:ext cx="3309899" cy="888663"/>
+              <a:chOff x="2491342" y="1163025"/>
+              <a:chExt cx="3526543" cy="888663"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -1156,10 +1516,10 @@
                   <a:gradFill flip="none" rotWithShape="1">
                     <a:gsLst>
                       <a:gs pos="0">
-                        <a:srgbClr val="DA2C38"/>
+                        <a:srgbClr val="8A7E81"/>
                       </a:gs>
                       <a:gs pos="100000">
-                        <a:srgbClr val="DA2C38"/>
+                        <a:srgbClr val="8A7E81"/>
                       </a:gs>
                     </a:gsLst>
                     <a:lin ang="5400000" scaled="1"/>
@@ -1170,22 +1530,27 @@
                     <a:prstDash val="solid"/>
                     <a:miter lim="800000"/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                   <a:extLst>
                     <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                       <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
                         <a:solidFill>
-                          <a:srgbClr val="756A6D"/>
+                          <a:srgbClr val="DA2C38"/>
                         </a:solidFill>
                         <a:prstDash val="solid"/>
                         <a:miter lim="800000"/>
                       </a14:hiddenLine>
+                    </a:ext>
+                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:effectLst>
+                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                            <a:prstClr val="black">
+                              <a:alpha val="50000"/>
+                            </a:prstClr>
+                          </a:innerShdw>
+                        </a:effectLst>
+                      </a14:hiddenEffects>
                     </a:ext>
                   </a:extLst>
                 </xdr:spPr>
@@ -1244,10 +1609,10 @@
                   <a:gradFill flip="none" rotWithShape="1">
                     <a:gsLst>
                       <a:gs pos="0">
-                        <a:srgbClr val="8A7E81"/>
+                        <a:srgbClr val="DA2C38"/>
                       </a:gs>
                       <a:gs pos="100000">
-                        <a:srgbClr val="8A7E81"/>
+                        <a:srgbClr val="DA2C38"/>
                       </a:gs>
                     </a:gsLst>
                     <a:lin ang="5400000" scaled="1"/>
@@ -1258,27 +1623,22 @@
                     <a:prstDash val="solid"/>
                     <a:miter lim="800000"/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                      <a:prstClr val="black">
+                        <a:alpha val="50000"/>
+                      </a:prstClr>
+                    </a:innerShdw>
+                  </a:effectLst>
                   <a:extLst>
                     <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                       <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
                         <a:solidFill>
-                          <a:srgbClr val="DA2C38"/>
+                          <a:srgbClr val="756A6D"/>
                         </a:solidFill>
                         <a:prstDash val="solid"/>
                         <a:miter lim="800000"/>
                       </a14:hiddenLine>
-                    </a:ext>
-                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                        <a:effectLst>
-                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                            <a:prstClr val="black">
-                              <a:alpha val="50000"/>
-                            </a:prstClr>
-                          </a:innerShdw>
-                        </a:effectLst>
-                      </a14:hiddenEffects>
                     </a:ext>
                   </a:extLst>
                 </xdr:spPr>
@@ -1667,9 +2027,9 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="2379714" y="1335185"/>
+                <a:off x="2491342" y="1335185"/>
                 <a:ext cx="1454424" cy="544343"/>
-                <a:chOff x="2084252" y="1334476"/>
+                <a:chOff x="2195880" y="1334476"/>
                 <a:chExt cx="1454424" cy="544343"/>
               </a:xfrm>
             </xdr:grpSpPr>
@@ -1686,7 +2046,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="2084252" y="1334476"/>
+                  <a:off x="2195880" y="1334476"/>
                   <a:ext cx="1454424" cy="276224"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -1757,7 +2117,7 @@
                   </xdr:nvSpPr>
                   <xdr:spPr bwMode="auto">
                     <a:xfrm>
-                      <a:off x="2506664" y="1612119"/>
+                      <a:off x="2618300" y="1612119"/>
                       <a:ext cx="609600" cy="266700"/>
                     </a:xfrm>
                     <a:prstGeom prst="rect">
@@ -1885,7 +2245,7 @@
         <xdr:cNvPr id="24" name="Group 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DF9EEA-9995-48CE-8125-C5536EEB5E33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,12 +2356,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
+      <xdr:pic macro="[0]!ShtMain.BtnExcRepGenClick">
         <xdr:nvPicPr>
           <xdr:cNvPr id="17" name="Graphic 16" descr="Warning">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F281A97-B239-4CFD-B24F-DFC7B5A8B5CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2613,7 +2973,7 @@
           </a:outerShdw>
         </a:effectLst>
       </xdr:grpSpPr>
-      <xdr:sp macro="[0]!ThisWorkbook.ClearData" textlink="">
+      <xdr:sp macro="[0]!PPTExport" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="40" name="Rectangle: Rounded Corners 39">
             <a:extLst>
@@ -2685,7 +3045,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:pic>
+      <xdr:pic macro="[0]!PPTExport">
         <xdr:nvPicPr>
           <xdr:cNvPr id="42" name="Picture 41" descr="Microsoft PowerPoint | Logopedia | Fandom">
             <a:extLst>
@@ -2752,7 +3112,7 @@
         <xdr:cNvPr id="25" name="Group 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3988A4AA-5366-461F-A653-AFEB5A25FFD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +3228,7 @@
           <xdr:cNvPr id="9" name="Graphic 8" descr="Link">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EEBC32-A5BC-41C8-BE94-7231FAD9644A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2922,7 +3282,7 @@
         <xdr:cNvPr id="27" name="Group 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A38CCB-5140-4ACE-ADD2-09E8887E0153}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3398,7 @@
           <xdr:cNvPr id="11" name="Graphic 10" descr="Diamond Suit">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD89EF34-B55E-4080-821A-C80845302DD3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26086,53 +26446,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB7A1B8-C6E8-4CC3-A91F-BC6D2D0C2290}">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="S3:U6"/>
+  <dimension ref="S3:U7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="9.140625" style="3"/>
-    <col min="18" max="18" width="16.85546875" style="3" customWidth="1"/>
-    <col min="19" max="21" width="16.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="16.85546875" style="1" customWidth="1"/>
+    <col min="19" max="21" width="16.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="19:20">
-      <c r="S3" s="4" t="s">
+    <row r="3" spans="19:21">
+      <c r="S3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="4">
-        <v>0</v>
+      <c r="T3" s="2">
+        <v>5</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="19:20">
-      <c r="S4" s="4" t="s">
+    <row r="4" spans="19:21">
+      <c r="S4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>21</v>
+      <c r="T4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="19:20">
-      <c r="S5" s="4" t="s">
+    <row r="5" spans="19:21">
+      <c r="S5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="4">
-        <v>1</v>
+      <c r="T5" s="2">
+        <v>2</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="19:20">
-      <c r="S6" s="4" t="s">
+    <row r="6" spans="19:21">
+      <c r="S6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>20</v>
+      <c r="T6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="19:21">
+      <c r="U7" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -26150,13 +26527,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -26172,192 +26549,919 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE70C6D5-BB39-4330-8EA0-072D7CA57ACF}">
+  <sheetPr codeName="ShtTaskView5"/>
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
+      <c r="A1" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" s="50" customFormat="1">
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3">
+        <v>289</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4">
+        <v>292</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5">
+        <v>294</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6">
+        <v>296</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7">
+        <v>297</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8">
+        <v>299</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9">
+        <v>301</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:M2101">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906E5AB5-12C8-4277-BA83-79BE21A05D8B}">
   <sheetPr codeName="ShtDepLog">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="26.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="11"/>
-    <col min="2" max="2" width="4" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="14"/>
-    <col min="15" max="16" width="9.5703125" style="15"/>
-    <col min="17" max="17" width="9.5703125" style="16"/>
-    <col min="18" max="20" width="9.5703125" style="15"/>
-    <col min="21" max="23" width="9.5703125" style="12"/>
+    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="10"/>
+    <col min="15" max="16" width="9.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A1" s="41"/>
+    <row r="1" spans="1:16" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="B2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="B3" s="7">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J3" s="14">
+        <v>43987</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="B4" s="7">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J4" s="14">
+        <v>43987</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="B5" s="7">
+        <v>81</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="8">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J5" s="14">
+        <v>43987</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="7">
+        <v>82</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J6" s="14">
+        <v>43987</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J7" s="14">
+        <v>43987</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="B8" s="7">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J8" s="14">
+        <v>43987</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="B9" s="7">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="8">
+        <v>11</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J9" s="14">
+        <v>43987</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="B10" s="7">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="8">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J10" s="14">
+        <v>43987</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="B11" s="7">
+        <v>86</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J11" s="14">
+        <v>44002</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="B12" s="7">
+        <v>84</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J12" s="14">
+        <v>44002</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="B13" s="7">
+        <v>83</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J13" s="14">
+        <v>44002</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="B14" s="7">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J14" s="14">
+        <v>44002</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="B15" s="7">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="8">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J15" s="14">
+        <v>44002</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1">
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="B16" s="7">
+        <v>21</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J16" s="14">
+        <v>44002</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="9:10" ht="26.25" customHeight="1">
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+    <row r="17" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B17" s="7">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="8">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>43952</v>
+      </c>
+      <c r="J17" s="14">
+        <v>44002</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="18" spans="9:10" ht="26.25" customHeight="1">
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="9:10" ht="26.25" customHeight="1">
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="9:10" ht="26.25" customHeight="1">
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="9:10" ht="26.25" customHeight="1">
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="9:10" ht="26.25" customHeight="1">
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="9:10" ht="26.25" customHeight="1">
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="9:10" ht="26.25" customHeight="1">
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+    <row r="18" spans="2:16" ht="26.25" customHeight="1">
+      <c r="B18" s="7">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="8">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>43959</v>
+      </c>
+      <c r="J18" s="14">
+        <v>44002</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Aligned"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Donor BL earlier than Beneficiary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"Alignment Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576 G1:G1048576">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"COMPLETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"COMPLETE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1048576">
     <cfRule type="iconSet" priority="5">
@@ -26369,13 +27473,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1 K3:L1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>K1="RED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>K1="AMBER"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>K1="GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26387,189 +27491,1317 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0661869B-2619-413E-921F-52D6B30D4584}">
   <sheetPr codeName="ShtExceptRep"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25">
-      <c r="A1" s="41" t="s">
-        <v>22</v>
+    <row r="1" spans="1:12" s="47" customFormat="1" ht="26.25">
+      <c r="A1" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F4">
+        <v>1417.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="20.25">
-      <c r="A5" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F5">
+        <v>1417.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F6">
+        <v>1421.875</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="20.25">
-      <c r="A7" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F7">
+        <v>1421.875</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F8">
+        <v>1421.875</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8"/>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="20.25">
-      <c r="A9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F9">
+        <v>1430.625</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F10">
+        <v>1430.625</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10"/>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F11">
+        <v>1430.625</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F12">
+        <v>1430.625</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F13">
+        <v>1430.625</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>83</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F14">
+        <v>1430.625</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>84</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F15">
+        <v>1430.625</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F16">
+        <v>1430.625</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F17">
+        <v>1430.625</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F18">
+        <v>1430.625</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E19" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F19">
+        <v>1430.625</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>91</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F20">
+        <v>1430.625</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44002</v>
+      </c>
+      <c r="F21">
+        <v>1430.625</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F22">
+        <v>1421.875</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F23">
+        <v>1421.875</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E24" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F24">
+        <v>1421.875</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E25" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F25">
+        <v>1421.875</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3">
+        <v>43952</v>
+      </c>
+      <c r="E26" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F26">
+        <v>1421.875</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.25">
+      <c r="A28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="12"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.25">
+      <c r="A30" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.25">
+      <c r="A32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>250</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>249</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E34" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>248</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E35" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>247</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E36" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>246</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E37" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>245</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E38" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>244</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E39" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>243</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E40" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>242</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E41" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>241</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E42" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>239</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E44" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>238</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="3">
+        <v>43959</v>
+      </c>
+      <c r="E45" s="3">
+        <v>43980</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26602,672 +28834,672 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:7">
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="5:7">
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="5:7">
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="5:7">
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="5:7">
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="5:7">
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="5:7">
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="5:7">
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="5:7">
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="5:7">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="5:7">
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="5:7">
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="5:7">
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="5:7">
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="5:7">
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="5:7">
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="5:7">
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="5:7">
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="5:7">
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="5:7">
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="5:7">
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="5:7">
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="5:7">
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="5:7">
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="5:7">
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="5:7">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="5:7">
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="5:7">
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="5:7">
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="5:7">
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="5:7">
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="5:7">
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="5:7">
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="5:7">
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="5:7">
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="5:7">
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="5:7">
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="5:7">
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="5:7">
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="5:7">
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="5:7">
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="5:7">
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="5:7">
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="5:7">
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="5:7">
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="5:7">
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="5:7">
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="5:7">
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="5:7">
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="5:7">
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="5:7">
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="5:7">
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="5:7">
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="5:7">
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="5:7">
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="5:7">
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="5:7">
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="5:7">
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="5:7">
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="5:7">
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="5:7">
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="5:7">
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="5:7">
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="5:7">
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="5:7">
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="5:7">
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="5:7">
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="5:7">
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="5:7">
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="5:7">
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
     </row>
     <row r="85" spans="5:7">
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
     </row>
     <row r="86" spans="5:7">
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="5:7">
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" spans="5:7">
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
     </row>
     <row r="89" spans="5:7">
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
     </row>
     <row r="90" spans="5:7">
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="5:7">
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="5:7">
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="5:7">
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="5:7">
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="5:7">
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="5:7">
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
     </row>
     <row r="97" spans="5:7">
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
     </row>
     <row r="98" spans="5:7">
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
     </row>
     <row r="99" spans="5:7">
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
     </row>
     <row r="100" spans="5:7">
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
     </row>
     <row r="101" spans="5:7">
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
     </row>
     <row r="102" spans="5:7">
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
     </row>
     <row r="103" spans="5:7">
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104" spans="5:7">
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
     </row>
     <row r="105" spans="5:7">
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" spans="5:7">
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107" spans="5:7">
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" spans="5:7">
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
     </row>
     <row r="109" spans="5:7">
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110" spans="5:7">
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
     </row>
     <row r="111" spans="5:7">
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112" spans="5:7">
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
     </row>
     <row r="113" spans="5:7">
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
     </row>
     <row r="114" spans="5:7">
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
     </row>
     <row r="115" spans="5:7">
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
     </row>
     <row r="116" spans="5:7">
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
     </row>
     <row r="117" spans="5:7">
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
     </row>
     <row r="118" spans="5:7">
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
     </row>
     <row r="119" spans="5:7">
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
     </row>
     <row r="120" spans="5:7">
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
     </row>
     <row r="121" spans="5:7">
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
     </row>
     <row r="122" spans="5:7">
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
     </row>
     <row r="123" spans="5:7">
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
     </row>
     <row r="124" spans="5:7">
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
     </row>
     <row r="125" spans="5:7">
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
     </row>
     <row r="126" spans="5:7">
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
     </row>
     <row r="127" spans="5:7">
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
     </row>
     <row r="128" spans="5:7">
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
     </row>
     <row r="129" spans="5:7">
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
     </row>
     <row r="130" spans="5:7">
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
     </row>
     <row r="131" spans="5:7">
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
     </row>
     <row r="132" spans="5:7">
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
     </row>
     <row r="133" spans="5:7">
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
     </row>
     <row r="134" spans="5:7">
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
     </row>
     <row r="135" spans="5:7">
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
     </row>
     <row r="136" spans="5:7">
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27280,43 +29512,1292 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="9"/>
-    <col min="8" max="8" width="15.85546875" style="10"/>
-    <col min="9" max="13" width="15.85546875" style="9"/>
+    <col min="6" max="7" width="15.85546875" style="5"/>
+    <col min="8" max="8" width="15.85546875" style="6"/>
+    <col min="9" max="13" width="15.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25">
-      <c r="A1" s="41" t="s">
-        <v>23</v>
-      </c>
+    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
+      <c r="A1" s="39"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+    <row r="2" spans="1:13" s="50" customFormat="1">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64FADC9-B1D1-43B1-A097-16E01D237C09}">
+  <sheetPr codeName="ShtTaskView1"/>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
+      <c r="A1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" s="50" customFormat="1">
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43952</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43987</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1421.875</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:M2101">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2001E806-3EE8-4039-B444-C6325D6B0E46}">
+  <sheetPr codeName="ShtTaskView2"/>
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
+      <c r="A1" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" s="50" customFormat="1">
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3">
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43952</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43987</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1421.875</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43952</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44002</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1430.625</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5">
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43952</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1430.625</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43952</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44002</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1430.625</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43952</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44002</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1430.625</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43952</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44002</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1430.625</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43987</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1421.875</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43987</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1421.875</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43987</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1421.875</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1417.5</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F13" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1417.5</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1417.5</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F15" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1417.5</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16">
+        <v>233</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1417.5</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <v>242</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18">
+        <v>243</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F18" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:M2101">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8464C9FB-C164-41E1-9E61-8E827E9663D1}">
+  <sheetPr codeName="ShtTaskView3"/>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
+      <c r="A1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" s="50" customFormat="1">
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3">
+        <v>251</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F3" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1417.5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1417.5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5">
+        <v>257</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1417.5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6">
+        <v>259</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43959</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43980</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1417.5</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:M2101">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BF1576-956D-4666-AC7C-AB7E28AFE357}">
+  <sheetPr codeName="ShtTaskView4"/>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
+      <c r="A1" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" s="50" customFormat="1">
+      <c r="B2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3">
+        <v>276</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4">
+        <v>277</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5">
+        <v>278</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6">
+        <v>279</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7">
+        <v>280</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8">
+        <v>281</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9">
+        <v>282</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10">
+        <v>283</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11">
+        <v>284</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12">
+        <v>285</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13">
+        <v>286</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14">
+        <v>287</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15">
+        <v>288</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43987</v>
+      </c>
+      <c r="F15" s="5">
+        <v>44022</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1443.75</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:M2101">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND($D3="", $E3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MSP Reporting Tool.xlsx
+++ b/MSP Reporting Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Development Areas\MSP Reporting Tool\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D9D5B4-9007-438F-8B51-6907648A1693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD76804-E911-4318-A351-E7414872B883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7485911-4FC0-4026-A472-9F894C577CCD}"/>
   </bookViews>
@@ -18,15 +18,10 @@
     <sheet name="Consolidated  Exception Report " sheetId="245" r:id="rId3"/>
     <sheet name="Plan Data" sheetId="227" r:id="rId4"/>
     <sheet name="Look Ahead Report" sheetId="246" state="hidden" r:id="rId5"/>
-    <sheet name="got" sheetId="336" r:id="rId6"/>
-    <sheet name="Togo" sheetId="337" r:id="rId7"/>
-    <sheet name="Benue" sheetId="338" r:id="rId8"/>
-    <sheet name="Migration" sheetId="339" r:id="rId9"/>
-    <sheet name="lumidee" sheetId="340" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_ff3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Data Sheets"}</definedName>
@@ -75,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>DTI</t>
   </si>
@@ -134,274 +129,13 @@
     <t>Project</t>
   </si>
   <si>
-    <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.1.mpp</t>
-  </si>
-  <si>
     <t>Exception Report</t>
-  </si>
-  <si>
-    <t>Local RAG</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Benue</t>
-  </si>
-  <si>
-    <t>Develop Start</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System Test Start </t>
-  </si>
-  <si>
-    <t>System Test Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIT Change Slot Requested </t>
-  </si>
-  <si>
-    <t xml:space="preserve">System Integration Test Start </t>
-  </si>
-  <si>
-    <t>System Integration Test Complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Acceptance Test Start  </t>
-  </si>
-  <si>
-    <t>People Impacts Delivered</t>
-  </si>
-  <si>
-    <t>Customer Impacts Delivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post Implementation Review Signed Off </t>
-  </si>
-  <si>
-    <t>Handover Report Signed Off</t>
-  </si>
-  <si>
-    <t>Deploy Complete</t>
-  </si>
-  <si>
-    <t>Benefits Realisation Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benefits Realisation Complete/Project Closed </t>
-  </si>
-  <si>
-    <t>GIT Engagement Start</t>
-  </si>
-  <si>
-    <t>GIT Engagement End (IT Readiness Assessment 2.1 signed off)</t>
-  </si>
-  <si>
-    <t>COMPLETE</t>
-  </si>
-  <si>
-    <t>GIT Investigation Start</t>
-  </si>
-  <si>
-    <t>Method of Service Introduction Agreed  (i.e. V&amp;E Managed / Project Managed/ Change Managed), SI Acceptance Area Representatives Engaged</t>
-  </si>
-  <si>
-    <t>GIT Investigation End   (IT Readiness Assessment 2.2  signed off)</t>
-  </si>
-  <si>
-    <t>GIT Develop Start</t>
-  </si>
-  <si>
-    <t>GIT Design Start</t>
-  </si>
-  <si>
-    <t>Design Start</t>
-  </si>
-  <si>
-    <t>Full Requirements Definition Signed Off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid Level Platform Designs Complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Test Phase&gt; Environment and Data Ready for Testing </t>
-  </si>
-  <si>
-    <t>Design Complete</t>
-  </si>
-  <si>
-    <t>Build Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build Complete </t>
-  </si>
-  <si>
-    <t>Test Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Acceptance Test Complete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Functional Test Start </t>
-  </si>
-  <si>
-    <t>Non-Functional Test Complete</t>
-  </si>
-  <si>
-    <t>Test Complete</t>
-  </si>
-  <si>
-    <t>Develop Complete</t>
-  </si>
-  <si>
-    <t>Deploy Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment Start </t>
-  </si>
-  <si>
-    <t>Deployment Live</t>
-  </si>
-  <si>
-    <t>Dependency Log</t>
-  </si>
-  <si>
-    <t>Dep In</t>
-  </si>
-  <si>
-    <t>Dep Out</t>
-  </si>
-  <si>
-    <t>Beneficiary</t>
-  </si>
-  <si>
-    <t>Donor</t>
-  </si>
-  <si>
-    <t>Milestone Report - got</t>
-  </si>
-  <si>
-    <t>Milestone Report - Togo</t>
-  </si>
-  <si>
-    <t>Milestone Report - Benue</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Milestone Report - Migration</t>
-  </si>
-  <si>
-    <t>Migration</t>
-  </si>
-  <si>
-    <t>Milestone Report - lumidee</t>
-  </si>
-  <si>
-    <t>lumidee</t>
-  </si>
-  <si>
-    <t>GIT Build End</t>
-  </si>
-  <si>
-    <t>GIT Test Start</t>
-  </si>
-  <si>
-    <t>GIT System Test Start</t>
-  </si>
-  <si>
-    <t>GIT System Test End  (IT Readiness Assessment 3.2 A signed off)</t>
-  </si>
-  <si>
-    <t>GIT SI Test Start</t>
-  </si>
-  <si>
-    <t>GIT SI Test End  (IT Readiness Assessment 3.2 B signed off)</t>
-  </si>
-  <si>
-    <t>GIT UAT Start</t>
-  </si>
-  <si>
-    <t>GIT UAT End</t>
-  </si>
-  <si>
-    <t>GIT NFT Start</t>
-  </si>
-  <si>
-    <t>GIT NFT End</t>
-  </si>
-  <si>
-    <t>GIT OAT Start</t>
-  </si>
-  <si>
-    <t>GIT OAT End</t>
-  </si>
-  <si>
-    <t>GIT Regression Test Start</t>
-  </si>
-  <si>
-    <t>GIT Regression Test End</t>
-  </si>
-  <si>
-    <t>All SI Deliverables delivered/complete</t>
-  </si>
-  <si>
-    <t>SI Approval for Implementation to proceed (+3 days after SD Gateway 1 Approval)</t>
-  </si>
-  <si>
-    <t>GIT Test End   (IT Readiness Assessment 3.3 signed off)</t>
-  </si>
-  <si>
-    <t>GIT Develop End</t>
-  </si>
-  <si>
-    <t>GIT Live Start</t>
-  </si>
-  <si>
-    <t>GIT Live End</t>
-  </si>
-  <si>
-    <t>Architecture Overview completed</t>
-  </si>
-  <si>
-    <t>Deliverable Review List updated</t>
-  </si>
-  <si>
-    <t>IT Project Management Plan completed</t>
-  </si>
-  <si>
-    <t>IT Finance Workbook &amp; Investment Appraisal Template signed off</t>
-  </si>
-  <si>
-    <t>Master Work Order - request for quotation issued</t>
-  </si>
-  <si>
-    <t>Implementation Plan drafted</t>
-  </si>
-  <si>
-    <t>Master Test Plan created</t>
-  </si>
-  <si>
-    <t>SOX Impact Assessment submitted</t>
-  </si>
-  <si>
-    <t>Mid Level Platform Design baselined</t>
-  </si>
-  <si>
-    <t>Initial Requirements Specification signed off</t>
-  </si>
-  <si>
-    <t>Infrastructure Design Review completed</t>
+    <t>C:\Users\Julian\OneDrive\Documents\OneSheet\titilayo ilesanmi\Planning template v3.0.mpp</t>
   </si>
 </sst>
 </file>
@@ -662,16 +396,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -790,9 +521,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -800,113 +528,171 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{ED3DACD9-5B4B-47B4-AB17-B329AFBAD914}"/>
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{7A51C740-AF2D-4846-9841-1DF2C6D07787}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="26">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color theme="9" tint="-0.499984740745262"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color theme="7" tint="-0.499984740745262"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color theme="5" tint="-0.499984740745262"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color theme="7" tint="-0.499984740745262"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color theme="5" tint="-0.499984740745262"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -986,6 +772,112 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7"/>
+        </left>
+        <right style="thin">
+          <color theme="7"/>
+        </right>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1516,10 +1408,10 @@
                   <a:gradFill flip="none" rotWithShape="1">
                     <a:gsLst>
                       <a:gs pos="0">
-                        <a:srgbClr val="8A7E81"/>
+                        <a:srgbClr val="DA2C38"/>
                       </a:gs>
                       <a:gs pos="100000">
-                        <a:srgbClr val="8A7E81"/>
+                        <a:srgbClr val="DA2C38"/>
                       </a:gs>
                     </a:gsLst>
                     <a:lin ang="5400000" scaled="1"/>
@@ -1530,27 +1422,22 @@
                     <a:prstDash val="solid"/>
                     <a:miter lim="800000"/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                      <a:prstClr val="black">
+                        <a:alpha val="50000"/>
+                      </a:prstClr>
+                    </a:innerShdw>
+                  </a:effectLst>
                   <a:extLst>
                     <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                       <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
                         <a:solidFill>
-                          <a:srgbClr val="DA2C38"/>
+                          <a:srgbClr val="756A6D"/>
                         </a:solidFill>
                         <a:prstDash val="solid"/>
                         <a:miter lim="800000"/>
                       </a14:hiddenLine>
-                    </a:ext>
-                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                        <a:effectLst>
-                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                            <a:prstClr val="black">
-                              <a:alpha val="50000"/>
-                            </a:prstClr>
-                          </a:innerShdw>
-                        </a:effectLst>
-                      </a14:hiddenEffects>
                     </a:ext>
                   </a:extLst>
                 </xdr:spPr>
@@ -1609,10 +1496,10 @@
                   <a:gradFill flip="none" rotWithShape="1">
                     <a:gsLst>
                       <a:gs pos="0">
-                        <a:srgbClr val="DA2C38"/>
+                        <a:srgbClr val="8A7E81"/>
                       </a:gs>
                       <a:gs pos="100000">
-                        <a:srgbClr val="DA2C38"/>
+                        <a:srgbClr val="8A7E81"/>
                       </a:gs>
                     </a:gsLst>
                     <a:lin ang="5400000" scaled="1"/>
@@ -1623,22 +1510,27 @@
                     <a:prstDash val="solid"/>
                     <a:miter lim="800000"/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
-                      <a:prstClr val="black">
-                        <a:alpha val="50000"/>
-                      </a:prstClr>
-                    </a:innerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                   <a:extLst>
                     <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                       <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="0" cap="flat" cmpd="sng" algn="ctr">
                         <a:solidFill>
-                          <a:srgbClr val="756A6D"/>
+                          <a:srgbClr val="DA2C38"/>
                         </a:solidFill>
                         <a:prstDash val="solid"/>
                         <a:miter lim="800000"/>
                       </a14:hiddenLine>
+                    </a:ext>
+                    <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                      <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                        <a:effectLst>
+                          <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                            <a:prstClr val="black">
+                              <a:alpha val="50000"/>
+                            </a:prstClr>
+                          </a:innerShdw>
+                        </a:effectLst>
+                      </a14:hiddenEffects>
                     </a:ext>
                   </a:extLst>
                 </xdr:spPr>
@@ -26446,7 +26338,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB7A1B8-C6E8-4CC3-A91F-BC6D2D0C2290}">
   <sheetPr codeName="ShtMain"/>
-  <dimension ref="S3:U7"/>
+  <dimension ref="S3:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
@@ -26463,53 +26355,36 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="19:21">
+    <row r="3" spans="19:20">
       <c r="S3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="2">
-        <v>5</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="19:21">
+    <row r="4" spans="19:20">
       <c r="S4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="19:21">
+    <row r="5" spans="19:20">
       <c r="S5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T5" s="2">
-        <v>2</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="19:21">
+    <row r="6" spans="19:20">
       <c r="S6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="19:21">
-      <c r="U7" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -26549,269 +26424,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE70C6D5-BB39-4330-8EA0-072D7CA57ACF}">
-  <sheetPr codeName="ShtTaskView5"/>
-  <dimension ref="A1:M9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
-      <c r="A1" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" s="50" customFormat="1">
-      <c r="B2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3">
-        <v>289</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F3" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4">
-        <v>292</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F4" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5">
-        <v>294</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F5" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6">
-        <v>296</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7">
-        <v>297</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F7" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8">
-        <v>299</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F8" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9">
-        <v>301</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F9" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906E5AB5-12C8-4277-BA83-79BE21A05D8B}">
   <sheetPr codeName="ShtDepLog">
@@ -26819,652 +26431,172 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="26.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="10"/>
-    <col min="15" max="16" width="9.5703125" style="11"/>
+    <col min="1" max="1" width="5.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="9"/>
+    <col min="15" max="16" width="9.5703125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
+    <row r="1" spans="1:16" s="45" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B3" s="7">
-        <v>13</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="8">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J3" s="14">
-        <v>43987</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B4" s="7">
-        <v>14</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="8">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J4" s="14">
-        <v>43987</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B5" s="7">
-        <v>81</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="8">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J5" s="14">
-        <v>43987</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B6" s="7">
-        <v>82</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="8">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J6" s="14">
-        <v>43987</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B7" s="7">
-        <v>15</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="8">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J7" s="14">
-        <v>43987</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B8" s="7">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="8">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J8" s="14">
-        <v>43987</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B9" s="7">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="8">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J9" s="14">
-        <v>43987</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B10" s="7">
-        <v>18</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="8">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J10" s="14">
-        <v>43987</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B11" s="7">
-        <v>86</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="8">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J11" s="14">
-        <v>44002</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B12" s="7">
-        <v>84</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="8">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J12" s="14">
-        <v>44002</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B13" s="7">
-        <v>83</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="8">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J13" s="14">
-        <v>44002</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B14" s="7">
-        <v>19</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="8">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J14" s="14">
-        <v>44002</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B15" s="7">
-        <v>20</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J15" s="14">
-        <v>44002</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1">
-      <c r="B16" s="7">
-        <v>21</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="8">
-        <v>10</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J16" s="14">
-        <v>44002</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B17" s="7">
-        <v>22</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="8">
-        <v>10</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>43952</v>
-      </c>
-      <c r="J17" s="14">
-        <v>44002</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>23</v>
-      </c>
+    <row r="17" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B18" s="7">
-        <v>23</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="8">
-        <v>10</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
-        <v>43959</v>
-      </c>
-      <c r="J18" s="14">
-        <v>44002</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>23</v>
-      </c>
+    <row r="18" spans="9:10" ht="26.25" customHeight="1">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"Aligned"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Donor BL earlier than Beneficiary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"Alignment Issue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576 G1:G1048576">
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>"AMBER"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>"RED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"COMPLETE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"COMPLETE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="iconSet" priority="5">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -27473,13 +26605,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L1 K3:L1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>K1="COMPLETE"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>K1="RED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>K1="AMBER"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>K1="GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27491,7 +26626,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0661869B-2619-413E-921F-52D6B30D4584}">
   <sheetPr codeName="ShtExceptRep"/>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -27499,7 +26634,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -27514,1294 +26649,168 @@
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="47" customFormat="1" ht="26.25">
-      <c r="A1" s="39" t="s">
-        <v>20</v>
+    <row r="1" spans="1:12" s="46" customFormat="1" ht="26.25">
+      <c r="A1" s="38" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F4">
-        <v>1417.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" t="s">
-        <v>23</v>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.25">
+      <c r="A5" s="20" t="s">
+        <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F5">
-        <v>1417.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F6">
-        <v>1421.875</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" t="s">
-        <v>23</v>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.25">
+      <c r="A7" s="24" t="s">
+        <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F7">
-        <v>1421.875</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F8">
-        <v>1421.875</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" t="s">
-        <v>23</v>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.25">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E9" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F9">
-        <v>1430.625</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E10" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F10">
-        <v>1430.625</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E11" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F11">
-        <v>1430.625</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E12" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F12">
-        <v>1430.625</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E13" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F13">
-        <v>1430.625</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>83</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E14" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F14">
-        <v>1430.625</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>84</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E15" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F15">
-        <v>1430.625</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>86</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E16" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F16">
-        <v>1430.625</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>85</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E17" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F17">
-        <v>1430.625</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>88</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E18" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F18">
-        <v>1430.625</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>87</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E19" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F19">
-        <v>1430.625</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>91</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E20" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F20">
-        <v>1430.625</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>90</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E21" s="3">
-        <v>44002</v>
-      </c>
-      <c r="F21">
-        <v>1430.625</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>89</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E22" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F22">
-        <v>1421.875</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E23" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F23">
-        <v>1421.875</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E24" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F24">
-        <v>1421.875</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E25" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F25">
-        <v>1421.875</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="3">
-        <v>43952</v>
-      </c>
-      <c r="E26" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F26">
-        <v>1421.875</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.25">
-      <c r="A28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="12"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.25">
-      <c r="A30" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="28"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.25">
-      <c r="A32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>250</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E33" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33"/>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>249</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E34" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>248</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E35" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36">
-        <v>247</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E36" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
-        <v>246</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E37" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38">
-        <v>245</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E38" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39">
-        <v>244</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E39" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40">
-        <v>243</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E40" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41">
-        <v>242</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E41" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41"/>
-      <c r="H41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42">
-        <v>241</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E42" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42"/>
-      <c r="H42" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43">
-        <v>240</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E43" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44">
-        <v>239</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E44" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44"/>
-      <c r="H44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45">
-        <v>238</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="3">
-        <v>43959</v>
-      </c>
-      <c r="E45" s="3">
-        <v>43980</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
+      <c r="L10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28819,17 +26828,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="130.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29512,7 +27522,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
@@ -29522,1283 +27532,53 @@
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.85546875" style="5"/>
-    <col min="8" max="8" width="15.85546875" style="6"/>
-    <col min="9" max="13" width="15.85546875" style="5"/>
+    <col min="8" max="9" width="7.7109375" style="6" customWidth="1"/>
+    <col min="10" max="13" width="15.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
-      <c r="A1" s="39"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+    <row r="1" spans="1:13" s="45" customFormat="1" ht="26.25">
+      <c r="A1" s="38"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
-    <row r="2" spans="1:13" s="50" customFormat="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+    <row r="2" spans="1:13" s="48" customFormat="1">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="C3:G2101 J3:M2101">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>AND($D3="", $E3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64FADC9-B1D1-43B1-A097-16E01D237C09}">
-  <sheetPr codeName="ShtTaskView1"/>
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
-      <c r="A1" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" s="50" customFormat="1">
-      <c r="B2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43952</v>
-      </c>
-      <c r="F3" s="5">
-        <v>43987</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1421.875</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="H1:I1 H3:I1048576">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>H1="COMPLETE"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2001E806-3EE8-4039-B444-C6325D6B0E46}">
-  <sheetPr codeName="ShtTaskView2"/>
-  <dimension ref="A1:M18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
-      <c r="A1" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" s="50" customFormat="1">
-      <c r="B2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3">
-        <v>89</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43952</v>
-      </c>
-      <c r="F3" s="5">
-        <v>43987</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1421.875</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4">
-        <v>90</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43952</v>
-      </c>
-      <c r="F4" s="5">
-        <v>44002</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1430.625</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5">
-        <v>91</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43952</v>
-      </c>
-      <c r="F5" s="5">
-        <v>44002</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1430.625</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43952</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44002</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1430.625</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7">
-        <v>88</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43952</v>
-      </c>
-      <c r="F7" s="5">
-        <v>44002</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1430.625</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8">
-        <v>85</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43952</v>
-      </c>
-      <c r="F8" s="5">
-        <v>44002</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1430.625</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F9" s="5">
-        <v>43987</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1421.875</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F10" s="5">
-        <v>43987</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1421.875</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F11" s="5">
-        <v>43987</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1421.875</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F12" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1417.5</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F13" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1417.5</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14">
-        <v>29</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F14" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1417.5</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F15" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1417.5</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16">
-        <v>233</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F16" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1417.5</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17">
-        <v>242</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F17" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18">
-        <v>243</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F18" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>H1="RED"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8464C9FB-C164-41E1-9E61-8E827E9663D1}">
-  <sheetPr codeName="ShtTaskView3"/>
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
-      <c r="A1" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" s="50" customFormat="1">
-      <c r="B2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3">
-        <v>251</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F3" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1417.5</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4">
-        <v>255</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F4" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1417.5</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5">
-        <v>257</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1417.5</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6">
-        <v>259</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43959</v>
-      </c>
-      <c r="F6" s="5">
-        <v>43980</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1417.5</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>H1="AMBER"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BF1576-956D-4666-AC7C-AB7E28AFE357}">
-  <sheetPr codeName="ShtTaskView4"/>
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9" max="12" width="10.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="46" customFormat="1" ht="26.25">
-      <c r="A1" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" s="50" customFormat="1">
-      <c r="B2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3">
-        <v>276</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F3" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4">
-        <v>277</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F4" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5">
-        <v>278</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F5" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6">
-        <v>279</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7">
-        <v>280</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F7" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8">
-        <v>281</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F8" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9">
-        <v>282</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F9" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10">
-        <v>283</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F10" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11">
-        <v>284</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F11" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12">
-        <v>285</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F12" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13">
-        <v>286</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F13" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14">
-        <v>287</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F14" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15">
-        <v>288</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="3">
-        <v>43987</v>
-      </c>
-      <c r="F15" s="5">
-        <v>44022</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1443.75</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:M2101">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($D3="", $E3&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>H1="GREEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
